--- a/data/hotels_by_city/Houston/Houston_shard_4.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10259175-Reviews-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Aloft-Houston-Downtown.h15136687.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1481 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r596237370-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10259175</t>
+  </si>
+  <si>
+    <t>596237370</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Friendly and Convenient Stay in Downtown Houston</t>
+  </si>
+  <si>
+    <t>I stayed at the Aloft Downtown Houston for 7 nights in July 2018. This was my first stay at an Aloft brand hotel and I enjoyed the convenience of the hotel and the friendliness of the staff. The hotel offers solid accommodations. The room was clean and modern. There are no frills, but the price is affordable and a great value for this level of comfort. Others complained about noise due to construction, but I had no problems whatsoever. The staff were friendly and willing to take the extra step to make my staff enjoyable. Houston's light rail train is a block away from this hotel making it very easy to navigate the downtown area either by train, or on foot. Enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed at the Aloft Downtown Houston for 7 nights in July 2018. This was my first stay at an Aloft brand hotel and I enjoyed the convenience of the hotel and the friendliness of the staff. The hotel offers solid accommodations. The room was clean and modern. There are no frills, but the price is affordable and a great value for this level of comfort. Others complained about noise due to construction, but I had no problems whatsoever. The staff were friendly and willing to take the extra step to make my staff enjoyable. Houston's light rail train is a block away from this hotel making it very easy to navigate the downtown area either by train, or on foot. Enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r594276578-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594276578</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>should be better</t>
+  </si>
+  <si>
+    <t>i really like aloft hotels, and been in many different properties, but this one was a bit of disappointment.location is nice, just in the middle of downtown, close to discovery green and some nice restaurants. the parking is valet-only and it's a bit pricey. there was a noisy construction next door, but it's clearly not the hotels fault. the room was fine, but the smell wasn't. the layout is a bit different than the usual aloft. cleanliness is far from standards.breakfast was complimentary for platinum members, however the choices were limited, and the ordering process was unnecessarily complicated.there was a rooftop pool, but unfortunately it was really tiny and dirty. the rooftop bar was closed for some reason, on a friday night, the day before houston pride.i think if staying in the middle of downtown is not a priority, it's easy to find much better offers in houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>i really like aloft hotels, and been in many different properties, but this one was a bit of disappointment.location is nice, just in the middle of downtown, close to discovery green and some nice restaurants. the parking is valet-only and it's a bit pricey. there was a noisy construction next door, but it's clearly not the hotels fault. the room was fine, but the smell wasn't. the layout is a bit different than the usual aloft. cleanliness is far from standards.breakfast was complimentary for platinum members, however the choices were limited, and the ordering process was unnecessarily complicated.there was a rooftop pool, but unfortunately it was really tiny and dirty. the rooftop bar was closed for some reason, on a friday night, the day before houston pride.i think if staying in the middle of downtown is not a priority, it's easy to find much better offers in houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r590568603-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590568603</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>The staff makes this place a great place to stay in Houston.</t>
+  </si>
+  <si>
+    <t>Our team stayed here recently while attending a conference at the downtown conference center.  The location is great, and we enjoyed our stay, but the best part of the hotel is its staff.  Three staff members were especially helpful to us: Victor, Kim, and Matthew.  Every time we went to the front desk, we were greeted with wide smiles and a true desire to help us.  Thank you to all of you!  The shuttle to and from the convention center was very helpful given the heavy rainfall Houston was experiencing during our stay.I have one suggestion for Aloft: either add a separate light switch for the toilet/shower area or add a door to the entire bathroom.  The way things are now, going into the bathroom wakes up everyone in the room.  Strange that this design oversight ever made it off the drawing board.  Otherwise, a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Our team stayed here recently while attending a conference at the downtown conference center.  The location is great, and we enjoyed our stay, but the best part of the hotel is its staff.  Three staff members were especially helpful to us: Victor, Kim, and Matthew.  Every time we went to the front desk, we were greeted with wide smiles and a true desire to help us.  Thank you to all of you!  The shuttle to and from the convention center was very helpful given the heavy rainfall Houston was experiencing during our stay.I have one suggestion for Aloft: either add a separate light switch for the toilet/shower area or add a door to the entire bathroom.  The way things are now, going into the bathroom wakes up everyone in the room.  Strange that this design oversight ever made it off the drawing board.  Otherwise, a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r588542735-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588542735</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>The bathroom has one light switch, which turns on the light by the sink etc as well as the light in the toilet/shower room. But there is no door closing the sink room off to the rest of the hotel room, so if someone has to use the restroom in the middle of the night, the light shines right onto the bed and then they have to listen to you wash your hands etc. Internet is slow. Room smelled oddly like a pool house (chlorine-y and almost musty?) Despite being set to a really low temp, the room got really hot in the middle of the night. Was very hard to get blankets, towels, or washcloths. Phone didn’t work half the time. Doors slam REALLY loud unless you slowly close them. Shuttle service is VERY nice, very convenient way to get somewhere downtown and valet gentlemen we’re all very nice and helpful. M Bed was comfy. Seemed clean enough. Overall, kind of a disappointing hotel stay, especially for the price. Would not bother to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>The bathroom has one light switch, which turns on the light by the sink etc as well as the light in the toilet/shower room. But there is no door closing the sink room off to the rest of the hotel room, so if someone has to use the restroom in the middle of the night, the light shines right onto the bed and then they have to listen to you wash your hands etc. Internet is slow. Room smelled oddly like a pool house (chlorine-y and almost musty?) Despite being set to a really low temp, the room got really hot in the middle of the night. Was very hard to get blankets, towels, or washcloths. Phone didn’t work half the time. Doors slam REALLY loud unless you slowly close them. Shuttle service is VERY nice, very convenient way to get somewhere downtown and valet gentlemen we’re all very nice and helpful. M Bed was comfy. Seemed clean enough. Overall, kind of a disappointing hotel stay, especially for the price. Would not bother to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r586622128-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586622128</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Comfortable rooms in a central downtown location</t>
+  </si>
+  <si>
+    <t>Rooms are nice, but a bit different than what you see in most hotels.  Design/styling seems to be making a statement for the younger crowd.  The bar is okay but I have never seen any specials or happy hour.  Food service is poor.   Overall nice place to stay since there are so many places to eat in close proximity.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Rooms are nice, but a bit different than what you see in most hotels.  Design/styling seems to be making a statement for the younger crowd.  The bar is okay but I have never seen any specials or happy hour.  Food service is poor.   Overall nice place to stay since there are so many places to eat in close proximity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r584194670-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584194670</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>I want to send a Big thank you to the front desk staff at Aloft Downtown Houston especially Victor for all of their help in straightening out my reservation nightmare. You were all so helpful and kind to be sure my dilemma was fixed.The hotel made sure to inform me of possible noise during the evening hours due to construction near the hotel. Vincent was able to give me a room away from the noise.I will be back when I am in Houston again and will recommend this chic urban friendly hotel to others. My sincere gratitude.Elba MarmoMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>I want to send a Big thank you to the front desk staff at Aloft Downtown Houston especially Victor for all of their help in straightening out my reservation nightmare. You were all so helpful and kind to be sure my dilemma was fixed.The hotel made sure to inform me of possible noise during the evening hours due to construction near the hotel. Vincent was able to give me a room away from the noise.I will be back when I am in Houston again and will recommend this chic urban friendly hotel to others. My sincere gratitude.Elba MarmoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r579281277-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579281277</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Our family of 4 stayed here while we were in town to see Hamilton at the Hobby Center.  The hotel is centrally located, there is a market right across the street, very safe neighborhood.  Uber cost $32 from the Houston airport.  Well worth it.  The pool area was really nice.  Our room was actually much bigger than other Alofts we have stayed at previously.  No noise and a very clean hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Our family of 4 stayed here while we were in town to see Hamilton at the Hobby Center.  The hotel is centrally located, there is a market right across the street, very safe neighborhood.  Uber cost $32 from the Houston airport.  Well worth it.  The pool area was really nice.  Our room was actually much bigger than other Alofts we have stayed at previously.  No noise and a very clean hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r578867581-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578867581</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Nice Aloft</t>
+  </si>
+  <si>
+    <t>I like the Aloft brand as part of Starwood. I have stayed at several locations and is a nice more price effective alternative to W brand. This location is good, not great stayed at better but still very good. My room is on the highest floor and love the high ceilings in my room. The room is why I expected it to be modern, comfortable and roomy. Hotel staff was very nice and helpful. Nice option to stay in downtown for a more fun and modern option.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>I like the Aloft brand as part of Starwood. I have stayed at several locations and is a nice more price effective alternative to W brand. This location is good, not great stayed at better but still very good. My room is on the highest floor and love the high ceilings in my room. The room is why I expected it to be modern, comfortable and roomy. Hotel staff was very nice and helpful. Nice option to stay in downtown for a more fun and modern option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r577234045-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577234045</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Decent option, good location</t>
+  </si>
+  <si>
+    <t>I just completed a stay here and overall give this property a positive review. It is NOT a "cookie cutter" Aloft like you'll see around the suburbs of Dallas or anywhere else. This property was a gut job of an old building in downtown Houston. It retains some of the character of the old building and to me that is a nice touch.The rooms are very typical Aloft, on the small side (no Platinum upgrade of any sort), the bed is comfortable but the noise from the street is noticeable. They must not have gone with any sort of upgraded noise reduction windows as you hear the street noise 24x7,.The internet is by modern standards not up to par. There is no "enhanced option" (free for Platinum members chain wide) so all you get is about 2-3mps-- that is super slow by today's standards (I was at a Ritz Carlton last week and got 150mps).Their parking is expensive (valet only) at $32 which is about a third the cost of the room rate that I paid. The guests are definitely on the younger side as well.The location is very good, right in the middle of the business district.Overall, this is a good, not great location but considering the value I give it a "very good" rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>I just completed a stay here and overall give this property a positive review. It is NOT a "cookie cutter" Aloft like you'll see around the suburbs of Dallas or anywhere else. This property was a gut job of an old building in downtown Houston. It retains some of the character of the old building and to me that is a nice touch.The rooms are very typical Aloft, on the small side (no Platinum upgrade of any sort), the bed is comfortable but the noise from the street is noticeable. They must not have gone with any sort of upgraded noise reduction windows as you hear the street noise 24x7,.The internet is by modern standards not up to par. There is no "enhanced option" (free for Platinum members chain wide) so all you get is about 2-3mps-- that is super slow by today's standards (I was at a Ritz Carlton last week and got 150mps).Their parking is expensive (valet only) at $32 which is about a third the cost of the room rate that I paid. The guests are definitely on the younger side as well.The location is very good, right in the middle of the business district.Overall, this is a good, not great location but considering the value I give it a "very good" rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r571988805-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571988805</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Always A Great Value!</t>
+  </si>
+  <si>
+    <t>As a Starwood (now Marriott) enthusiast, I am always excited to explore the different brands through the US and abroad. Aloft never disappoints! From the extremely professional staff to its central location, Aloft Hotel provided the perfect catalyst for my friends and I to enjoy Houston. The surrounding area was safe with lots of street art unique to the city and several food options to choose from. The bartender at the pool was also extremely helpful in planning our nightly activities. Thumbs up to Aloft Houston Downtown!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>As a Starwood (now Marriott) enthusiast, I am always excited to explore the different brands through the US and abroad. Aloft never disappoints! From the extremely professional staff to its central location, Aloft Hotel provided the perfect catalyst for my friends and I to enjoy Houston. The surrounding area was safe with lots of street art unique to the city and several food options to choose from. The bartender at the pool was also extremely helpful in planning our nightly activities. Thumbs up to Aloft Houston Downtown!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r571949725-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571949725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went for dinner </t>
+  </si>
+  <si>
+    <t>I booked a room at the Downtown Houston Aloft Hotel for Saturday night to take my girlfriend to Spindeltop  restaurant. We arrived to check in around 4:30. The guy at the desk told me that my room was not ready but would be ready in 20 min. So since I had nothing better to do while we waited we went to the mall. Came back at around 7 to get ready for our dinner date at 8:15. Valet the car get all of our stuff and head in to check in. The guy at the desk say there are no rooms available. At this point I am absolutely infuriated, I just drove a hour to go to dinner and I have no where to stay or even get ready to go to dinner. The guy at the desk tells me that all he can do is refund my money. I ask to speak to the manager he said that he is not in but will be in later and hands me his card. I give the valets my ticket and go wait for my car with my girlfriend who is almost in tears. I call the number on the card I was just giving to the manger and it rings straight to front desk. A lot of good that does me.  I get in my car from the valet and there is a green flag on my sports cars dash...I booked a room at the Downtown Houston Aloft Hotel for Saturday night to take my girlfriend to Spindeltop  restaurant. We arrived to check in around 4:30. The guy at the desk told me that my room was not ready but would be ready in 20 min. So since I had nothing better to do while we waited we went to the mall. Came back at around 7 to get ready for our dinner date at 8:15. Valet the car get all of our stuff and head in to check in. The guy at the desk say there are no rooms available. At this point I am absolutely infuriated, I just drove a hour to go to dinner and I have no where to stay or even get ready to go to dinner. The guy at the desk tells me that all he can do is refund my money. I ask to speak to the manager he said that he is not in but will be in later and hands me his card. I give the valets my ticket and go wait for my car with my girlfriend who is almost in tears. I call the number on the card I was just giving to the manger and it rings straight to front desk. A lot of good that does me.  I get in my car from the valet and there is a green flag on my sports cars dash board which meaning they put my car in sport mode to race it around to valet it. now I am absolutely seeing all red. I look in the back seat of my car and the bottle of Belvedere vodka is gone too. To stay my experience was awful is a understatement. Since being at the hotel I have called 4 times to speak to the manager. I was told every time until this morning he would be in later. This morning I was told he was off for the weekend. The guy at the desk had also told me he reversed my charges on my card which he did not do. So I’m a nutshell I wasted three hours of drive time to come to Aloft Houston downtown. I never got a room. My dinner and evening we’re completely ruined. Canceled reservations cost $75 at the restaurant. My car was raced around from valet and the valet stole a bottle of alcohol out of my car. Absolutely horrific evening and place. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>I booked a room at the Downtown Houston Aloft Hotel for Saturday night to take my girlfriend to Spindeltop  restaurant. We arrived to check in around 4:30. The guy at the desk told me that my room was not ready but would be ready in 20 min. So since I had nothing better to do while we waited we went to the mall. Came back at around 7 to get ready for our dinner date at 8:15. Valet the car get all of our stuff and head in to check in. The guy at the desk say there are no rooms available. At this point I am absolutely infuriated, I just drove a hour to go to dinner and I have no where to stay or even get ready to go to dinner. The guy at the desk tells me that all he can do is refund my money. I ask to speak to the manager he said that he is not in but will be in later and hands me his card. I give the valets my ticket and go wait for my car with my girlfriend who is almost in tears. I call the number on the card I was just giving to the manger and it rings straight to front desk. A lot of good that does me.  I get in my car from the valet and there is a green flag on my sports cars dash...I booked a room at the Downtown Houston Aloft Hotel for Saturday night to take my girlfriend to Spindeltop  restaurant. We arrived to check in around 4:30. The guy at the desk told me that my room was not ready but would be ready in 20 min. So since I had nothing better to do while we waited we went to the mall. Came back at around 7 to get ready for our dinner date at 8:15. Valet the car get all of our stuff and head in to check in. The guy at the desk say there are no rooms available. At this point I am absolutely infuriated, I just drove a hour to go to dinner and I have no where to stay or even get ready to go to dinner. The guy at the desk tells me that all he can do is refund my money. I ask to speak to the manager he said that he is not in but will be in later and hands me his card. I give the valets my ticket and go wait for my car with my girlfriend who is almost in tears. I call the number on the card I was just giving to the manger and it rings straight to front desk. A lot of good that does me.  I get in my car from the valet and there is a green flag on my sports cars dash board which meaning they put my car in sport mode to race it around to valet it. now I am absolutely seeing all red. I look in the back seat of my car and the bottle of Belvedere vodka is gone too. To stay my experience was awful is a understatement. Since being at the hotel I have called 4 times to speak to the manager. I was told every time until this morning he would be in later. This morning I was told he was off for the weekend. The guy at the desk had also told me he reversed my charges on my card which he did not do. So I’m a nutshell I wasted three hours of drive time to come to Aloft Houston downtown. I never got a room. My dinner and evening we’re completely ruined. Canceled reservations cost $75 at the restaurant. My car was raced around from valet and the valet stole a bottle of alcohol out of my car. Absolutely horrific evening and place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r570122470-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570122470</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We booked a last minute room for a night out on the town.  The Aloft's price was the best we found for a nicer hotel and this was one of the best values I have found for hotels in downtown Houston.  It was clean, comfortable and the staff was very friendly and accommodating.  It was a short stay - in late and out early but it was perfect for our needs.  It's also well located and close to many of the venues and restaurants downtown.  I would recommend for anyone looking for a good value and a clean, modern hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>We booked a last minute room for a night out on the town.  The Aloft's price was the best we found for a nicer hotel and this was one of the best values I have found for hotels in downtown Houston.  It was clean, comfortable and the staff was very friendly and accommodating.  It was a short stay - in late and out early but it was perfect for our needs.  It's also well located and close to many of the venues and restaurants downtown.  I would recommend for anyone looking for a good value and a clean, modern hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r558167172-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558167172</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Downtown Houston Aloft</t>
+  </si>
+  <si>
+    <t>I frequently stay in Aloft hotels for business.  I was in Houston recently and stayed in the Downtown Aloft for a couple nights.  My room was a little bigger than some of the other Alofts I have stayed in.  It was a nice room and had a little larger bathroom and wardrobe area.  The room was on the second floor - right off where the banquet rooms were - so it was a little unusual to walk out into the main second floor lobby.  Other than that, the hotel stay was fine.  It was clean, neat, and only about a 10 minute walk to my office.  There are some but not a lot of food options within a couple blocks.   There are more if you are willing to walk a little further or take a taxi.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>I frequently stay in Aloft hotels for business.  I was in Houston recently and stayed in the Downtown Aloft for a couple nights.  My room was a little bigger than some of the other Alofts I have stayed in.  It was a nice room and had a little larger bathroom and wardrobe area.  The room was on the second floor - right off where the banquet rooms were - so it was a little unusual to walk out into the main second floor lobby.  Other than that, the hotel stay was fine.  It was clean, neat, and only about a 10 minute walk to my office.  There are some but not a lot of food options within a couple blocks.   There are more if you are willing to walk a little further or take a taxi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r557780716-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557780716</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Fresh and Unassuming option in downtown Houston</t>
+  </si>
+  <si>
+    <t>Recently spent three nights at the Aloft Downtown Houston property.  Thoroughly enjoyed my stay.
+I was attending a conference held at the Marriott Marquis four blocks to the south.  Room rates at the Marquis were out of this world so, looking for lower cost alternatives I booked a stay at the Aloft.  I've stayed at this supposedly "millennial" market segment chain of the Starwood Group before.
+Really nice alternative to high buck properties in this area.  The Aloft features a modernist, spare lobby, attractive rooms, a decent workout space and a nice bar/restaurant for after hours time-filling.  It is centrally located in downtown Houston, and in walking distance to a huge number of business, banking, and convention venues around it.  3 Blocks to Wells Fargo center.  4 blocks to the convention center.  1-3 blocks from a wide variety of energy and investment companies as well.  Meaning:  right downtown.
+My room was large and had a great King Bed in it.  Adequate closet space with all the typical coffee/tea accoutrements.  Large and bright bathroom with super large step in shower.  Shampoos, body washes are provided in dispensers so you can skip bringing all that stuff.  Rooms include ironing boards, hair dryers, etc.
+Decent if small working desk in the room, with free and very speedy Wi-Fi.
+A couple of little criticisms: one relates to the sort of bizarre way you get breakfast.  You go to the breakfast area (central part of...Recently spent three nights at the Aloft Downtown Houston property.  Thoroughly enjoyed my stay.I was attending a conference held at the Marriott Marquis four blocks to the south.  Room rates at the Marquis were out of this world so, looking for lower cost alternatives I booked a stay at the Aloft.  I've stayed at this supposedly "millennial" market segment chain of the Starwood Group before.Really nice alternative to high buck properties in this area.  The Aloft features a modernist, spare lobby, attractive rooms, a decent workout space and a nice bar/restaurant for after hours time-filling.  It is centrally located in downtown Houston, and in walking distance to a huge number of business, banking, and convention venues around it.  3 Blocks to Wells Fargo center.  4 blocks to the convention center.  1-3 blocks from a wide variety of energy and investment companies as well.  Meaning:  right downtown.My room was large and had a great King Bed in it.  Adequate closet space with all the typical coffee/tea accoutrements.  Large and bright bathroom with super large step in shower.  Shampoos, body washes are provided in dispensers so you can skip bringing all that stuff.  Rooms include ironing boards, hair dryers, etc.Decent if small working desk in the room, with free and very speedy Wi-Fi.A couple of little criticisms: one relates to the sort of bizarre way you get breakfast.  You go to the breakfast area (central part of the lobby) review the menu, and then order and pay for your food at the front desk.  They electronically send your order to the kitchen and it's delivered to you through a window between the dining area and the food prep area.Very limited menu, although prepared fresh by kitchen staff.  Very reasonable pricing, and the food I ordered was good.  It was just a weird process.  Another relates to parking. Like all downtown hotels you will pay for overnight parking...and at a pretty high premium.  Valet overnight parking was $34.60 per day.   If you're thinking about renting a car versus paying for cabs you should keep this figure in mind.  They do not offer an airport shuttle.  It's about a $40 Lyft ride from Bush International, and knowing that I rented a car (thought I'd need transportation more than I actually did).  My ultra cheap rental turned out to not be so cheap when i factored back int he parking fees.  I missed that in my initial planning.This is a great alternative to more elaborate (which I hate) and expensive hotels in central Houston.  A younger vibe, more spare and simplistic approach to a hotel stay, but I appreciate both their style and excellence of service delivery.  Very friendly staff both at the front desk and throughout the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Recently spent three nights at the Aloft Downtown Houston property.  Thoroughly enjoyed my stay.
+I was attending a conference held at the Marriott Marquis four blocks to the south.  Room rates at the Marquis were out of this world so, looking for lower cost alternatives I booked a stay at the Aloft.  I've stayed at this supposedly "millennial" market segment chain of the Starwood Group before.
+Really nice alternative to high buck properties in this area.  The Aloft features a modernist, spare lobby, attractive rooms, a decent workout space and a nice bar/restaurant for after hours time-filling.  It is centrally located in downtown Houston, and in walking distance to a huge number of business, banking, and convention venues around it.  3 Blocks to Wells Fargo center.  4 blocks to the convention center.  1-3 blocks from a wide variety of energy and investment companies as well.  Meaning:  right downtown.
+My room was large and had a great King Bed in it.  Adequate closet space with all the typical coffee/tea accoutrements.  Large and bright bathroom with super large step in shower.  Shampoos, body washes are provided in dispensers so you can skip bringing all that stuff.  Rooms include ironing boards, hair dryers, etc.
+Decent if small working desk in the room, with free and very speedy Wi-Fi.
+A couple of little criticisms: one relates to the sort of bizarre way you get breakfast.  You go to the breakfast area (central part of...Recently spent three nights at the Aloft Downtown Houston property.  Thoroughly enjoyed my stay.I was attending a conference held at the Marriott Marquis four blocks to the south.  Room rates at the Marquis were out of this world so, looking for lower cost alternatives I booked a stay at the Aloft.  I've stayed at this supposedly "millennial" market segment chain of the Starwood Group before.Really nice alternative to high buck properties in this area.  The Aloft features a modernist, spare lobby, attractive rooms, a decent workout space and a nice bar/restaurant for after hours time-filling.  It is centrally located in downtown Houston, and in walking distance to a huge number of business, banking, and convention venues around it.  3 Blocks to Wells Fargo center.  4 blocks to the convention center.  1-3 blocks from a wide variety of energy and investment companies as well.  Meaning:  right downtown.My room was large and had a great King Bed in it.  Adequate closet space with all the typical coffee/tea accoutrements.  Large and bright bathroom with super large step in shower.  Shampoos, body washes are provided in dispensers so you can skip bringing all that stuff.  Rooms include ironing boards, hair dryers, etc.Decent if small working desk in the room, with free and very speedy Wi-Fi.A couple of little criticisms: one relates to the sort of bizarre way you get breakfast.  You go to the breakfast area (central part of the lobby) review the menu, and then order and pay for your food at the front desk.  They electronically send your order to the kitchen and it's delivered to you through a window between the dining area and the food prep area.Very limited menu, although prepared fresh by kitchen staff.  Very reasonable pricing, and the food I ordered was good.  It was just a weird process.  Another relates to parking. Like all downtown hotels you will pay for overnight parking...and at a pretty high premium.  Valet overnight parking was $34.60 per day.   If you're thinking about renting a car versus paying for cabs you should keep this figure in mind.  They do not offer an airport shuttle.  It's about a $40 Lyft ride from Bush International, and knowing that I rented a car (thought I'd need transportation more than I actually did).  My ultra cheap rental turned out to not be so cheap when i factored back int he parking fees.  I missed that in my initial planning.This is a great alternative to more elaborate (which I hate) and expensive hotels in central Houston.  A younger vibe, more spare and simplistic approach to a hotel stay, but I appreciate both their style and excellence of service delivery.  Very friendly staff both at the front desk and throughout the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r555271794-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555271794</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel with cool vibe</t>
+  </si>
+  <si>
+    <t>We live in the suburbs of Houston and decided to stay in town for a night. Had never stayed in an Aloft before. This is a very old building that has been totally redone. Room was very clean and very tastefully decorated.  Hotel gym was very nice. I'm five foot three and the shower head was clearly designed for someone a foot taller. The lobby has a really cool vibe. There's a pool table and a nice looking bar area. It's not the most luxurious hotel in the downtown area, but it's way cheaper than most and convenient to the theatre district and to the rail.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>We live in the suburbs of Houston and decided to stay in town for a night. Had never stayed in an Aloft before. This is a very old building that has been totally redone. Room was very clean and very tastefully decorated.  Hotel gym was very nice. I'm five foot three and the shower head was clearly designed for someone a foot taller. The lobby has a really cool vibe. There's a pool table and a nice looking bar area. It's not the most luxurious hotel in the downtown area, but it's way cheaper than most and convenient to the theatre district and to the rail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r547564783-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547564783</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>A decent place to stay in Houston, but...</t>
+  </si>
+  <si>
+    <t>I recently stayed here.  The hotel was a remodeled building of some former owner.  Rooms were clean, new, spotless.  Hotel staff was very courteous.  A great group of people to help out.  I found that the room was not to my "taste".  First, the lighting.  All the lights (in all hotels) are now LED.  But in my room the starkness of the lighting was Kafkaesque.  It seemed like the light on the table was for interrogation.  Everything had a utilitarian look and feel.  But clean!  The second big thing was the use of an air-freshener.  Like Febreze.  It was everywhere.  In the elevator.  In my room.  I went outside, where it was 52 F, to get fresh air.  But I think these air freshener applications are now so universal.  I don't know.  But it was overwhelming.    I guess the breakfast nook near the lobby was helpful, but not very conducive to having a breakfast meeting.  So I walked down a block to the JW and ordered a breakfast (overpriced, but well done).  In a pinch, I'd stay here again.  But it definitely does not meet any criteria like "Romantic" or "Boutique".  But then again, that's probably not what they are catering to in downtown Houson.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed here.  The hotel was a remodeled building of some former owner.  Rooms were clean, new, spotless.  Hotel staff was very courteous.  A great group of people to help out.  I found that the room was not to my "taste".  First, the lighting.  All the lights (in all hotels) are now LED.  But in my room the starkness of the lighting was Kafkaesque.  It seemed like the light on the table was for interrogation.  Everything had a utilitarian look and feel.  But clean!  The second big thing was the use of an air-freshener.  Like Febreze.  It was everywhere.  In the elevator.  In my room.  I went outside, where it was 52 F, to get fresh air.  But I think these air freshener applications are now so universal.  I don't know.  But it was overwhelming.    I guess the breakfast nook near the lobby was helpful, but not very conducive to having a breakfast meeting.  So I walked down a block to the JW and ordered a breakfast (overpriced, but well done).  In a pinch, I'd stay here again.  But it definitely does not meet any criteria like "Romantic" or "Boutique".  But then again, that's probably not what they are catering to in downtown Houson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r545545899-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545545899</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean and good to get around</t>
+  </si>
+  <si>
+    <t>We stayed here during the F1. Its a nice clean hotel with good amenities. There is basically everything you need. 6th Street is just a 5 minute walk away. This is good for all the bars, restaurants and party scenes. You are close to the historical monuments. Its best to park a few blocks away in one of the parking garages. Much cheaper.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Operations manager at Aloft Houston Downtown, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here during the F1. Its a nice clean hotel with good amenities. There is basically everything you need. 6th Street is just a 5 minute walk away. This is good for all the bars, restaurants and party scenes. You are close to the historical monuments. Its best to park a few blocks away in one of the parking garages. Much cheaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r540773156-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540773156</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Great location! Great hotel!</t>
+  </si>
+  <si>
+    <t>We were in Houston for one night for a concert and booked this hotel because of its proximity to the Toyota Center. We had a great stay! The rooms and decor were kind of funky and fun, my dog stayed for free and the location was perfect - we were even able to walk back to the hotel from the Toyota Center after the concert. I would recommend this hotel for anyone wanting a nice room in downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>We were in Houston for one night for a concert and booked this hotel because of its proximity to the Toyota Center. We had a great stay! The rooms and decor were kind of funky and fun, my dog stayed for free and the location was perfect - we were even able to walk back to the hotel from the Toyota Center after the concert. I would recommend this hotel for anyone wanting a nice room in downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r536135533-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536135533</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Overpriced and Noisy</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights with friends during a trip to Houston. Experience was poor from the start with a fairly uninterested check-in worker unable to explain why the room types we booked were not available. There was also no indication from the hotel or Booking.com that there is a major construction site next door to the hotel with works starting as early as 6.00am. Really disappointed with our experience here and will not be returning in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Aloft Houston Downtown, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights with friends during a trip to Houston. Experience was poor from the start with a fairly uninterested check-in worker unable to explain why the room types we booked were not available. There was also no indication from the hotel or Booking.com that there is a major construction site next door to the hotel with works starting as early as 6.00am. Really disappointed with our experience here and will not be returning in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r535726304-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535726304</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>A hotel with a staff who cared about you as a guest. I arrived early, too early to check in, so I sat in the lobby. While in the lobby, I could see each time a guest/resident came to the counter to request something, and how the staff hustled to get it. Everyone was professional and seemed to really enjoy where they worked! Check in was a breeze- valet was just as professional and kind hearted - excellent service all around. 
+The room was simply beautiful, fresh and clean. Very trendy, relaxing and comfortable. I was happy to be somewhere that I could get a peaceful nights rest after the events in houston were still unfolding. Everything I needed was right there within arms reach. ALL THE CHANNELS is could dream about on the TV lol- the details of the designs throughout were beautiful and inviting. 
+When I did go downstairs to pick up plasticware from the refill bar, I discovered there were no forks ... the guest attendant immediately took care of it. It may sound like something small, but it wasn't - it showed me that she cared enough to get one and when she couldn't find any plastic forks to refill, she didn't come back to say "sorry we don't have any" she actually brought me silverware instead. Most places wouldn't do that- and that's why this mattered to me. 
+Everyone I spoke with from check in...A hotel with a staff who cared about you as a guest. I arrived early, too early to check in, so I sat in the lobby. While in the lobby, I could see each time a guest/resident came to the counter to request something, and how the staff hustled to get it. Everyone was professional and seemed to really enjoy where they worked! Check in was a breeze- valet was just as professional and kind hearted - excellent service all around. The room was simply beautiful, fresh and clean. Very trendy, relaxing and comfortable. I was happy to be somewhere that I could get a peaceful nights rest after the events in houston were still unfolding. Everything I needed was right there within arms reach. ALL THE CHANNELS is could dream about on the TV lol- the details of the designs throughout were beautiful and inviting. When I did go downstairs to pick up plasticware from the refill bar, I discovered there were no forks ... the guest attendant immediately took care of it. It may sound like something small, but it wasn't - it showed me that she cared enough to get one and when she couldn't find any plastic forks to refill, she didn't come back to say "sorry we don't have any" she actually brought me silverware instead. Most places wouldn't do that- and that's why this mattered to me. Everyone I spoke with from check in to check out, was pleasant and friendly. Warmth goes a long way, when someone is having a bad day. The friendliness of the staff made it easier.. thanks guys! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>A hotel with a staff who cared about you as a guest. I arrived early, too early to check in, so I sat in the lobby. While in the lobby, I could see each time a guest/resident came to the counter to request something, and how the staff hustled to get it. Everyone was professional and seemed to really enjoy where they worked! Check in was a breeze- valet was just as professional and kind hearted - excellent service all around. 
+The room was simply beautiful, fresh and clean. Very trendy, relaxing and comfortable. I was happy to be somewhere that I could get a peaceful nights rest after the events in houston were still unfolding. Everything I needed was right there within arms reach. ALL THE CHANNELS is could dream about on the TV lol- the details of the designs throughout were beautiful and inviting. 
+When I did go downstairs to pick up plasticware from the refill bar, I discovered there were no forks ... the guest attendant immediately took care of it. It may sound like something small, but it wasn't - it showed me that she cared enough to get one and when she couldn't find any plastic forks to refill, she didn't come back to say "sorry we don't have any" she actually brought me silverware instead. Most places wouldn't do that- and that's why this mattered to me. 
+Everyone I spoke with from check in...A hotel with a staff who cared about you as a guest. I arrived early, too early to check in, so I sat in the lobby. While in the lobby, I could see each time a guest/resident came to the counter to request something, and how the staff hustled to get it. Everyone was professional and seemed to really enjoy where they worked! Check in was a breeze- valet was just as professional and kind hearted - excellent service all around. The room was simply beautiful, fresh and clean. Very trendy, relaxing and comfortable. I was happy to be somewhere that I could get a peaceful nights rest after the events in houston were still unfolding. Everything I needed was right there within arms reach. ALL THE CHANNELS is could dream about on the TV lol- the details of the designs throughout were beautiful and inviting. When I did go downstairs to pick up plasticware from the refill bar, I discovered there were no forks ... the guest attendant immediately took care of it. It may sound like something small, but it wasn't - it showed me that she cared enough to get one and when she couldn't find any plastic forks to refill, she didn't come back to say "sorry we don't have any" she actually brought me silverware instead. Most places wouldn't do that- and that's why this mattered to me. Everyone I spoke with from check in to check out, was pleasant and friendly. Warmth goes a long way, when someone is having a bad day. The friendliness of the staff made it easier.. thanks guys! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r535019116-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535019116</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Convenient and comfortable, but that's all</t>
+  </si>
+  <si>
+    <t>Excellent modern rooms in what is apparently a heritage building in central downtown Houston - although the interior is generic modern and shows no sign of its deco origins. The shower is spacious but let down by a weak flow of water. The breakfast experience is appalling. No restaurant, just a cabinet with disposable cereals etc and a slot in the wall to order something warm, which you take away to find a seat in the lobby to eat. The lobby décor is basically ugly, all hard edges, dark, garish and a digital rolling billboard up behind reception. Reception was efficient but cold, and I saw no other hotel employees in my five-day stay. Wasn't even aware there was a pool on the roof - the hotel didn't try to make my stay enjoyable. I am still looking for an affordable 4-star downtown hotel with style, comfort and some class.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Excellent modern rooms in what is apparently a heritage building in central downtown Houston - although the interior is generic modern and shows no sign of its deco origins. The shower is spacious but let down by a weak flow of water. The breakfast experience is appalling. No restaurant, just a cabinet with disposable cereals etc and a slot in the wall to order something warm, which you take away to find a seat in the lobby to eat. The lobby décor is basically ugly, all hard edges, dark, garish and a digital rolling billboard up behind reception. Reception was efficient but cold, and I saw no other hotel employees in my five-day stay. Wasn't even aware there was a pool on the roof - the hotel didn't try to make my stay enjoyable. I am still looking for an affordable 4-star downtown hotel with style, comfort and some class.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r531805436-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531805436</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>It is ok</t>
+  </si>
+  <si>
+    <t>Yes there are noise from the construction site, and it is getting a bit teared down in the reception - but the service and rooms are very good. So is the internet aksess. Not sure avout the valet parking, much easier to use the parkinghouse 10 meters away. Usd 15 per day maximum. Stayed at alift in Dallas and Austin also, they are much more upscale. So, it is ok. Nothing more.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Yes there are noise from the construction site, and it is getting a bit teared down in the reception - but the service and rooms are very good. So is the internet aksess. Not sure avout the valet parking, much easier to use the parkinghouse 10 meters away. Usd 15 per day maximum. Stayed at alift in Dallas and Austin also, they are much more upscale. So, it is ok. Nothing more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r529730041-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529730041</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here for convention </t>
+  </si>
+  <si>
+    <t>Close to many good eateries.  Hotel is clean, contemporary, &amp; convenient.  No breakfast included.Snacks available in lobby.  Fitness center is good for cardio &amp; dumbbells.WiFi is adequate.  Beds have several pillows to choose from.Parking is pricey, but so is everything downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Close to many good eateries.  Hotel is clean, contemporary, &amp; convenient.  No breakfast included.Snacks available in lobby.  Fitness center is good for cardio &amp; dumbbells.WiFi is adequate.  Beds have several pillows to choose from.Parking is pricey, but so is everything downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r527527842-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527527842</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient, tidy, modern hotel for good sleepers </t>
+  </si>
+  <si>
+    <t>If you don't mind street noise and train whistles all night, then this place is good for you.  A historic building, so probably not much they can do in the way of sound proofing.  Request a quiet room not facing towards the streetcars may help (or bring ear plugs).  Otherwise, it's a clean nice modern hotel with a decent fitness room.  Just wish I could've slept better, but was repeatedly woken up by random street noises.  Some found the beds hard, but I thought they were fine.  Walking distance to many restaurants, but most close at 8pm except the pricey places.  Downtown Houston is getting better!MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Aloft Houston Downtown, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>If you don't mind street noise and train whistles all night, then this place is good for you.  A historic building, so probably not much they can do in the way of sound proofing.  Request a quiet room not facing towards the streetcars may help (or bring ear plugs).  Otherwise, it's a clean nice modern hotel with a decent fitness room.  Just wish I could've slept better, but was repeatedly woken up by random street noises.  Some found the beds hard, but I thought they were fine.  Walking distance to many restaurants, but most close at 8pm except the pricey places.  Downtown Houston is getting better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r517542403-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517542403</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Valet service was CLASS</t>
+  </si>
+  <si>
+    <t>I'm in town during the Hurricane Harvey storm and I can't help but right a review about the valet shuttle service. I work in I.T. and I needed a ride back to the office to put some tarps on our server racks. Roger, from the valet service was very accommodating during the rain! He drove me back to the office and waited for me to put the tarps back on my server racks! During the rain! I came from the hotel business and that's what it's all about. Thank you Roger! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded August 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>I'm in town during the Hurricane Harvey storm and I can't help but right a review about the valet shuttle service. I work in I.T. and I needed a ride back to the office to put some tarps on our server racks. Roger, from the valet service was very accommodating during the rain! He drove me back to the office and waited for me to put the tarps back on my server racks! During the rain! I came from the hotel business and that's what it's all about. Thank you Roger! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r507585359-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507585359</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Ignore the bad reviews</t>
+  </si>
+  <si>
+    <t>Having booked this hotel for a 2 night stop after a 3 week road trip - I started to worry about the negative reviews. The staff were the most helpful, and friendliest of all the hotels we stopped at, and all others were Hilton hotels. We needed a late check out as our flight out of Houston wasn't until 7pm - this was sorted out as we checked in (also the only hotel that allowed us to check in early)
+The staff suggested things for us to do in the local area and we also made use of the excellent Courtesy bus a couple of times.
+Rooms are trendy and spacious - ours did not have a view (just a wall) but that did not bother us, and if on a lower floor you are likely to simply be overlooking the street anyway. Rooftop pool area (11th floor)was great - could do with a few more sun shades though as extremely hot!!
+Gym well equipped.
+The valet parking worked great for us - we asked for car and it was delivered a few minutes later - maybe they have improved this as other people have mentioned that it was a terrible service.
+Bar area nice. 
+A couple of events were on at the rooftop pool while we were there but music etc seemed to finish around 11/11.30 so we weren't bothered by any noise - we were on the third...Having booked this hotel for a 2 night stop after a 3 week road trip - I started to worry about the negative reviews. The staff were the most helpful, and friendliest of all the hotels we stopped at, and all others were Hilton hotels. We needed a late check out as our flight out of Houston wasn't until 7pm - this was sorted out as we checked in (also the only hotel that allowed us to check in early)The staff suggested things for us to do in the local area and we also made use of the excellent Courtesy bus a couple of times.Rooms are trendy and spacious - ours did not have a view (just a wall) but that did not bother us, and if on a lower floor you are likely to simply be overlooking the street anyway. Rooftop pool area (11th floor)was great - could do with a few more sun shades though as extremely hot!!Gym well equipped.The valet parking worked great for us - we asked for car and it was delivered a few minutes later - maybe they have improved this as other people have mentioned that it was a terrible service.Bar area nice. A couple of events were on at the rooftop pool while we were there but music etc seemed to finish around 11/11.30 so we weren't bothered by any noise - we were on the third floor.For us this was an ideal spot for bars &amp; restaurants, and only a short drive to the airport.Will use this hotel again on our next trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Having booked this hotel for a 2 night stop after a 3 week road trip - I started to worry about the negative reviews. The staff were the most helpful, and friendliest of all the hotels we stopped at, and all others were Hilton hotels. We needed a late check out as our flight out of Houston wasn't until 7pm - this was sorted out as we checked in (also the only hotel that allowed us to check in early)
+The staff suggested things for us to do in the local area and we also made use of the excellent Courtesy bus a couple of times.
+Rooms are trendy and spacious - ours did not have a view (just a wall) but that did not bother us, and if on a lower floor you are likely to simply be overlooking the street anyway. Rooftop pool area (11th floor)was great - could do with a few more sun shades though as extremely hot!!
+Gym well equipped.
+The valet parking worked great for us - we asked for car and it was delivered a few minutes later - maybe they have improved this as other people have mentioned that it was a terrible service.
+Bar area nice. 
+A couple of events were on at the rooftop pool while we were there but music etc seemed to finish around 11/11.30 so we weren't bothered by any noise - we were on the third...Having booked this hotel for a 2 night stop after a 3 week road trip - I started to worry about the negative reviews. The staff were the most helpful, and friendliest of all the hotels we stopped at, and all others were Hilton hotels. We needed a late check out as our flight out of Houston wasn't until 7pm - this was sorted out as we checked in (also the only hotel that allowed us to check in early)The staff suggested things for us to do in the local area and we also made use of the excellent Courtesy bus a couple of times.Rooms are trendy and spacious - ours did not have a view (just a wall) but that did not bother us, and if on a lower floor you are likely to simply be overlooking the street anyway. Rooftop pool area (11th floor)was great - could do with a few more sun shades though as extremely hot!!Gym well equipped.The valet parking worked great for us - we asked for car and it was delivered a few minutes later - maybe they have improved this as other people have mentioned that it was a terrible service.Bar area nice. A couple of events were on at the rooftop pool while we were there but music etc seemed to finish around 11/11.30 so we weren't bothered by any noise - we were on the third floor.For us this was an ideal spot for bars &amp; restaurants, and only a short drive to the airport.Will use this hotel again on our next trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r502574570-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502574570</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Good bet if you need to be downtown</t>
+  </si>
+  <si>
+    <t>This is a better-than-average aloft hotel. The rooms are a big larger than I've seen before, and the location is quite nice.  Downtown Houston is definitely finding its way, and there are quite a few places to walk to for dinner, though this part of town feels a tad sketchy. If you are used to New York or downtown LA, you'll be fine, though.
+There's a whole deck up on the roof, which looked pretty nice, but I doubt you'll use it, all that often, to be honest.
+I slept pretty well here, but be warned--the views are basically of parking structures and parking lots--not much can be done about it. I was able to sleep but if you are a light sleeper, bring earplugs (I think they have some at the desk).  
+The bar downstairs looked nice but never seemed to have that many people there. There's a nice pool table--it's the kind of place that photographs well but when you get there..well, you just end up going to your room.
+The fitness center is mediocre but gets the job done. I dunno what it is about the SPG brands, bit their weights always hurt my hands--the handles just dig into the your skin! bring gloves if you are gonna lift weights. 
+The usual frustrations about the Aloft brand are still here: plastic wrapped plastic cups, a vague sense of penny pinching but this is a lot nicer than...This is a better-than-average aloft hotel. The rooms are a big larger than I've seen before, and the location is quite nice.  Downtown Houston is definitely finding its way, and there are quite a few places to walk to for dinner, though this part of town feels a tad sketchy. If you are used to New York or downtown LA, you'll be fine, though.There's a whole deck up on the roof, which looked pretty nice, but I doubt you'll use it, all that often, to be honest.I slept pretty well here, but be warned--the views are basically of parking structures and parking lots--not much can be done about it. I was able to sleep but if you are a light sleeper, bring earplugs (I think they have some at the desk).  The bar downstairs looked nice but never seemed to have that many people there. There's a nice pool table--it's the kind of place that photographs well but when you get there..well, you just end up going to your room.The fitness center is mediocre but gets the job done. I dunno what it is about the SPG brands, bit their weights always hurt my hands--the handles just dig into the your skin! bring gloves if you are gonna lift weights. The usual frustrations about the Aloft brand are still here: plastic wrapped plastic cups, a vague sense of penny pinching but this is a lot nicer than the Aloft near the Galleria. Granted, that's not saying a whole lot, but if you are traveling for work and want to keep getting SPG points, this is a cheaper bet then the Westin, for sure.  The staff is nice and attentive--but you do get the sense that this might be their first or second job ever. No matter--they were always nice and friendly.Solid choice for an affordable work stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>This is a better-than-average aloft hotel. The rooms are a big larger than I've seen before, and the location is quite nice.  Downtown Houston is definitely finding its way, and there are quite a few places to walk to for dinner, though this part of town feels a tad sketchy. If you are used to New York or downtown LA, you'll be fine, though.
+There's a whole deck up on the roof, which looked pretty nice, but I doubt you'll use it, all that often, to be honest.
+I slept pretty well here, but be warned--the views are basically of parking structures and parking lots--not much can be done about it. I was able to sleep but if you are a light sleeper, bring earplugs (I think they have some at the desk).  
+The bar downstairs looked nice but never seemed to have that many people there. There's a nice pool table--it's the kind of place that photographs well but when you get there..well, you just end up going to your room.
+The fitness center is mediocre but gets the job done. I dunno what it is about the SPG brands, bit their weights always hurt my hands--the handles just dig into the your skin! bring gloves if you are gonna lift weights. 
+The usual frustrations about the Aloft brand are still here: plastic wrapped plastic cups, a vague sense of penny pinching but this is a lot nicer than...This is a better-than-average aloft hotel. The rooms are a big larger than I've seen before, and the location is quite nice.  Downtown Houston is definitely finding its way, and there are quite a few places to walk to for dinner, though this part of town feels a tad sketchy. If you are used to New York or downtown LA, you'll be fine, though.There's a whole deck up on the roof, which looked pretty nice, but I doubt you'll use it, all that often, to be honest.I slept pretty well here, but be warned--the views are basically of parking structures and parking lots--not much can be done about it. I was able to sleep but if you are a light sleeper, bring earplugs (I think they have some at the desk).  The bar downstairs looked nice but never seemed to have that many people there. There's a nice pool table--it's the kind of place that photographs well but when you get there..well, you just end up going to your room.The fitness center is mediocre but gets the job done. I dunno what it is about the SPG brands, bit their weights always hurt my hands--the handles just dig into the your skin! bring gloves if you are gonna lift weights. The usual frustrations about the Aloft brand are still here: plastic wrapped plastic cups, a vague sense of penny pinching but this is a lot nicer than the Aloft near the Galleria. Granted, that's not saying a whole lot, but if you are traveling for work and want to keep getting SPG points, this is a cheaper bet then the Westin, for sure.  The staff is nice and attentive--but you do get the sense that this might be their first or second job ever. No matter--they were always nice and friendly.Solid choice for an affordable work stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r496304949-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496304949</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Not The Place For Sound Sleep</t>
+  </si>
+  <si>
+    <t>Nice renovation of a historic building in downtown Houston. The place was clean and the staff friendly. I asked for a room on an upper floor because I had read previous reviews about noise..I guess 8 floors up still wasn't high enough.  Traffic noise and construction noise from the street starting at 4:45AM.  Windows were not soundproofed at all. I understand it was a busy weekend but the parking valet on Sunday was chaotic and disorganized.  It took almost 40 minutes to get the car after I texted and received a call back saying it would be ready in 15 minutes.  I was approached twice in the hotel lobby by panhandlers coming off the street asking for money.  This was definitely not the experience I hoped to have with Aloft, it was a sad experience for a Starwood property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Aloft Houston Downtown, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Nice renovation of a historic building in downtown Houston. The place was clean and the staff friendly. I asked for a room on an upper floor because I had read previous reviews about noise..I guess 8 floors up still wasn't high enough.  Traffic noise and construction noise from the street starting at 4:45AM.  Windows were not soundproofed at all. I understand it was a busy weekend but the parking valet on Sunday was chaotic and disorganized.  It took almost 40 minutes to get the car after I texted and received a call back saying it would be ready in 15 minutes.  I was approached twice in the hotel lobby by panhandlers coming off the street asking for money.  This was definitely not the experience I hoped to have with Aloft, it was a sad experience for a Starwood property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r494945566-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494945566</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Not worth half of what we paid</t>
+  </si>
+  <si>
+    <t>I reserved our room directly through Aloft's reservation telephone number.  I reserved one room for two nights for three adults.  I put the names of the other two adults on the room because they were arriving in Houston before me.  When they went to check in, the front desk asked for a new credit card for incidentals only (which we clearly confirmed), but upon check out we discovered that they had charged the full price of the room less deposit to the card. 
+The room was very clearly retrofitted into an existing space, with lots of weird angles and corners . There was actually a window in the room that would have been half way between two rooms, so they just built a wall around it.  We were excited to have a corner room, until we realized that one set of windows looked out onto a parking garage across the street and the other set looked out on another building that was about 5 feet away.  
+They advertised a big party on the roof one of the nights we were staying, but they clearly hadn't planned for the number of people that came.  They ended up closing down the pool entirely and were extremely unapologetic about it when we expressed that it was one of the primary reasons we'd booked the hotel.
+After arriving home, I checked my credit card balance and saw that I had three separate deposit charges...I reserved our room directly through Aloft's reservation telephone number.  I reserved one room for two nights for three adults.  I put the names of the other two adults on the room because they were arriving in Houston before me.  When they went to check in, the front desk asked for a new credit card for incidentals only (which we clearly confirmed), but upon check out we discovered that they had charged the full price of the room less deposit to the card. The room was very clearly retrofitted into an existing space, with lots of weird angles and corners . There was actually a window in the room that would have been half way between two rooms, so they just built a wall around it.  We were excited to have a corner room, until we realized that one set of windows looked out onto a parking garage across the street and the other set looked out on another building that was about 5 feet away.  They advertised a big party on the roof one of the nights we were staying, but they clearly hadn't planned for the number of people that came.  They ended up closing down the pool entirely and were extremely unapologetic about it when we expressed that it was one of the primary reasons we'd booked the hotel.After arriving home, I checked my credit card balance and saw that I had three separate deposit charges on my card from the hotel.  I called a month ago to dispute this and was told by the front desk that they had booked THREE SEPARATE ROOMS for our party, instead of just putting three names on my room.  They then charged a deposit for each and marked the other two rooms as no-shows.  The person I spoke with assured me that I'd see a refund within 10 days.  I called back 10 days later and there was not a single note on my account of the conversation, so they again told me they'd have it taken care of, I'd get an email confirmation within two days that the refund was being processed, and I'd have my refund within a few days.  We are now another week out and no word or refund. They've charged me over $900 for a disappointing room for a two night stay.  At that price, I could have stayed at a hotel where at least the service was good and the pool was open.  I will NEVER stay with another Aloft hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>I reserved our room directly through Aloft's reservation telephone number.  I reserved one room for two nights for three adults.  I put the names of the other two adults on the room because they were arriving in Houston before me.  When they went to check in, the front desk asked for a new credit card for incidentals only (which we clearly confirmed), but upon check out we discovered that they had charged the full price of the room less deposit to the card. 
+The room was very clearly retrofitted into an existing space, with lots of weird angles and corners . There was actually a window in the room that would have been half way between two rooms, so they just built a wall around it.  We were excited to have a corner room, until we realized that one set of windows looked out onto a parking garage across the street and the other set looked out on another building that was about 5 feet away.  
+They advertised a big party on the roof one of the nights we were staying, but they clearly hadn't planned for the number of people that came.  They ended up closing down the pool entirely and were extremely unapologetic about it when we expressed that it was one of the primary reasons we'd booked the hotel.
+After arriving home, I checked my credit card balance and saw that I had three separate deposit charges...I reserved our room directly through Aloft's reservation telephone number.  I reserved one room for two nights for three adults.  I put the names of the other two adults on the room because they were arriving in Houston before me.  When they went to check in, the front desk asked for a new credit card for incidentals only (which we clearly confirmed), but upon check out we discovered that they had charged the full price of the room less deposit to the card. The room was very clearly retrofitted into an existing space, with lots of weird angles and corners . There was actually a window in the room that would have been half way between two rooms, so they just built a wall around it.  We were excited to have a corner room, until we realized that one set of windows looked out onto a parking garage across the street and the other set looked out on another building that was about 5 feet away.  They advertised a big party on the roof one of the nights we were staying, but they clearly hadn't planned for the number of people that came.  They ended up closing down the pool entirely and were extremely unapologetic about it when we expressed that it was one of the primary reasons we'd booked the hotel.After arriving home, I checked my credit card balance and saw that I had three separate deposit charges on my card from the hotel.  I called a month ago to dispute this and was told by the front desk that they had booked THREE SEPARATE ROOMS for our party, instead of just putting three names on my room.  They then charged a deposit for each and marked the other two rooms as no-shows.  The person I spoke with assured me that I'd see a refund within 10 days.  I called back 10 days later and there was not a single note on my account of the conversation, so they again told me they'd have it taken care of, I'd get an email confirmation within two days that the refund was being processed, and I'd have my refund within a few days.  We are now another week out and no word or refund. They've charged me over $900 for a disappointing room for a two night stay.  At that price, I could have stayed at a hotel where at least the service was good and the pool was open.  I will NEVER stay with another Aloft hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r488549575-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488549575</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Modern ambiance in a historic building</t>
+  </si>
+  <si>
+    <t>This Aloft preserved the external historic building but renovated the building to be reminiscent of many hotels I have stayed at in Holland in Scandanavia--lots of wood and chrome. Showers instead of baths, but a sleet modern look to the rooms. Service was great. Very interesting food selection that ranged from dramatic presentation of candy bars to chilled sushi and made-to-order eggs sandwiches for breakfast. Free coffee in the reception area and a pool table. The front desk staff were super helpful in getting shuttles, taxis, etc. They offered free ear plugs if noise is a problem and had a full range of toiletries available if you forgot something. Spg rewards you for refusing housekeeping, which I like. Elevators were quick even though the hotel was very busy.  Wifi free with room and very dependable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>This Aloft preserved the external historic building but renovated the building to be reminiscent of many hotels I have stayed at in Holland in Scandanavia--lots of wood and chrome. Showers instead of baths, but a sleet modern look to the rooms. Service was great. Very interesting food selection that ranged from dramatic presentation of candy bars to chilled sushi and made-to-order eggs sandwiches for breakfast. Free coffee in the reception area and a pool table. The front desk staff were super helpful in getting shuttles, taxis, etc. They offered free ear plugs if noise is a problem and had a full range of toiletries available if you forgot something. Spg rewards you for refusing housekeeping, which I like. Elevators were quick even though the hotel was very busy.  Wifi free with room and very dependable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r484742001-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484742001</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>really nice place to stay and very accessible even though its downtown</t>
+  </si>
+  <si>
+    <t>The hotel and rooms are very modern, beds comfortable, I would recommend you stay on the highest floors to escape the street noises because it is, in fact, downtown Houston.  I did not use valet parking I parked across the street it was easier and flat rate $15 no tipping neededMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>The hotel and rooms are very modern, beds comfortable, I would recommend you stay on the highest floors to escape the street noises because it is, in fact, downtown Houston.  I did not use valet parking I parked across the street it was easier and flat rate $15 no tipping neededMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r482492452-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482492452</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Love this hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the aloft for a concert. As soon as we walked in you can tell it was made for the younger crowd. The modern decor was a twist from the usual hotel decor. The room was a different style but it was beautiful. The bed was super soft and the room was really dark in the morning (we like it that way). The only downside was that the shower water didn't get hot, it was more on the warm side. I would have said something but we only stayed one night. Other than that, our stay was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the aloft for a concert. As soon as we walked in you can tell it was made for the younger crowd. The modern decor was a twist from the usual hotel decor. The room was a different style but it was beautiful. The bed was super soft and the room was really dark in the morning (we like it that way). The only downside was that the shower water didn't get hot, it was more on the warm side. I would have said something but we only stayed one night. Other than that, our stay was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r478241439-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478241439</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend R &amp; R enjoying life </t>
+  </si>
+  <si>
+    <t>So my best friend and I decided to take our weekend to Houston. This hotel was modern, clean and so convenient. Taylor at the front desk was friendly. The room was spacious, a good view and very clean ! Everything worked, even the body wash/ shampoo was pleasant ! Big Ups to the Valet guys who are out there each time opening doors and fast/safe with your car. Thank you Staff. I think the only bad side was the $4 bottle of cranberry juice. I'm staying here again ! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>So my best friend and I decided to take our weekend to Houston. This hotel was modern, clean and so convenient. Taylor at the front desk was friendly. The room was spacious, a good view and very clean ! Everything worked, even the body wash/ shampoo was pleasant ! Big Ups to the Valet guys who are out there each time opening doors and fast/safe with your car. Thank you Staff. I think the only bad side was the $4 bottle of cranberry juice. I'm staying here again ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r472208697-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472208697</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Very tidy</t>
+  </si>
+  <si>
+    <t>Just 3 days there. Great location, close to Main Street restaurants. Staff very friendly. Room clean and tidy, bed was large and comfortable. Nice to sit by the pool, plenty of chairs, towels and sunlounges. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Just 3 days there. Great location, close to Main Street restaurants. Staff very friendly. Room clean and tidy, bed was large and comfortable. Nice to sit by the pool, plenty of chairs, towels and sunlounges. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r470803964-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470803964</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Not up to ALoft standards...</t>
+  </si>
+  <si>
+    <t>I've stayed at several ALoft hotels around the US.  They have all been amazing, they have everything I want and nothing I dont.  Great service and functional rooms and facilities.  This ALoft is missing the mark. Let's start with the staff.  The valet service was confused and not really clear on how to sort out the cars coming in.  The front desk staff, spent more time in the back room than in front of customers.  Every single time I went to the front desk, all of the staff was in the back room talking about something.  No one was watching the front desk. When they did come out, they were dismissive and made everyone feel as if we were bothering them.  Some staff would simple ask for my room number to pay for the food I picked up, while others would make me take the whole process of providing my name, showing my ID and then signing for the purchase.  I dont mind that, but get your staff in alignment, Everyone should do it the same way.  Then on to the food, every morning, the breakfast muffins were sold out.  Come on, have more than 6 muffins to put out in the morning.  Now lets get to the elevators, one elevator was offline the entire weekend and at one point, both elevators broke and we were required to climb 8 flights of stairs, but we also had to wait for...I've stayed at several ALoft hotels around the US.  They have all been amazing, they have everything I want and nothing I dont.  Great service and functional rooms and facilities.  This ALoft is missing the mark. Let's start with the staff.  The valet service was confused and not really clear on how to sort out the cars coming in.  The front desk staff, spent more time in the back room than in front of customers.  Every single time I went to the front desk, all of the staff was in the back room talking about something.  No one was watching the front desk. When they did come out, they were dismissive and made everyone feel as if we were bothering them.  Some staff would simple ask for my room number to pay for the food I picked up, while others would make me take the whole process of providing my name, showing my ID and then signing for the purchase.  I dont mind that, but get your staff in alignment, Everyone should do it the same way.  Then on to the food, every morning, the breakfast muffins were sold out.  Come on, have more than 6 muffins to put out in the morning.  Now lets get to the elevators, one elevator was offline the entire weekend and at one point, both elevators broke and we were required to climb 8 flights of stairs, but we also had to wait for someone to come unlock the stairs so we could use them.  This takes me to my last dissapointment with the room.  The shower was broken all weekend, was impossible to get it to a comfortable temp.  We mentioned this to the front desk and they acknowledged our issue, but did nothing to try to resolve our issue. I wasted all of my Starwood points to book this hotel for my girlfriend and I, we planned a romantic getaway that this hotel was supposed to be part of, but it turned out to be the only part of our stay that was not enjoyable. Again, waste of my SPG points and my money.  I WILL NOT stay here again and I will suggest that others do not as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at several ALoft hotels around the US.  They have all been amazing, they have everything I want and nothing I dont.  Great service and functional rooms and facilities.  This ALoft is missing the mark. Let's start with the staff.  The valet service was confused and not really clear on how to sort out the cars coming in.  The front desk staff, spent more time in the back room than in front of customers.  Every single time I went to the front desk, all of the staff was in the back room talking about something.  No one was watching the front desk. When they did come out, they were dismissive and made everyone feel as if we were bothering them.  Some staff would simple ask for my room number to pay for the food I picked up, while others would make me take the whole process of providing my name, showing my ID and then signing for the purchase.  I dont mind that, but get your staff in alignment, Everyone should do it the same way.  Then on to the food, every morning, the breakfast muffins were sold out.  Come on, have more than 6 muffins to put out in the morning.  Now lets get to the elevators, one elevator was offline the entire weekend and at one point, both elevators broke and we were required to climb 8 flights of stairs, but we also had to wait for...I've stayed at several ALoft hotels around the US.  They have all been amazing, they have everything I want and nothing I dont.  Great service and functional rooms and facilities.  This ALoft is missing the mark. Let's start with the staff.  The valet service was confused and not really clear on how to sort out the cars coming in.  The front desk staff, spent more time in the back room than in front of customers.  Every single time I went to the front desk, all of the staff was in the back room talking about something.  No one was watching the front desk. When they did come out, they were dismissive and made everyone feel as if we were bothering them.  Some staff would simple ask for my room number to pay for the food I picked up, while others would make me take the whole process of providing my name, showing my ID and then signing for the purchase.  I dont mind that, but get your staff in alignment, Everyone should do it the same way.  Then on to the food, every morning, the breakfast muffins were sold out.  Come on, have more than 6 muffins to put out in the morning.  Now lets get to the elevators, one elevator was offline the entire weekend and at one point, both elevators broke and we were required to climb 8 flights of stairs, but we also had to wait for someone to come unlock the stairs so we could use them.  This takes me to my last dissapointment with the room.  The shower was broken all weekend, was impossible to get it to a comfortable temp.  We mentioned this to the front desk and they acknowledged our issue, but did nothing to try to resolve our issue. I wasted all of my Starwood points to book this hotel for my girlfriend and I, we planned a romantic getaway that this hotel was supposed to be part of, but it turned out to be the only part of our stay that was not enjoyable. Again, waste of my SPG points and my money.  I WILL NOT stay here again and I will suggest that others do not as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r469887594-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469887594</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Aloft</t>
+  </si>
+  <si>
+    <t>A very unique and modern Hotel.  Staff from front desk to the Valet Parking super friendly. Rooms are very clean with modern decor with great views of the City.  Restaurants within walking distance.  Close to transit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded March 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>A very unique and modern Hotel.  Staff from front desk to the Valet Parking super friendly. Rooms are very clean with modern decor with great views of the City.  Restaurants within walking distance.  Close to transit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r464884966-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464884966</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Painful</t>
+  </si>
+  <si>
+    <t>Not overly impressed. Three night stay here in February 2017.
+The good: towels are soft, in room safe, the soap. If I'm listing the soap that should tell you something. The room was clean to my satisfaction, and the housekeepers did a good job replenishing things for the most part.
+The bad: very dark rooms and hallways. The decor isn't to my taste which is no big deal. But I prefer to have things a little better lit. The hallways are so dark that it's hard to even find your room number. Everything is dark blue and black and there is not enough lighting. The rooms are also very dark, I had to ask to have another lamp brought up and that didn't help much either. The bathroom is well lit, but the rest of the room is not.
+The ugly: I work for a very large organization that uses a well-known travel service. Despite this, the hotel could not accommodate the web payment that is generally used. It was a big kerfuffle, and it included them charging my card for the full room cost plus an additional 40% for incidentals. It took almost 3 days to work it out and several phone calls. I expressed my concerns about it at check in, but all I got was shoulder shrugs and a number to call so I had to deal with it myself. Not very impressed with that level of...Not overly impressed. Three night stay here in February 2017.The good: towels are soft, in room safe, the soap. If I'm listing the soap that should tell you something. The room was clean to my satisfaction, and the housekeepers did a good job replenishing things for the most part.The bad: very dark rooms and hallways. The decor isn't to my taste which is no big deal. But I prefer to have things a little better lit. The hallways are so dark that it's hard to even find your room number. Everything is dark blue and black and there is not enough lighting. The rooms are also very dark, I had to ask to have another lamp brought up and that didn't help much either. The bathroom is well lit, but the rest of the room is not.The ugly: I work for a very large organization that uses a well-known travel service. Despite this, the hotel could not accommodate the web payment that is generally used. It was a big kerfuffle, and it included them charging my card for the full room cost plus an additional 40% for incidentals. It took almost 3 days to work it out and several phone calls. I expressed my concerns about it at check in, but all I got was shoulder shrugs and a number to call so I had to deal with it myself. Not very impressed with that level of service.If you don't mind staying in a trendy looking cave the location is good and the rooms are clean. It's a 15 minute easy walk to the convention center. But as for me, the Aloft is coming off of my A-list for sure. The payment hassles and lack of support from registration staff sealed the deal for me. If this chain wants to be a player in business travel, they need to take very seriously these kinds of concerns. Checking into a hotel should be the most seamless thing I do on a business trip. It should not require half an hour of my time spent on phone calls to resolve a payment issue that should never have occurred in the first place.3/5/17 - updated to add that I got another surprise from this stay. When I was balancing my checking account I discovered they had charged my debit card $96 for three nights of parking. Charging for parking is expected, but not including it with the corporate payment for the hotel room was not. Nor was them charging it to my debit card without giving me a receipt or telling me they were doing it. It is not on receipt I received at check out. My expense report has already been turned in, so now I need to obtain a copy of the charges for parking, do another expense report with all the associated approvals, and get reimbursed. This place is like a gift that just keeps giving, sort of like herpes. I would seriously just avoid this place and all the associated hassles. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Not overly impressed. Three night stay here in February 2017.
+The good: towels are soft, in room safe, the soap. If I'm listing the soap that should tell you something. The room was clean to my satisfaction, and the housekeepers did a good job replenishing things for the most part.
+The bad: very dark rooms and hallways. The decor isn't to my taste which is no big deal. But I prefer to have things a little better lit. The hallways are so dark that it's hard to even find your room number. Everything is dark blue and black and there is not enough lighting. The rooms are also very dark, I had to ask to have another lamp brought up and that didn't help much either. The bathroom is well lit, but the rest of the room is not.
+The ugly: I work for a very large organization that uses a well-known travel service. Despite this, the hotel could not accommodate the web payment that is generally used. It was a big kerfuffle, and it included them charging my card for the full room cost plus an additional 40% for incidentals. It took almost 3 days to work it out and several phone calls. I expressed my concerns about it at check in, but all I got was shoulder shrugs and a number to call so I had to deal with it myself. Not very impressed with that level of...Not overly impressed. Three night stay here in February 2017.The good: towels are soft, in room safe, the soap. If I'm listing the soap that should tell you something. The room was clean to my satisfaction, and the housekeepers did a good job replenishing things for the most part.The bad: very dark rooms and hallways. The decor isn't to my taste which is no big deal. But I prefer to have things a little better lit. The hallways are so dark that it's hard to even find your room number. Everything is dark blue and black and there is not enough lighting. The rooms are also very dark, I had to ask to have another lamp brought up and that didn't help much either. The bathroom is well lit, but the rest of the room is not.The ugly: I work for a very large organization that uses a well-known travel service. Despite this, the hotel could not accommodate the web payment that is generally used. It was a big kerfuffle, and it included them charging my card for the full room cost plus an additional 40% for incidentals. It took almost 3 days to work it out and several phone calls. I expressed my concerns about it at check in, but all I got was shoulder shrugs and a number to call so I had to deal with it myself. Not very impressed with that level of service.If you don't mind staying in a trendy looking cave the location is good and the rooms are clean. It's a 15 minute easy walk to the convention center. But as for me, the Aloft is coming off of my A-list for sure. The payment hassles and lack of support from registration staff sealed the deal for me. If this chain wants to be a player in business travel, they need to take very seriously these kinds of concerns. Checking into a hotel should be the most seamless thing I do on a business trip. It should not require half an hour of my time spent on phone calls to resolve a payment issue that should never have occurred in the first place.3/5/17 - updated to add that I got another surprise from this stay. When I was balancing my checking account I discovered they had charged my debit card $96 for three nights of parking. Charging for parking is expected, but not including it with the corporate payment for the hotel room was not. Nor was them charging it to my debit card without giving me a receipt or telling me they were doing it. It is not on receipt I received at check out. My expense report has already been turned in, so now I need to obtain a copy of the charges for parking, do another expense report with all the associated approvals, and get reimbursed. This place is like a gift that just keeps giving, sort of like herpes. I would seriously just avoid this place and all the associated hassles. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r463230370-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463230370</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Clean Spacious Cental Downdtown Location</t>
+  </si>
+  <si>
+    <t>There has been a few negative reviews on Aloft Hotel, but our 3 nights stay in this downtown hotel has been nothing but positive. Room - we had view of car parking building but on a high floor. As we were out pretty much all day so it wasn't an issue for us.  Our room was clean, quiet &amp; spacious and the location was easy for us to walk or take a short tram ride to where we want to go. Check in and out was quick &amp; easy. Happy to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>There has been a few negative reviews on Aloft Hotel, but our 3 nights stay in this downtown hotel has been nothing but positive. Room - we had view of car parking building but on a high floor. As we were out pretty much all day so it wasn't an issue for us.  Our room was clean, quiet &amp; spacious and the location was easy for us to walk or take a short tram ride to where we want to go. Check in and out was quick &amp; easy. Happy to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r461589961-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461589961</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Location is good but not impressed</t>
+  </si>
+  <si>
+    <t>Stayed here on an extended weekend trip. Discovered majority of the small shops and breakfast places close down for the weekend leaving dining options prior to dinner limited additionally the front desk had little knowledge of the area to provide recommendations. The hotel itself looks sharp from the street and a very modern design throughout. From here many kinks were discovered with the property. Sadly the "cool modern" escalators were out of order the entire trip. There is no hot water in the showers. After allowing the water to warm up for 8-10 minutes it will get warm but never actually hot. We experienced 2 false fire alarms within a 24-hour period causing us to evacuate the hotel. Our room was street facing which audibly sounded as if we were sleeping on the street itself. The valet was very slow in using the texting application to request your car. Majority of the time after texting we would have to again request the car in person for it to be pulled around. The largest concern was safety. On entering our room for the first time I was able to just push it open from the locked position. I called the front desk with this concern requesting a new room with a better door and they immediately sent a repair man. He arrived and worked on a solution within 15 minutes and fixed it so I at least couldn't push my way...Stayed here on an extended weekend trip. Discovered majority of the small shops and breakfast places close down for the weekend leaving dining options prior to dinner limited additionally the front desk had little knowledge of the area to provide recommendations. The hotel itself looks sharp from the street and a very modern design throughout. From here many kinks were discovered with the property. Sadly the "cool modern" escalators were out of order the entire trip. There is no hot water in the showers. After allowing the water to warm up for 8-10 minutes it will get warm but never actually hot. We experienced 2 false fire alarms within a 24-hour period causing us to evacuate the hotel. Our room was street facing which audibly sounded as if we were sleeping on the street itself. The valet was very slow in using the texting application to request your car. Majority of the time after texting we would have to again request the car in person for it to be pulled around. The largest concern was safety. On entering our room for the first time I was able to just push it open from the locked position. I called the front desk with this concern requesting a new room with a better door and they immediately sent a repair man. He arrived and worked on a solution within 15 minutes and fixed it so I at least couldn't push my way into the room. In conclusion, location was not bad as it was easy to get anywhere in the city. The rest of the hotel was all aesthetic and no substance. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here on an extended weekend trip. Discovered majority of the small shops and breakfast places close down for the weekend leaving dining options prior to dinner limited additionally the front desk had little knowledge of the area to provide recommendations. The hotel itself looks sharp from the street and a very modern design throughout. From here many kinks were discovered with the property. Sadly the "cool modern" escalators were out of order the entire trip. There is no hot water in the showers. After allowing the water to warm up for 8-10 minutes it will get warm but never actually hot. We experienced 2 false fire alarms within a 24-hour period causing us to evacuate the hotel. Our room was street facing which audibly sounded as if we were sleeping on the street itself. The valet was very slow in using the texting application to request your car. Majority of the time after texting we would have to again request the car in person for it to be pulled around. The largest concern was safety. On entering our room for the first time I was able to just push it open from the locked position. I called the front desk with this concern requesting a new room with a better door and they immediately sent a repair man. He arrived and worked on a solution within 15 minutes and fixed it so I at least couldn't push my way...Stayed here on an extended weekend trip. Discovered majority of the small shops and breakfast places close down for the weekend leaving dining options prior to dinner limited additionally the front desk had little knowledge of the area to provide recommendations. The hotel itself looks sharp from the street and a very modern design throughout. From here many kinks were discovered with the property. Sadly the "cool modern" escalators were out of order the entire trip. There is no hot water in the showers. After allowing the water to warm up for 8-10 minutes it will get warm but never actually hot. We experienced 2 false fire alarms within a 24-hour period causing us to evacuate the hotel. Our room was street facing which audibly sounded as if we were sleeping on the street itself. The valet was very slow in using the texting application to request your car. Majority of the time after texting we would have to again request the car in person for it to be pulled around. The largest concern was safety. On entering our room for the first time I was able to just push it open from the locked position. I called the front desk with this concern requesting a new room with a better door and they immediately sent a repair man. He arrived and worked on a solution within 15 minutes and fixed it so I at least couldn't push my way into the room. In conclusion, location was not bad as it was easy to get anywhere in the city. The rest of the hotel was all aesthetic and no substance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r457918084-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457918084</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Bowl visit </t>
+  </si>
+  <si>
+    <t>I would NOT choose this hotel! There are far better choices in the downtown area. We stayed here for Super Bowl and were not impressed at all.Our room wasn't ready for check in. Then when we finally were able to get to our room, we had a shortage of coat hangers so I called and requested more. They never came. We had no hot water, just luke warm. When house keeping came, she did not replace washcloths or coffee creamer. I called and requested wash cloths and they brought me towels. I had to go downstairs to get my creamer. When I had tried to call again about the washcloths, our phone wouldn't work. Also, the bar is so tiny! Not much happening here! I would choose the Hilton Americas or Marriott Marquis over this hotel for sure!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>I would NOT choose this hotel! There are far better choices in the downtown area. We stayed here for Super Bowl and were not impressed at all.Our room wasn't ready for check in. Then when we finally were able to get to our room, we had a shortage of coat hangers so I called and requested more. They never came. We had no hot water, just luke warm. When house keeping came, she did not replace washcloths or coffee creamer. I called and requested wash cloths and they brought me towels. I had to go downstairs to get my creamer. When I had tried to call again about the washcloths, our phone wouldn't work. Also, the bar is so tiny! Not much happening here! I would choose the Hilton Americas or Marriott Marquis over this hotel for sure!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r452859050-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452859050</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel in a perfect Downtown location</t>
+  </si>
+  <si>
+    <t>We live in Houston and recently enjoyed a staycation at the Aloft Downtown Houston. The hotel is located a block from the metro rail which allowed us easy access to venues like Whit Oak Music Hall. Some of Houstons best restaurants are walking distance or short Uber ride away from the hotel.The location of this hotel is obviously excellent for business or pleasure but the true crowing jewel for me was the roof top pool area. Absolutely gorgeous! a small dipping pool, accented with bright, comfortable, abundant seating options are surrounded by the beautiful buildings of downtown Houston. Historic &amp; modern high rises soar above the pool deck on all sides. We plan to stay here again soon. Travel safely.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>We live in Houston and recently enjoyed a staycation at the Aloft Downtown Houston. The hotel is located a block from the metro rail which allowed us easy access to venues like Whit Oak Music Hall. Some of Houstons best restaurants are walking distance or short Uber ride away from the hotel.The location of this hotel is obviously excellent for business or pleasure but the true crowing jewel for me was the roof top pool area. Absolutely gorgeous! a small dipping pool, accented with bright, comfortable, abundant seating options are surrounded by the beautiful buildings of downtown Houston. Historic &amp; modern high rises soar above the pool deck on all sides. We plan to stay here again soon. Travel safely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r452454548-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452454548</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>A Marathon Weekend!!</t>
+  </si>
+  <si>
+    <t>My husband and I both enjoy running. So, when we decided to do the Houston Marathon for the 4th year we automatically decided to stay downtown Houston. When we found out the ALOFT was coming to downtown we were excited. We have stay at other sites. My husband booked it right away. Your customer service was so accommodating. Since we found out that you were a PET Friendly Hotel we decided to take our Chihuahua Zumma. You offered us a bed and pet bowls right away, she also got a treat bag with the essentials. The Hotel is modern and beautiful, super close to all of Houston's downtown attractions. It made it super easy for us, since we only had to walk 6 blocks (if that to the start line of the Marathon). Staff was so nice and super friendly. This hotel will be booked soon for our Marathon again next year. Thank you for being so helpful and attentive to our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I both enjoy running. So, when we decided to do the Houston Marathon for the 4th year we automatically decided to stay downtown Houston. When we found out the ALOFT was coming to downtown we were excited. We have stay at other sites. My husband booked it right away. Your customer service was so accommodating. Since we found out that you were a PET Friendly Hotel we decided to take our Chihuahua Zumma. You offered us a bed and pet bowls right away, she also got a treat bag with the essentials. The Hotel is modern and beautiful, super close to all of Houston's downtown attractions. It made it super easy for us, since we only had to walk 6 blocks (if that to the start line of the Marathon). Staff was so nice and super friendly. This hotel will be booked soon for our Marathon again next year. Thank you for being so helpful and attentive to our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r448114546-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448114546</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyla </t>
+  </si>
+  <si>
+    <t>Probably the coolest and most down to earth bartender I've meet. Conversation is never boring and she makes you feel at home. Funny and witty. Honest and willing to meet any needs for her customers. 5/5!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Probably the coolest and most down to earth bartender I've meet. Conversation is never boring and she makes you feel at home. Funny and witty. Honest and willing to meet any needs for her customers. 5/5!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r446362011-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446362011</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Weekend get away</t>
+  </si>
+  <si>
+    <t>We live in clear lake and love coming downtown and trying out new hotels and restaurants for a weekend away. We recently stayed at aloft and loved the experience. Candice Walker of the hotel's wxyz bar went above and beyond giving us excellent drinks and giving us a tour of the hotel. The whole place had a young, fresh, and inviting vibe. I highly recommend it for anyone coming to stay in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>We live in clear lake and love coming downtown and trying out new hotels and restaurants for a weekend away. We recently stayed at aloft and loved the experience. Candice Walker of the hotel's wxyz bar went above and beyond giving us excellent drinks and giving us a tour of the hotel. The whole place had a young, fresh, and inviting vibe. I highly recommend it for anyone coming to stay in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r446282669-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446282669</t>
+  </si>
+  <si>
+    <t>Great bar service! Mediocre Staff.</t>
+  </si>
+  <si>
+    <t>My room was nice. Clean with a horrible view of the parking lot. I had no clue there was a bar inside of the hotel until my last night there. (I wish someone told me as I checked in) The bar tender Candice was very friendly and welcoming. I felt like we were old friends catching up. She made my boyfriend and I some of the best cocktails i've had in a while.... and I'm a bartender lol. What I didn't like was the fact that the cleaning staff will take all of the towels and wash cloths out of the room and only replenish the towels. I had to wait 45 min to receive clean wash cloths after I called front desk numerous times. also they come into the room at 8:30 am to clean it. They don't knock or use caution. I woke up twice to someone in my room. I wasn't bothered but it was creepy lol.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Aloft Houston Downtown, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>My room was nice. Clean with a horrible view of the parking lot. I had no clue there was a bar inside of the hotel until my last night there. (I wish someone told me as I checked in) The bar tender Candice was very friendly and welcoming. I felt like we were old friends catching up. She made my boyfriend and I some of the best cocktails i've had in a while.... and I'm a bartender lol. What I didn't like was the fact that the cleaning staff will take all of the towels and wash cloths out of the room and only replenish the towels. I had to wait 45 min to receive clean wash cloths after I called front desk numerous times. also they come into the room at 8:30 am to clean it. They don't knock or use caution. I woke up twice to someone in my room. I wasn't bothered but it was creepy lol.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r442645552-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442645552</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Good Location and pretty quiet.</t>
+  </si>
+  <si>
+    <t>This hotel just opened up a month ago so it's still looking perfect. Rooms are great with nice walk in showers and everything else you need for a week on the road. Would be nice to have a microwave for leftovers but not a deal breaker. In easy walking distance of many offices and lots of places to eat and drink.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel just opened up a month ago so it's still looking perfect. Rooms are great with nice walk in showers and everything else you need for a week on the road. Would be nice to have a microwave for leftovers but not a deal breaker. In easy walking distance of many offices and lots of places to eat and drink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r442241650-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442241650</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful </t>
+  </si>
+  <si>
+    <t>We stayed three nights. Perfect location to walk downtown Houston. The staff was above and beyond. Many thanks to Kyla from the lounge for taking such attentive care to our group while we visited. This is the best place we have found for downtown Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed three nights. Perfect location to walk downtown Houston. The staff was above and beyond. Many thanks to Kyla from the lounge for taking such attentive care to our group while we visited. This is the best place we have found for downtown Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r442143060-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442143060</t>
+  </si>
+  <si>
+    <t>Excellent new property</t>
+  </si>
+  <si>
+    <t>I stayed here December 1st and found this new property to be fantastic.  Starting off with the valet, I loved the eTicket texted to you.  I could use my phone the next morning to request my car to be brought up.  The check in was easy.  The room had a great tall ceiling and a nice layout.  As a new hotel I noticed that the room was setup with amenities that mattered, but none that didn't (i.e., no in-room coffee machine, free coffee downstairs).  Nice DirecTV service and easy outlets near the bed.  Overall I just liked that it did look, feel and smell brand new.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here December 1st and found this new property to be fantastic.  Starting off with the valet, I loved the eTicket texted to you.  I could use my phone the next morning to request my car to be brought up.  The check in was easy.  The room had a great tall ceiling and a nice layout.  As a new hotel I noticed that the room was setup with amenities that mattered, but none that didn't (i.e., no in-room coffee machine, free coffee downstairs).  Nice DirecTV service and easy outlets near the bed.  Overall I just liked that it did look, feel and smell brand new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r436499173-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436499173</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>The Best Service Anywhere</t>
+  </si>
+  <si>
+    <t>I've traveled all over, but this is hotel far and away has the best service.  The front desk staff as well as the General Manager (Tamara) have all gone well beyond to make my experience the best it possibly could.  When I was looking for something to do on a Friday night, and never having been to Houston, she recommended a FABULOUS show then helped arrange transportation for me.  The hotel was quite modern, came with a mini fridge, blow dryer and some great soap and lotion.  This is a real treasure here in this lovingly restored historic building in the center of downtown.  Kudos to all!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>I've traveled all over, but this is hotel far and away has the best service.  The front desk staff as well as the General Manager (Tamara) have all gone well beyond to make my experience the best it possibly could.  When I was looking for something to do on a Friday night, and never having been to Houston, she recommended a FABULOUS show then helped arrange transportation for me.  The hotel was quite modern, came with a mini fridge, blow dryer and some great soap and lotion.  This is a real treasure here in this lovingly restored historic building in the center of downtown.  Kudos to all!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r435721865-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435721865</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Great !!</t>
+  </si>
+  <si>
+    <t>Had stayed over for the weekend for my cousin wedding with my family and we had a great time . The hotel was a perfect location not only that the staff was amazing as well, Decorida made sure we was taking care thanks a lot for taking care of us. Very upbeat hotel you can't find those anymore ! Travis the front desk guy and he the breakfast guy nana couldn't get enough of him. He took care of her like it was his own made sure she had water when she arrived back he became her friend and we appreciate him for that great guest service thanks aloft for a time we will remember..! Stay here you won't regret it !! Awesome !MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Had stayed over for the weekend for my cousin wedding with my family and we had a great time . The hotel was a perfect location not only that the staff was amazing as well, Decorida made sure we was taking care thanks a lot for taking care of us. Very upbeat hotel you can't find those anymore ! Travis the front desk guy and he the breakfast guy nana couldn't get enough of him. He took care of her like it was his own made sure she had water when she arrived back he became her friend and we appreciate him for that great guest service thanks aloft for a time we will remember..! Stay here you won't regret it !! Awesome !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r435443350-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435443350</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Very Sleek</t>
+  </si>
+  <si>
+    <t>The rooms are very modern, came with mini fridge and blow dryer, (believe it or not some places do not!!!) My big concern when it comes to staying in hotels is the water temp and pressure, and I was pleasantly surprised!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The rooms are very modern, came with mini fridge and blow dryer, (believe it or not some places do not!!!) My big concern when it comes to staying in hotels is the water temp and pressure, and I was pleasantly surprised!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r434952083-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434952083</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Thumbs up</t>
+  </si>
+  <si>
+    <t>Awesome place, very sleek.   Some great bartenders, very nice and great for a chat.  I would recommend and definitely would stay there again.  Check in staff was nice.  Parking nearby was tough, I should have valeted.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Awesome place, very sleek.   Some great bartenders, very nice and great for a chat.  I would recommend and definitely would stay there again.  Check in staff was nice.  Parking nearby was tough, I should have valeted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r434930027-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434930027</t>
+  </si>
+  <si>
+    <t>Splendid Time</t>
+  </si>
+  <si>
+    <t>Kyla and Tiffany were awesome. Very welcoming, accommodating to the big football game needs. We had a large party and they were efficient and hospitable. Our check in experience was great, and the rooms were adequately appointed and clean. Will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyla and Tiffany were awesome. Very welcoming, accommodating to the big football game needs. We had a large party and they were efficient and hospitable. Our check in experience was great, and the rooms were adequately appointed and clean. Will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r434699983-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434699983</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference in October. It was just about the worst hotel experience I've ever had. I could hear every noise on the streets below as if they windows were open because the windows don't fit properly, I had holes in the wall in my bathroom, the elevators were broken one night and I had to climb 8 floors - twice, the lamp in my room didn't work, the fire alarm randomly went one night on floors 2-5 but not the rest of the hotel, the roof deck and pool were closed and so was the exercise room (under construction). The rooms are ridiculously designed so that you would have to walk past an entire wall of windows that face a parking garage to get from the closet area to the bathroom (better grab those clothes BEFORE you shower or always keep all blinds down) and the light fixture in the bathroom wasn't even centered over the sink (shoved all the way to the right side). Another person I traveled with had no shower wall and the bathroom flooded every time they showered. It took TWO DAYS to get the staff to bring shampoo to the room. I was given a dirty towel one day as a replacement and I'm reasonably sure they still haven't fixed the lamp in that room. I took the lamp down myself to the desk on the first day. I asked about...I stayed here for a conference in October. It was just about the worst hotel experience I've ever had. I could hear every noise on the streets below as if they windows were open because the windows don't fit properly, I had holes in the wall in my bathroom, the elevators were broken one night and I had to climb 8 floors - twice, the lamp in my room didn't work, the fire alarm randomly went one night on floors 2-5 but not the rest of the hotel, the roof deck and pool were closed and so was the exercise room (under construction). The rooms are ridiculously designed so that you would have to walk past an entire wall of windows that face a parking garage to get from the closet area to the bathroom (better grab those clothes BEFORE you shower or always keep all blinds down) and the light fixture in the bathroom wasn't even centered over the sink (shoved all the way to the right side). Another person I traveled with had no shower wall and the bathroom flooded every time they showered. It took TWO DAYS to get the staff to bring shampoo to the room. I was given a dirty towel one day as a replacement and I'm reasonably sure they still haven't fixed the lamp in that room. I took the lamp down myself to the desk on the first day. I asked about it three more times and they never even made a note of it, let alone replaced the lamp. Finally on checkout I said "would you please just write it down so the next person has a working lamp?"Basic horror show.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference in October. It was just about the worst hotel experience I've ever had. I could hear every noise on the streets below as if they windows were open because the windows don't fit properly, I had holes in the wall in my bathroom, the elevators were broken one night and I had to climb 8 floors - twice, the lamp in my room didn't work, the fire alarm randomly went one night on floors 2-5 but not the rest of the hotel, the roof deck and pool were closed and so was the exercise room (under construction). The rooms are ridiculously designed so that you would have to walk past an entire wall of windows that face a parking garage to get from the closet area to the bathroom (better grab those clothes BEFORE you shower or always keep all blinds down) and the light fixture in the bathroom wasn't even centered over the sink (shoved all the way to the right side). Another person I traveled with had no shower wall and the bathroom flooded every time they showered. It took TWO DAYS to get the staff to bring shampoo to the room. I was given a dirty towel one day as a replacement and I'm reasonably sure they still haven't fixed the lamp in that room. I took the lamp down myself to the desk on the first day. I asked about...I stayed here for a conference in October. It was just about the worst hotel experience I've ever had. I could hear every noise on the streets below as if they windows were open because the windows don't fit properly, I had holes in the wall in my bathroom, the elevators were broken one night and I had to climb 8 floors - twice, the lamp in my room didn't work, the fire alarm randomly went one night on floors 2-5 but not the rest of the hotel, the roof deck and pool were closed and so was the exercise room (under construction). The rooms are ridiculously designed so that you would have to walk past an entire wall of windows that face a parking garage to get from the closet area to the bathroom (better grab those clothes BEFORE you shower or always keep all blinds down) and the light fixture in the bathroom wasn't even centered over the sink (shoved all the way to the right side). Another person I traveled with had no shower wall and the bathroom flooded every time they showered. It took TWO DAYS to get the staff to bring shampoo to the room. I was given a dirty towel one day as a replacement and I'm reasonably sure they still haven't fixed the lamp in that room. I took the lamp down myself to the desk on the first day. I asked about it three more times and they never even made a note of it, let alone replaced the lamp. Finally on checkout I said "would you please just write it down so the next person has a working lamp?"Basic horror show.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r432390748-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432390748</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful Stay </t>
+  </si>
+  <si>
+    <t>Great hotel of this class. Hotel was very clean and so was my room. The breakfast I had was refreshing from refuel ( western omelet ) and ( breakfast burrito ) .Upon check out I was greeted like no other! I must say I woken up on the wrong side of the bed but Travis turned it around with a heart felt greeting and a great smile Such a positive attitude and I felt all his good energy , instantly my morning was turned around to a good morning .Thanks Travis you the best ! Cons- rooftop wasn't down yet but I heard it will be soon so when I come back I can enjoy it ( excited about that ) This a great hotel and you must stay. Everyone friendly that's a good thing, I just love this place home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel of this class. Hotel was very clean and so was my room. The breakfast I had was refreshing from refuel ( western omelet ) and ( breakfast burrito ) .Upon check out I was greeted like no other! I must say I woken up on the wrong side of the bed but Travis turned it around with a heart felt greeting and a great smile Such a positive attitude and I felt all his good energy , instantly my morning was turned around to a good morning .Thanks Travis you the best ! Cons- rooftop wasn't down yet but I heard it will be soon so when I come back I can enjoy it ( excited about that ) This a great hotel and you must stay. Everyone friendly that's a good thing, I just love this place home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r432263236-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432263236</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly Recommended .!!  </t>
+  </si>
+  <si>
+    <t>Great location..! Love this place the decor itself is very nice. The new hipster of downtown.! The only problem was that the rooftop wasn't open yet, but that didn't wreck my stay. The staff was very friendly! It's this one guy that stood out I think the gentleman name is Travis, every time  I saw this guy he always had a smile very upbeat and bubbly I was having a bad morning today but Travis turned it around ..!  no matter how many times he saw me I always received a happy cheerful greeting that's rare in the hospitality field usually it's always a dry good morning with others but not this guy..! He made sure I left with a smile ..! He showed great southern service  and I will be returning back. I highly recommend this place ..!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Great location..! Love this place the decor itself is very nice. The new hipster of downtown.! The only problem was that the rooftop wasn't open yet, but that didn't wreck my stay. The staff was very friendly! It's this one guy that stood out I think the gentleman name is Travis, every time  I saw this guy he always had a smile very upbeat and bubbly I was having a bad morning today but Travis turned it around ..!  no matter how many times he saw me I always received a happy cheerful greeting that's rare in the hospitality field usually it's always a dry good morning with others but not this guy..! He made sure I left with a smile ..! He showed great southern service  and I will be returning back. I highly recommend this place ..!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r430784019-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430784019</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>No soundproofing</t>
+  </si>
+  <si>
+    <t>Couldn't sleep all night at this hotel. Construction outside and no soundproofing. Won't be staying again.  Wish I would have read other reviews before I booked a night here.  Constant beeping all night. Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Couldn't sleep all night at this hotel. Construction outside and no soundproofing. Won't be staying again.  Wish I would have read other reviews before I booked a night here.  Constant beeping all night. Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r429545332-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429545332</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>We were there with a couple friends on the Weekend and we had a great time , lobby nice, bartenders great. My room was super clean , quiet and they have a plenty space also with nice downtown view. Planning to come back soon to enjoy the out door pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were there with a couple friends on the Weekend and we had a great time , lobby nice, bartenders great. My room was super clean , quiet and they have a plenty space also with nice downtown view. Planning to come back soon to enjoy the out door pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r429012990-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429012990</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Fawlty Towers</t>
+  </si>
+  <si>
+    <t>Stayed here because every hotel in town booked. Hands down, the worst hotel in Houston. Never again. Feels like a university residence and run by people who don't seem to have a clue. It's like they are student council volunteers. Phone in my room wasn't working. Housekeeping never visited my room and because phone not working, I had to go to front desk to ask for service over and over. Each time: "Oh, I'm so sorry (with surprise) - we'll send someone now." To no avail. No one ever came. Me: "Ok - if I can't get my room cleaned, maybe I could get some fresh towels." Them: "I am so sorry - for sure. Will send some up."Nope. Nothing.Me: "can you tell me where your gym is?"Student council member at front desk: "for sure! It's going to be on the 10th floor."Me: "going to be?"Them: "we haven't built it yet."Another time:Me: the shower is cold. No hot water.Them: you have to run it to warm it up.Me: I tried that. Running it takes it from ice cold to Luke warm only.Them: Ya. We know. We are going to get a plumber to look at it. It's on his list.There is: no restaurant; no room service. No hot water. No phones. No housekeeping. No bathrobes. No gym. No bar. No cabs out front.  Awful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here because every hotel in town booked. Hands down, the worst hotel in Houston. Never again. Feels like a university residence and run by people who don't seem to have a clue. It's like they are student council volunteers. Phone in my room wasn't working. Housekeeping never visited my room and because phone not working, I had to go to front desk to ask for service over and over. Each time: "Oh, I'm so sorry (with surprise) - we'll send someone now." To no avail. No one ever came. Me: "Ok - if I can't get my room cleaned, maybe I could get some fresh towels." Them: "I am so sorry - for sure. Will send some up."Nope. Nothing.Me: "can you tell me where your gym is?"Student council member at front desk: "for sure! It's going to be on the 10th floor."Me: "going to be?"Them: "we haven't built it yet."Another time:Me: the shower is cold. No hot water.Them: you have to run it to warm it up.Me: I tried that. Running it takes it from ice cold to Luke warm only.Them: Ya. We know. We are going to get a plumber to look at it. It's on his list.There is: no restaurant; no room service. No hot water. No phones. No housekeeping. No bathrobes. No gym. No bar. No cabs out front.  Awful.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2016,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2048,3818 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>217</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>293</v>
+      </c>
+      <c r="X30" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>318</v>
+      </c>
+      <c r="X33" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>335</v>
+      </c>
+      <c r="X35" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>339</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s">
+        <v>341</v>
+      </c>
+      <c r="L36" t="s">
+        <v>342</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>343</v>
+      </c>
+      <c r="X36" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>350</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>351</v>
+      </c>
+      <c r="X37" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>355</v>
+      </c>
+      <c r="J38" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" t="s">
+        <v>357</v>
+      </c>
+      <c r="L38" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>359</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>360</v>
+      </c>
+      <c r="X38" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>364</v>
+      </c>
+      <c r="J39" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>359</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>368</v>
+      </c>
+      <c r="X39" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>376</v>
+      </c>
+      <c r="X40" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>384</v>
+      </c>
+      <c r="X41" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>388</v>
+      </c>
+      <c r="J42" t="s">
+        <v>389</v>
+      </c>
+      <c r="K42" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" t="s">
+        <v>391</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>392</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>393</v>
+      </c>
+      <c r="X42" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>392</v>
+      </c>
+      <c r="O43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>402</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>403</v>
+      </c>
+      <c r="J44" t="s">
+        <v>404</v>
+      </c>
+      <c r="K44" t="s">
+        <v>405</v>
+      </c>
+      <c r="L44" t="s">
+        <v>406</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>407</v>
+      </c>
+      <c r="O44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>410</v>
+      </c>
+      <c r="J45" t="s">
+        <v>411</v>
+      </c>
+      <c r="K45" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" t="s">
+        <v>413</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>414</v>
+      </c>
+      <c r="X45" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>417</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>418</v>
+      </c>
+      <c r="J46" t="s">
+        <v>411</v>
+      </c>
+      <c r="K46" t="s">
+        <v>419</v>
+      </c>
+      <c r="L46" t="s">
+        <v>420</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>421</v>
+      </c>
+      <c r="X46" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>424</v>
+      </c>
+      <c r="J47" t="s">
+        <v>425</v>
+      </c>
+      <c r="K47" t="s">
+        <v>426</v>
+      </c>
+      <c r="L47" t="s">
+        <v>427</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>407</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>414</v>
+      </c>
+      <c r="X47" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>431</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>407</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>431</v>
+      </c>
+      <c r="K49" t="s">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s">
+        <v>438</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" t="s">
+        <v>442</v>
+      </c>
+      <c r="K50" t="s">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s">
+        <v>444</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>445</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>446</v>
+      </c>
+      <c r="X50" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>450</v>
+      </c>
+      <c r="J51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s">
+        <v>453</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>454</v>
+      </c>
+      <c r="X51" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>458</v>
+      </c>
+      <c r="J52" t="s">
+        <v>459</v>
+      </c>
+      <c r="K52" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" t="s">
+        <v>461</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>462</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>464</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>465</v>
+      </c>
+      <c r="J53" t="s">
+        <v>466</v>
+      </c>
+      <c r="K53" t="s">
+        <v>467</v>
+      </c>
+      <c r="L53" t="s">
+        <v>468</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>445</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>469</v>
+      </c>
+      <c r="X53" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>472</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" t="s">
+        <v>474</v>
+      </c>
+      <c r="L54" t="s">
+        <v>475</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>469</v>
+      </c>
+      <c r="X54" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>483</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>484</v>
+      </c>
+      <c r="J56" t="s">
+        <v>485</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+      <c r="L56" t="s">
+        <v>487</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>462</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>462</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>496</v>
+      </c>
+      <c r="X57" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>499</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>500</v>
+      </c>
+      <c r="J58" t="s">
+        <v>501</v>
+      </c>
+      <c r="K58" t="s">
+        <v>502</v>
+      </c>
+      <c r="L58" t="s">
+        <v>503</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>462</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>504</v>
+      </c>
+      <c r="X58" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>507</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>508</v>
+      </c>
+      <c r="J59" t="s">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s">
+        <v>511</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>462</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>504</v>
+      </c>
+      <c r="X59" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>513</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>514</v>
+      </c>
+      <c r="J60" t="s">
+        <v>515</v>
+      </c>
+      <c r="K60" t="s">
+        <v>516</v>
+      </c>
+      <c r="L60" t="s">
+        <v>517</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>462</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>504</v>
+      </c>
+      <c r="X60" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_4.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="852">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,183 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r612444074-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10259175</t>
+  </si>
+  <si>
+    <t>612444074</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Worst Business Trip stay ever!</t>
+  </si>
+  <si>
+    <t>The staff at the front desk counters act like they don’t want on be there and as if you’re an inconvenience to them. The beds might as well have been advertised as cement blocks, woke up with a locked up back from the terrible comfort. This hotel is in downtown Houston and has this sort of service and comfort?I’ll stay in Katy next time....</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r608207115-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>608207115</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>Just a quick weekend trip to Houston. Stayed at an Aloft hotel in Austin and tried the one in Houston. The hotel chain is great modern furniture in the rooms large walk in shower. This one had a great rooftop pool and bar. The bartender Ava made the best margarita. All fresh ingredients none of the premix stuff. The hotel is in a great spot downtown and you can walk to bars and restaurants downtown. The front desk staff very friendly. The only negative thing I can say is that the bathroom light can only be turned on by turning on the light over the sink area (the sink and counter are in the ante-room not with the toilet and shower). There is not a door between the bedroom and ante-room so if someone gets up to use the bathroom at night the light shines directly in your. Several times a night gets very annoying MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Just a quick weekend trip to Houston. Stayed at an Aloft hotel in Austin and tried the one in Houston. The hotel chain is great modern furniture in the rooms large walk in shower. This one had a great rooftop pool and bar. The bartender Ava made the best margarita. All fresh ingredients none of the premix stuff. The hotel is in a great spot downtown and you can walk to bars and restaurants downtown. The front desk staff very friendly. The only negative thing I can say is that the bathroom light can only be turned on by turning on the light over the sink area (the sink and counter are in the ante-room not with the toilet and shower). There is not a door between the bedroom and ante-room so if someone gets up to use the bathroom at night the light shines directly in your. Several times a night gets very annoying More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r607401452-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607401452</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>History Exists in Downtown</t>
+  </si>
+  <si>
+    <t>I was impressed with how Aloft Downtown used an old historical building to capture the essence of the value &amp; romance that Houston has to offer. Growing up as a native Houstonian, I have witnessed major changes in development of structures and a bit too modern on buildings &amp; catching some of the most beautiful of buildings begin condemned or demolished to make room for these up-scale sites. I am not a fan of new-nostalgia in cities. I support the historical value and attend many historical events all over the county. How I DO love a good history lesson! I did notice that they offer free snacks in the lobby with coffee &amp; the bar side pool area on roof-deck was pretty cool. Chrissy- the bar manager- was amazing! She was so friendly &amp; FUN! My friend &amp; I got pretty comfortable with her and she knew what we drank right away after the 1st one! I love those kind of people. I did take in the decor inside- not traditional for a historical site- but defiantly a trendy one! The 80s-Retro style is definitely one to keep around- since I am a child of the 80s.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I was impressed with how Aloft Downtown used an old historical building to capture the essence of the value &amp; romance that Houston has to offer. Growing up as a native Houstonian, I have witnessed major changes in development of structures and a bit too modern on buildings &amp; catching some of the most beautiful of buildings begin condemned or demolished to make room for these up-scale sites. I am not a fan of new-nostalgia in cities. I support the historical value and attend many historical events all over the county. How I DO love a good history lesson! I did notice that they offer free snacks in the lobby with coffee &amp; the bar side pool area on roof-deck was pretty cool. Chrissy- the bar manager- was amazing! She was so friendly &amp; FUN! My friend &amp; I got pretty comfortable with her and she knew what we drank right away after the 1st one! I love those kind of people. I did take in the decor inside- not traditional for a historical site- but defiantly a trendy one! The 80s-Retro style is definitely one to keep around- since I am a child of the 80s.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r606399885-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606399885</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, and Great Pool</t>
+  </si>
+  <si>
+    <t>The pool on the rooftop is definitely the shining star of this hotel.  When we stayed here, there was construction going on across the street, which isn't the hotel's fault, but they did move us to the other side of the building when requested.  They also have an honor system grab and go style breakfast/snack area, which was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>The pool on the rooftop is definitely the shining star of this hotel.  When we stayed here, there was construction going on across the street, which isn't the hotel's fault, but they did move us to the other side of the building when requested.  They also have an honor system grab and go style breakfast/snack area, which was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r605477538-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605477538</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>OUTSTANDING STAFF, Clean Rooms, Comfortable Bed, &amp; Great Rooftop Pool</t>
+  </si>
+  <si>
+    <t>The Staff was excellent. From leaving my luggage the night before check in at the front desk, to a 9 am early check in following day, to asking for extra towels and pillows, to accepting a UPS delivery and another delivery for me and notifying me on my cell phone, to a late 2 pm check out. Everyone was very accommodating and spoke to me in passing, every time! The room was clean, the beds were amazingly comfortable, I want to buy those mattresses to use at home! The main reason that I chose this hotel was because of the roof top pool. It is great and the lounge furniture is comfortable. Unfortunately the pool side bar was open on the weekends, but it was great when it was open. The pool is very small, which is fine when there are just mostly adults lounging and relaxing, with a few kids. However, the Saturday that I was there it seemed a local family came and had a kids birthday party at the pool. So, 10-20 kids in the pool with 4-6 adults huddled in the corner was less than enjoyable so I didn't stay long that day. During the daytime the location is great, very close to everything. You can walk to CVS, restaurants, and the Metro Rail. However, I would not suggest anyone go out in the area at night. I went out to the train around 10 pm...The Staff was excellent. From leaving my luggage the night before check in at the front desk, to a 9 am early check in following day, to asking for extra towels and pillows, to accepting a UPS delivery and another delivery for me and notifying me on my cell phone, to a late 2 pm check out. Everyone was very accommodating and spoke to me in passing, every time! The room was clean, the beds were amazingly comfortable, I want to buy those mattresses to use at home! The main reason that I chose this hotel was because of the roof top pool. It is great and the lounge furniture is comfortable. Unfortunately the pool side bar was open on the weekends, but it was great when it was open. The pool is very small, which is fine when there are just mostly adults lounging and relaxing, with a few kids. However, the Saturday that I was there it seemed a local family came and had a kids birthday party at the pool. So, 10-20 kids in the pool with 4-6 adults huddled in the corner was less than enjoyable so I didn't stay long that day. During the daytime the location is great, very close to everything. You can walk to CVS, restaurants, and the Metro Rail. However, I would not suggest anyone go out in the area at night. I went out to the train around 10 pm to the walking dead. I was approached by 10 people within 10 minutes asking for money, they were all strung out on something and most looked like walking zombies. It is very sad and unfortunate of the large homeless population in the immediate area. However, all of that aside Aloft Houston Downtown is a great hotel with an outstanding staff!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The Staff was excellent. From leaving my luggage the night before check in at the front desk, to a 9 am early check in following day, to asking for extra towels and pillows, to accepting a UPS delivery and another delivery for me and notifying me on my cell phone, to a late 2 pm check out. Everyone was very accommodating and spoke to me in passing, every time! The room was clean, the beds were amazingly comfortable, I want to buy those mattresses to use at home! The main reason that I chose this hotel was because of the roof top pool. It is great and the lounge furniture is comfortable. Unfortunately the pool side bar was open on the weekends, but it was great when it was open. The pool is very small, which is fine when there are just mostly adults lounging and relaxing, with a few kids. However, the Saturday that I was there it seemed a local family came and had a kids birthday party at the pool. So, 10-20 kids in the pool with 4-6 adults huddled in the corner was less than enjoyable so I didn't stay long that day. During the daytime the location is great, very close to everything. You can walk to CVS, restaurants, and the Metro Rail. However, I would not suggest anyone go out in the area at night. I went out to the train around 10 pm...The Staff was excellent. From leaving my luggage the night before check in at the front desk, to a 9 am early check in following day, to asking for extra towels and pillows, to accepting a UPS delivery and another delivery for me and notifying me on my cell phone, to a late 2 pm check out. Everyone was very accommodating and spoke to me in passing, every time! The room was clean, the beds were amazingly comfortable, I want to buy those mattresses to use at home! The main reason that I chose this hotel was because of the roof top pool. It is great and the lounge furniture is comfortable. Unfortunately the pool side bar was open on the weekends, but it was great when it was open. The pool is very small, which is fine when there are just mostly adults lounging and relaxing, with a few kids. However, the Saturday that I was there it seemed a local family came and had a kids birthday party at the pool. So, 10-20 kids in the pool with 4-6 adults huddled in the corner was less than enjoyable so I didn't stay long that day. During the daytime the location is great, very close to everything. You can walk to CVS, restaurants, and the Metro Rail. However, I would not suggest anyone go out in the area at night. I went out to the train around 10 pm to the walking dead. I was approached by 10 people within 10 minutes asking for money, they were all strung out on something and most looked like walking zombies. It is very sad and unfortunate of the large homeless population in the immediate area. However, all of that aside Aloft Houston Downtown is a great hotel with an outstanding staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r604463801-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>604463801</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>CUTE, MODERN</t>
+  </si>
+  <si>
+    <t>working in the hotel industry i know what to look for when i stay in one, this hotel is a cute little modern oasis, the rooftop bar reminds me of Soho and the modern bedrooms were squeaky clean, the front desk were always smiling and asking how we were, the valet with a pretty accent was very helpful. The only downside was that we had a room facing a brick wall, it was mostly my fault since i didn't specify what kind of view i preferred. TRUST ME the rooftop makes up for it. I give this cute little place a 10!MoreShow less</t>
+  </si>
+  <si>
+    <t>working in the hotel industry i know what to look for when i stay in one, this hotel is a cute little modern oasis, the rooftop bar reminds me of Soho and the modern bedrooms were squeaky clean, the front desk were always smiling and asking how we were, the valet with a pretty accent was very helpful. The only downside was that we had a room facing a brick wall, it was mostly my fault since i didn't specify what kind of view i preferred. TRUST ME the rooftop makes up for it. I give this cute little place a 10!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r598173743-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598173743</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Horrible hotel design</t>
+  </si>
+  <si>
+    <t>Hotel only has valet parking. Just the first annoyance.Dark color scheme in halls and room give a gloomy, prison feel. Brightest light in the room is next to the bed, after you walk through a dimly lit room and hunt for more light. In fact, the switch is black... just for added difficulty.Then, the bathroom... So, there is a door that separates the toilet and shower from the sink. I did like that. But, then there is no door to the outer bathroom and only one light switch for both areas. Translation: when my girlfriend wanted to not pee in the dark or start putting on make up, that light switch had to come on and it’s not like it was facing into a little hallway, no... I could see into the bathroom directly from the bed.So! The room was clean, or maybe the dark colors masked any dirt.Otherwise, I was just a little annoyed that they had no ice cream at the little  convenience story in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Hotel only has valet parking. Just the first annoyance.Dark color scheme in halls and room give a gloomy, prison feel. Brightest light in the room is next to the bed, after you walk through a dimly lit room and hunt for more light. In fact, the switch is black... just for added difficulty.Then, the bathroom... So, there is a door that separates the toilet and shower from the sink. I did like that. But, then there is no door to the outer bathroom and only one light switch for both areas. Translation: when my girlfriend wanted to not pee in the dark or start putting on make up, that light switch had to come on and it’s not like it was facing into a little hallway, no... I could see into the bathroom directly from the bed.So! The room was clean, or maybe the dark colors masked any dirt.Otherwise, I was just a little annoyed that they had no ice cream at the little  convenience story in the lobby.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r596237370-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>10259175</t>
-  </si>
-  <si>
     <t>596237370</t>
   </si>
   <si>
@@ -174,16 +339,10 @@
     <t>I stayed at the Aloft Downtown Houston for 7 nights in July 2018. This was my first stay at an Aloft brand hotel and I enjoyed the convenience of the hotel and the friendliness of the staff. The hotel offers solid accommodations. The room was clean and modern. There are no frills, but the price is affordable and a great value for this level of comfort. Others complained about noise due to construction, but I had no problems whatsoever. The staff were friendly and willing to take the extra step to make my staff enjoyable. Houston's light rail train is a block away from this hotel making it very easy to navigate the downtown area either by train, or on foot. Enjoy!MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2018</t>
   </si>
   <si>
     <t>I stayed at the Aloft Downtown Houston for 7 nights in July 2018. This was my first stay at an Aloft brand hotel and I enjoyed the convenience of the hotel and the friendliness of the staff. The hotel offers solid accommodations. The room was clean and modern. There are no frills, but the price is affordable and a great value for this level of comfort. Others complained about noise due to construction, but I had no problems whatsoever. The staff were friendly and willing to take the extra step to make my staff enjoyable. Houston's light rail train is a block away from this hotel making it very easy to navigate the downtown area either by train, or on foot. Enjoy!More</t>
@@ -207,13 +366,10 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
   </si>
   <si>
     <t>i really like aloft hotels, and been in many different properties, but this one was a bit of disappointment.location is nice, just in the middle of downtown, close to discovery green and some nice restaurants. the parking is valet-only and it's a bit pricey. there was a noisy construction next door, but it's clearly not the hotels fault. the room was fine, but the smell wasn't. the layout is a bit different than the usual aloft. cleanliness is far from standards.breakfast was complimentary for platinum members, however the choices were limited, and the ordering process was unnecessarily complicated.there was a rooftop pool, but unfortunately it was really tiny and dirty. the rooftop bar was closed for some reason, on a friday night, the day before houston pride.i think if staying in the middle of downtown is not a priority, it's easy to find much better offers in houston.More</t>
@@ -243,6 +399,57 @@
     <t>Our team stayed here recently while attending a conference at the downtown conference center.  The location is great, and we enjoyed our stay, but the best part of the hotel is its staff.  Three staff members were especially helpful to us: Victor, Kim, and Matthew.  Every time we went to the front desk, we were greeted with wide smiles and a true desire to help us.  Thank you to all of you!  The shuttle to and from the convention center was very helpful given the heavy rainfall Houston was experiencing during our stay.I have one suggestion for Aloft: either add a separate light switch for the toilet/shower area or add a door to the entire bathroom.  The way things are now, going into the bathroom wakes up everyone in the room.  Strange that this design oversight ever made it off the drawing board.  Otherwise, a great stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r590221866-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590221866</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>If I could give 0 stars I would.</t>
+  </si>
+  <si>
+    <t>Do not stay here. Houston has many other places to stay. You should check them out. Do not waste your money here. I travel quite often and have never felt inclined to leave a negative review but I want to warn others.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Do not stay here. Houston has many other places to stay. You should check them out. Do not waste your money here. I travel quite often and have never felt inclined to leave a negative review but I want to warn others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r590047308-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590047308</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>Nice hotel. Friend checkin and reception environment. More on the new and trendy scene than luxury and classic. Location is good downtown but it’s ghost town after 9! Bar staff are great and friendly. Rooms are good and good quality. Few small touches to improve on to make it 5 out of 5. Needs a bit more personalisation and experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel. Friend checkin and reception environment. More on the new and trendy scene than luxury and classic. Location is good downtown but it’s ghost town after 9! Bar staff are great and friendly. Rooms are good and good quality. Few small touches to improve on to make it 5 out of 5. Needs a bit more personalisation and experience. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r588542735-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -267,6 +474,30 @@
     <t>The bathroom has one light switch, which turns on the light by the sink etc as well as the light in the toilet/shower room. But there is no door closing the sink room off to the rest of the hotel room, so if someone has to use the restroom in the middle of the night, the light shines right onto the bed and then they have to listen to you wash your hands etc. Internet is slow. Room smelled oddly like a pool house (chlorine-y and almost musty?) Despite being set to a really low temp, the room got really hot in the middle of the night. Was very hard to get blankets, towels, or washcloths. Phone didn’t work half the time. Doors slam REALLY loud unless you slowly close them. Shuttle service is VERY nice, very convenient way to get somewhere downtown and valet gentlemen we’re all very nice and helpful. M Bed was comfy. Seemed clean enough. Overall, kind of a disappointing hotel stay, especially for the price. Would not bother to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r587520048-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587520048</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>W XYZ BAR HOUSTON HAS THE BEST BAR STAFF IN THE STATE OF TEXAS</t>
+  </si>
+  <si>
+    <t>Aloft Hotel has been the best place I have ever stayed. I was here for two weeks. My first week, I did NOT stay at Aloft and I was lonely, there was no one around. The second week I did stay at Aloft and the difference was day and night. Kyla, Chrissy, and Kris make the bar come alive!! I felt truly welcome. The rooms are cool but the WXYZ bar added so much to my stay here!!!! I had an amazing time, excellent selection of liquor and beers and the best bar staff I have seen in a long time!!! The bar staff is the reason I came back and will continue to book here!! I cannot give the Aloft more praise, there are no words for how at home they made me feel.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Aloft Hotel has been the best place I have ever stayed. I was here for two weeks. My first week, I did NOT stay at Aloft and I was lonely, there was no one around. The second week I did stay at Aloft and the difference was day and night. Kyla, Chrissy, and Kris make the bar come alive!! I felt truly welcome. The rooms are cool but the WXYZ bar added so much to my stay here!!!! I had an amazing time, excellent selection of liquor and beers and the best bar staff I have seen in a long time!!! The bar staff is the reason I came back and will continue to book here!! I cannot give the Aloft more praise, there are no words for how at home they made me feel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r586622128-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,6 +552,54 @@
     <t>I want to send a Big thank you to the front desk staff at Aloft Downtown Houston especially Victor for all of their help in straightening out my reservation nightmare. You were all so helpful and kind to be sure my dilemma was fixed.The hotel made sure to inform me of possible noise during the evening hours due to construction near the hotel. Vincent was able to give me a room away from the noise.I will be back when I am in Houston again and will recommend this chic urban friendly hotel to others. My sincere gratitude.Elba MarmoMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r580342435-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580342435</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Request Inside Room</t>
+  </si>
+  <si>
+    <t>One of the better executions of the Aloft formula with large public area on the first floor, expansive rooftop lounge with happy hour and comfortable, well-equipped bedrooms with walk-in shower. Service is responsive.Main problem is that the hotel is opposite a 24/7  construction site so be sure to ask for an inside room that does not overlook Fannin Street.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>One of the better executions of the Aloft formula with large public area on the first floor, expansive rooftop lounge with happy hour and comfortable, well-equipped bedrooms with walk-in shower. Service is responsive.Main problem is that the hotel is opposite a 24/7  construction site so be sure to ask for an inside room that does not overlook Fannin Street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r580229976-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580229976</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Good affordable stay walking distance to Minute Maid</t>
+  </si>
+  <si>
+    <t>We were in town for the Astros game. Location was great - about 10 - 15 minute walk to Minute Maid park. Lots of restaurants/bars along the way. Our room was great - exactly what I expect from an Aloft. Sleek and clean, no frills but nice. The pool area was a little small, but was nice for sitting around/lounging with drinks. Not a ton of tanning chairs though, more lounge furniture.Downstairs felt a little less sleek than other Alofts I've stayed at, but still nice. Valet is out front and prompt. Our room faced the street and it was loud. Nothing shocking for being downtown in a major city. But I'm a good sleeper and was awoken several times by people on the streets and traffic sounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>We were in town for the Astros game. Location was great - about 10 - 15 minute walk to Minute Maid park. Lots of restaurants/bars along the way. Our room was great - exactly what I expect from an Aloft. Sleek and clean, no frills but nice. The pool area was a little small, but was nice for sitting around/lounging with drinks. Not a ton of tanning chairs though, more lounge furniture.Downstairs felt a little less sleek than other Alofts I've stayed at, but still nice. Valet is out front and prompt. Our room faced the street and it was loud. Nothing shocking for being downtown in a major city. But I'm a good sleeper and was awoken several times by people on the streets and traffic sounds.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r579281277-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -336,9 +615,6 @@
     <t>Our family of 4 stayed here while we were in town to see Hamilton at the Hobby Center.  The hotel is centrally located, there is a market right across the street, very safe neighborhood.  Uber cost $32 from the Houston airport.  Well worth it.  The pool area was really nice.  Our room was actually much bigger than other Alofts we have stayed at previously.  No noise and a very clean hotel.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded May 10, 2018</t>
   </si>
   <si>
@@ -396,6 +672,57 @@
     <t>I just completed a stay here and overall give this property a positive review. It is NOT a "cookie cutter" Aloft like you'll see around the suburbs of Dallas or anywhere else. This property was a gut job of an old building in downtown Houston. It retains some of the character of the old building and to me that is a nice touch.The rooms are very typical Aloft, on the small side (no Platinum upgrade of any sort), the bed is comfortable but the noise from the street is noticeable. They must not have gone with any sort of upgraded noise reduction windows as you hear the street noise 24x7,.The internet is by modern standards not up to par. There is no "enhanced option" (free for Platinum members chain wide) so all you get is about 2-3mps-- that is super slow by today's standards (I was at a Ritz Carlton last week and got 150mps).Their parking is expensive (valet only) at $32 which is about a third the cost of the room rate that I paid. The guests are definitely on the younger side as well.The location is very good, right in the middle of the business district.Overall, this is a good, not great location but considering the value I give it a "very good" rating.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r574582424-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574582424</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>OK hotel but noisy</t>
+  </si>
+  <si>
+    <t>Aloft is a chain in the Sheraton/Marriott group which seems to want to be young &amp; trendy, neither of which fit me.  In fact, several other folks staying there at the same time as I was weren't in that demographic, either.The rooms are fairly stark and mine was set up a bit oddly. There's a TV but it was aimed squarely at the door into the room.  You couldn't point it toward the bid and the only chair in the room was at what passes as the desk in the room.  (It was more of a counter top against one wall),The room was clean but the door to the closet, which was a slider, didn't slide.  There was a room safe but the battery was dead and wanted to just beep at me.  Fortunately, that didn't start happening until the morning, rather than beeping all night.The people were very, very nice/friendly/helpful at the hotel but the downside was that the hotel is very noisy.   On my 1st morning there, I met another guest who was checking out, due to the noise level.  I wasn't quite as bothered as that but, then, I sleep on airplanes without earplugs.  Still, it was noisy enough to be pretty bothersome.   All in all, I don't plan to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Aloft is a chain in the Sheraton/Marriott group which seems to want to be young &amp; trendy, neither of which fit me.  In fact, several other folks staying there at the same time as I was weren't in that demographic, either.The rooms are fairly stark and mine was set up a bit oddly. There's a TV but it was aimed squarely at the door into the room.  You couldn't point it toward the bid and the only chair in the room was at what passes as the desk in the room.  (It was more of a counter top against one wall),The room was clean but the door to the closet, which was a slider, didn't slide.  There was a room safe but the battery was dead and wanted to just beep at me.  Fortunately, that didn't start happening until the morning, rather than beeping all night.The people were very, very nice/friendly/helpful at the hotel but the downside was that the hotel is very noisy.   On my 1st morning there, I met another guest who was checking out, due to the noise level.  I wasn't quite as bothered as that but, then, I sleep on airplanes without earplugs.  Still, it was noisy enough to be pretty bothersome.   All in all, I don't plan to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r573476255-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573476255</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Good hotel for biz trabel</t>
+  </si>
+  <si>
+    <t>Rooms well thought out - lobby very efficient use of space. Good bar and good breakfast area. The front desk is staffed heavy but it seemed slow to process.The beds are goodRoom Amenities solidLocation great for doing biz in downtown Houston MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Rooms well thought out - lobby very efficient use of space. Good bar and good breakfast area. The front desk is staffed heavy but it seemed slow to process.The beds are goodRoom Amenities solidLocation great for doing biz in downtown Houston More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r571988805-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,12 +738,6 @@
     <t>As a Starwood (now Marriott) enthusiast, I am always excited to explore the different brands through the US and abroad. Aloft never disappoints! From the extremely professional staff to its central location, Aloft Hotel provided the perfect catalyst for my friends and I to enjoy Houston. The surrounding area was safe with lots of street art unique to the city and several food options to choose from. The bartender at the pool was also extremely helpful in planning our nightly activities. Thumbs up to Aloft Houston Downtown!MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded April 8, 2018</t>
   </si>
   <si>
@@ -472,6 +793,54 @@
   </si>
   <si>
     <t>We booked a last minute room for a night out on the town.  The Aloft's price was the best we found for a nicer hotel and this was one of the best values I have found for hotels in downtown Houston.  It was clean, comfortable and the staff was very friendly and accommodating.  It was a short stay - in late and out early but it was perfect for our needs.  It's also well located and close to many of the venues and restaurants downtown.  I would recommend for anyone looking for a good value and a clean, modern hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r566199621-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566199621</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Nice downtown hotel</t>
+  </si>
+  <si>
+    <t>Centrally located this hotel is in a great location in downtown Houston just off Main St. Price wise very reasonable. With a nice vibe and friendly staff the rooms available  are well designed  and spacious. The hotel also has a top floor open air pool and bar area and there is also a well fitted out gym. The only slight downside is that there is currently quite a lot of building work going on opposite the hotel  so my room overlooked a building site that during the day generated quite a bit of noise. That aside had a really good stay so would definitely look to return the next time I am in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Centrally located this hotel is in a great location in downtown Houston just off Main St. Price wise very reasonable. With a nice vibe and friendly staff the rooms available  are well designed  and spacious. The hotel also has a top floor open air pool and bar area and there is also a well fitted out gym. The only slight downside is that there is currently quite a lot of building work going on opposite the hotel  so my room overlooked a building site that during the day generated quite a bit of noise. That aside had a really good stay so would definitely look to return the next time I am in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r566183158-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566183158</t>
+  </si>
+  <si>
+    <t>Comfortable Beds, Clean Room.</t>
+  </si>
+  <si>
+    <t>We stayed at the Aloft Downtown on a recent visit to Houston. The Hotel was ok but missed on a number of levels. Decor was a bit try hard, breakfast was confusing - go to the breakfast bar to see what you want - order from reception, back to the breakfast bar to receive your order - what can't the people in the breakfast bar take your order instead of pointing to reception?? Difficult to find good restaurants in walking distance, Fine if you want to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the Aloft Downtown on a recent visit to Houston. The Hotel was ok but missed on a number of levels. Decor was a bit try hard, breakfast was confusing - go to the breakfast bar to see what you want - order from reception, back to the breakfast bar to receive your order - what can't the people in the breakfast bar take your order instead of pointing to reception?? Difficult to find good restaurants in walking distance, Fine if you want to sleep.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r558167172-Aloft_Houston_Downtown-Houston_Texas.html</t>
@@ -559,6 +928,54 @@
     <t>We live in the suburbs of Houston and decided to stay in town for a night. Had never stayed in an Aloft before. This is a very old building that has been totally redone. Room was very clean and very tastefully decorated.  Hotel gym was very nice. I'm five foot three and the shower head was clearly designed for someone a foot taller. The lobby has a really cool vibe. There's a pool table and a nice looking bar area. It's not the most luxurious hotel in the downtown area, but it's way cheaper than most and convenient to the theatre district and to the rail.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r552620246-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552620246</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Disappointing Stay</t>
+  </si>
+  <si>
+    <t>I would love to give this hotel a great review but I can't.Water shut down on the morning of our first day- on a romantic weekend this is a real problem.  I don't think I need to explain that the inability to shower or wash hindered our time together!Screw ups with the breakfast service "card" program.Our room was brutal and gave us a wall view- a literal wall on the 9th floor- despite the hotel being empty.Our phone did not work throughout our stay- very sketchy.  Maintenance called but no lasting fix.An excessively casual staff who constantly referred to me as "Boss" and never did what they said they would do- deliver towels, fix phone, etc.The valet was exceptionally well-run.We had a young lady on the front desk Saturday the 6th who was fantastic and very helpful- everyone else was pretty much useless.Won't stay here again.  Better options in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>I would love to give this hotel a great review but I can't.Water shut down on the morning of our first day- on a romantic weekend this is a real problem.  I don't think I need to explain that the inability to shower or wash hindered our time together!Screw ups with the breakfast service "card" program.Our room was brutal and gave us a wall view- a literal wall on the 9th floor- despite the hotel being empty.Our phone did not work throughout our stay- very sketchy.  Maintenance called but no lasting fix.An excessively casual staff who constantly referred to me as "Boss" and never did what they said they would do- deliver towels, fix phone, etc.The valet was exceptionally well-run.We had a young lady on the front desk Saturday the 6th who was fantastic and very helpful- everyone else was pretty much useless.Won't stay here again.  Better options in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r551535429-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551535429</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Perfect for us</t>
+  </si>
+  <si>
+    <t>Very good value at $130 per night. The hotel is a modern design. The rooms are spacious and our king bed very comfortable. The staff was friendly and accommodating. Nice bar but limited food which was fine for us. We just did a quick overnight and had everything we wanted in very short walking distance. Parking $30. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Very good value at $130 per night. The hotel is a modern design. The rooms are spacious and our king bed very comfortable. The staff was friendly and accommodating. Nice bar but limited food which was fine for us. We just did a quick overnight and had everything we wanted in very short walking distance. Parking $30. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r547564783-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -635,6 +1052,54 @@
   </si>
   <si>
     <t>We were in Houston for one night for a concert and booked this hotel because of its proximity to the Toyota Center. We had a great stay! The rooms and decor were kind of funky and fun, my dog stayed for free and the location was perfect - we were even able to walk back to the hotel from the Toyota Center after the concert. I would recommend this hotel for anyone wanting a nice room in downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r539656921-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539656921</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>1 night stay on a business trip</t>
+  </si>
+  <si>
+    <t>I would chose a different hotel.  While room was spacious, it was dirty and I found a used towel and bar of soap as if someone came into the room after it was cleaned and decided to wish her hands.  I checked in very late at night and only noticed this after fully unpacking so did not move rooms.  Also, my room faced the street and I could hear every sound throughout the night!  There is no room service available although I have to say that the staff was helpful and was able to offer menus for ordering in. However, I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Aloft Houston Downtown, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>I would chose a different hotel.  While room was spacious, it was dirty and I found a used towel and bar of soap as if someone came into the room after it was cleaned and decided to wish her hands.  I checked in very late at night and only noticed this after fully unpacking so did not move rooms.  Also, my room faced the street and I could hear every sound throughout the night!  There is no room service available although I have to say that the staff was helpful and was able to offer menus for ordering in. However, I will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r538564245-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538564245</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>good visit great value</t>
+  </si>
+  <si>
+    <t>This is a good hotel. Its a rehabbed older building with clean and contemporary design.  the rooms are fine - not luxurious but have everything you need, I looked out on the street.  Wifi is good. Showers are decent with moderate water pressure, could be a bit hotter. I really liked the fact the windows open, great for clasutrophobes like me. Everything was super clean, room, lobby etc. The lobby has a decent little bar open evenings and is a good place to hang out for a bit. The gym is ok, has some decent equipment. The rooftop pool is great, Very spacious with lots of furniture spread around so you can easily find your own chill spot. I liked going there in the evenings. Didnt have any noise issues and I slept with the windows open.  Also free unlimited coffee in the morning. Location is good within walking distance to a lot of restaurants. Overall a great value would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>This is a good hotel. Its a rehabbed older building with clean and contemporary design.  the rooms are fine - not luxurious but have everything you need, I looked out on the street.  Wifi is good. Showers are decent with moderate water pressure, could be a bit hotter. I really liked the fact the windows open, great for clasutrophobes like me. Everything was super clean, room, lobby etc. The lobby has a decent little bar open evenings and is a good place to hang out for a bit. The gym is ok, has some decent equipment. The rooftop pool is great, Very spacious with lots of furniture spread around so you can easily find your own chill spot. I liked going there in the evenings. Didnt have any noise issues and I slept with the windows open.  Also free unlimited coffee in the morning. Location is good within walking distance to a lot of restaurants. Overall a great value would definitely stay again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r536135533-Aloft_Houston_Downtown-Houston_Texas.html</t>
@@ -682,9 +1147,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 25, 2017</t>
   </si>
   <si>
@@ -721,6 +1183,54 @@
     <t>Excellent modern rooms in what is apparently a heritage building in central downtown Houston - although the interior is generic modern and shows no sign of its deco origins. The shower is spacious but let down by a weak flow of water. The breakfast experience is appalling. No restaurant, just a cabinet with disposable cereals etc and a slot in the wall to order something warm, which you take away to find a seat in the lobby to eat. The lobby décor is basically ugly, all hard edges, dark, garish and a digital rolling billboard up behind reception. Reception was efficient but cold, and I saw no other hotel employees in my five-day stay. Wasn't even aware there was a pool on the roof - the hotel didn't try to make my stay enjoyable. I am still looking for an affordable 4-star downtown hotel with style, comfort and some class.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r534609392-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534609392</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Lower your expectation</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location in Houston Downtown and the staff is very friendly. The hotel has a rooftop pool which is also very good.Negative: - Some rooms look at a black wall. The funnels of the building with the black wall start to run at 0700 AM so that was it with a good and long sleep.  - The breakfast which gets offered is beyond a joke (some snacks only but definitely not a full breakfast)- The rooms are not nicely furnished (very cold sort of). An additional couch are something which would fill the room would definitely help. The shower is more a shower I've seend in hostels - all in all it appears very cheap and soulless. - Hotel just has a strange look, like you're walking in an building full of offices, not very welcoming except for the lobby which is the only area that looks cool. Didn't enjoy my stay at all.I was here for a business trip so all the above was somehow okay for me. If I would have been a tourist, I would have claimed money back as this hotel is not a 4-star hotel and not worth the money charged in my opinion. Very sad hotel - I'd tend to say the worst 4-star-hotel I've ever seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location in Houston Downtown and the staff is very friendly. The hotel has a rooftop pool which is also very good.Negative: - Some rooms look at a black wall. The funnels of the building with the black wall start to run at 0700 AM so that was it with a good and long sleep.  - The breakfast which gets offered is beyond a joke (some snacks only but definitely not a full breakfast)- The rooms are not nicely furnished (very cold sort of). An additional couch are something which would fill the room would definitely help. The shower is more a shower I've seend in hostels - all in all it appears very cheap and soulless. - Hotel just has a strange look, like you're walking in an building full of offices, not very welcoming except for the lobby which is the only area that looks cool. Didn't enjoy my stay at all.I was here for a business trip so all the above was somehow okay for me. If I would have been a tourist, I would have claimed money back as this hotel is not a 4-star hotel and not worth the money charged in my opinion. Very sad hotel - I'd tend to say the worst 4-star-hotel I've ever seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r532174007-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532174007</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Great Location, Comfortable Sleep</t>
+  </si>
+  <si>
+    <t>This location has a great position downtown Houston with a walking distance to a lot of attractions, must seen and restaurants.The quality of sleep at this hotel is amazing and the staff do everything possible to ensure the hotel guests satisfaction.The hotel is safe and the elevator is equipped with key recognition system to ensure the safety of the guests and that no intruders are allowed to the rooms.Rates are reasonable compared to downtown hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>This location has a great position downtown Houston with a walking distance to a lot of attractions, must seen and restaurants.The quality of sleep at this hotel is amazing and the staff do everything possible to ensure the hotel guests satisfaction.The hotel is safe and the elevator is equipped with key recognition system to ensure the safety of the guests and that no intruders are allowed to the rooms.Rates are reasonable compared to downtown hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r531805436-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -791,6 +1301,57 @@
   </si>
   <si>
     <t>If you don't mind street noise and train whistles all night, then this place is good for you.  A historic building, so probably not much they can do in the way of sound proofing.  Request a quiet room not facing towards the streetcars may help (or bring ear plugs).  Otherwise, it's a clean nice modern hotel with a decent fitness room.  Just wish I could've slept better, but was repeatedly woken up by random street noises.  Some found the beds hard, but I thought they were fine.  Walking distance to many restaurants, but most close at 8pm except the pricey places.  Downtown Houston is getting better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r526057119-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526057119</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>nice style</t>
+  </si>
+  <si>
+    <t>aloft houston downtown hotel is stylish hotel.room is spacious service compare to room price is worthy .from there you can walk arround 20 minutes you can see restaurant , coffeshop and many of theater .and side seen .the service is god too and staff is helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>aloft houston downtown hotel is stylish hotel.room is spacious service compare to room price is worthy .from there you can walk arround 20 minutes you can see restaurant , coffeshop and many of theater .and side seen .the service is god too and staff is helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r520540603-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520540603</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>The Aloft Hotel was BEYOND accommodating during Hurricane Harvey.  The staff provided impeccable service during my week-long stay.  It is a pleasant, hip environment for those young at heart.  Every request was fulfilled at a moment's notice.  The valet crew were readily available, and they even provided shuttle service to businesses in downtown Houston.  The kitchen provided hot meals, and the food was delicious; kudos and much thanks to the cook.  Those at the service desk were friendly, listened, and accommodated any request that I made.  A 5 star hotel, for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Aloft Houston Downtown, responded to this reviewResponded September 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2017</t>
+  </si>
+  <si>
+    <t>The Aloft Hotel was BEYOND accommodating during Hurricane Harvey.  The staff provided impeccable service during my week-long stay.  It is a pleasant, hip environment for those young at heart.  Every request was fulfilled at a moment's notice.  The valet crew were readily available, and they even provided shuttle service to businesses in downtown Houston.  The kitchen provided hot meals, and the food was delicious; kudos and much thanks to the cook.  Those at the service desk were friendly, listened, and accommodated any request that I made.  A 5 star hotel, for sure.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r517542403-Aloft_Houston_Downtown-Houston_Texas.html</t>
@@ -893,6 +1454,54 @@
 The usual frustrations about the Aloft brand are still here: plastic wrapped plastic cups, a vague sense of penny pinching but this is a lot nicer than...This is a better-than-average aloft hotel. The rooms are a big larger than I've seen before, and the location is quite nice.  Downtown Houston is definitely finding its way, and there are quite a few places to walk to for dinner, though this part of town feels a tad sketchy. If you are used to New York or downtown LA, you'll be fine, though.There's a whole deck up on the roof, which looked pretty nice, but I doubt you'll use it, all that often, to be honest.I slept pretty well here, but be warned--the views are basically of parking structures and parking lots--not much can be done about it. I was able to sleep but if you are a light sleeper, bring earplugs (I think they have some at the desk).  The bar downstairs looked nice but never seemed to have that many people there. There's a nice pool table--it's the kind of place that photographs well but when you get there..well, you just end up going to your room.The fitness center is mediocre but gets the job done. I dunno what it is about the SPG brands, bit their weights always hurt my hands--the handles just dig into the your skin! bring gloves if you are gonna lift weights. The usual frustrations about the Aloft brand are still here: plastic wrapped plastic cups, a vague sense of penny pinching but this is a lot nicer than the Aloft near the Galleria. Granted, that's not saying a whole lot, but if you are traveling for work and want to keep getting SPG points, this is a cheaper bet then the Westin, for sure.  The staff is nice and attentive--but you do get the sense that this might be their first or second job ever. No matter--they were always nice and friendly.Solid choice for an affordable work stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r498702993-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498702993</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Cleanest hotel downtown</t>
+  </si>
+  <si>
+    <t>We have stayed at several hotels in downtown Houston, and Aloft has been the most comfortable/cleanest. We left our car with valet ($30+tax/night) and proceeded to check in. Our check in experience was pleasurable as it was quick. Everything in this hotel appears to be incredibly clean and modern. The room was a great size and felt like a small apartment (minus a kitchen). The bed was so comfortable and the bathroom was large. I cannot express enough how clean everything in the overall hotel/room appeared to be. The lobby has lots of seating available and a pool table. There is a full snack bar in the lobby with lots of different items for purchase, ranging from candy bars to sushi. The only negative of this hotel: street noise at all hours of the day and night. We would stay at Aloft again in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at several hotels in downtown Houston, and Aloft has been the most comfortable/cleanest. We left our car with valet ($30+tax/night) and proceeded to check in. Our check in experience was pleasurable as it was quick. Everything in this hotel appears to be incredibly clean and modern. The room was a great size and felt like a small apartment (minus a kitchen). The bed was so comfortable and the bathroom was large. I cannot express enough how clean everything in the overall hotel/room appeared to be. The lobby has lots of seating available and a pool table. There is a full snack bar in the lobby with lots of different items for purchase, ranging from candy bars to sushi. The only negative of this hotel: street noise at all hours of the day and night. We would stay at Aloft again in a heartbeat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r496639789-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496639789</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Off my list.</t>
+  </si>
+  <si>
+    <t>I stayed last week on the 20th for one night. Aloft is going in the wrong direction with this brand and this property. I get the techno feel, etc which is fine. In this particular hotel, my objections: (1) that $100 incidental fee for one night on a $150 room night is ridiculous (still not refunded) - that alone is completely disproportionate - just using our credit card float in my opinion (2) the view outside my room was a brick wall - literally (3) they have no handle at all on the parking situation - another overreach. You can only park by valet, and then in my case it took almost half an hour for them to find my business colleague's car. All in all this property, though clean, good location, hip, etc., is a poor choice for business travel. Feels like a brand out of alignment with the market - including its millennial audience. Would not be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>I stayed last week on the 20th for one night. Aloft is going in the wrong direction with this brand and this property. I get the techno feel, etc which is fine. In this particular hotel, my objections: (1) that $100 incidental fee for one night on a $150 room night is ridiculous (still not refunded) - that alone is completely disproportionate - just using our credit card float in my opinion (2) the view outside my room was a brick wall - literally (3) they have no handle at all on the parking situation - another overreach. You can only park by valet, and then in my case it took almost half an hour for them to find my business colleague's car. All in all this property, though clean, good location, hip, etc., is a poor choice for business travel. Feels like a brand out of alignment with the market - including its millennial audience. Would not be my first choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r496304949-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -935,15 +1544,6 @@
 After arriving home, I checked my credit card balance and saw that I had three separate deposit charges...I reserved our room directly through Aloft's reservation telephone number.  I reserved one room for two nights for three adults.  I put the names of the other two adults on the room because they were arriving in Houston before me.  When they went to check in, the front desk asked for a new credit card for incidentals only (which we clearly confirmed), but upon check out we discovered that they had charged the full price of the room less deposit to the card. The room was very clearly retrofitted into an existing space, with lots of weird angles and corners . There was actually a window in the room that would have been half way between two rooms, so they just built a wall around it.  We were excited to have a corner room, until we realized that one set of windows looked out onto a parking garage across the street and the other set looked out on another building that was about 5 feet away.  They advertised a big party on the roof one of the nights we were staying, but they clearly hadn't planned for the number of people that came.  They ended up closing down the pool entirely and were extremely unapologetic about it when we expressed that it was one of the primary reasons we'd booked the hotel.After arriving home, I checked my credit card balance and saw that I had three separate deposit charges on my card from the hotel.  I called a month ago to dispute this and was told by the front desk that they had booked THREE SEPARATE ROOMS for our party, instead of just putting three names on my room.  They then charged a deposit for each and marked the other two rooms as no-shows.  The person I spoke with assured me that I'd see a refund within 10 days.  I called back 10 days later and there was not a single note on my account of the conversation, so they again told me they'd have it taken care of, I'd get an email confirmation within two days that the refund was being processed, and I'd have my refund within a few days.  We are now another week out and no word or refund. They've charged me over $900 for a disappointing room for a two night stay.  At that price, I could have stayed at a hotel where at least the service was good and the pool was open.  I will NEVER stay with another Aloft hotel again.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded June 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 28, 2017</t>
-  </si>
-  <si>
     <t>I reserved our room directly through Aloft's reservation telephone number.  I reserved one room for two nights for three adults.  I put the names of the other two adults on the room because they were arriving in Houston before me.  When they went to check in, the front desk asked for a new credit card for incidentals only (which we clearly confirmed), but upon check out we discovered that they had charged the full price of the room less deposit to the card. 
 The room was very clearly retrofitted into an existing space, with lots of weird angles and corners . There was actually a window in the room that would have been half way between two rooms, so they just built a wall around it.  We were excited to have a corner room, until we realized that one set of windows looked out onto a parking garage across the street and the other set looked out on another building that was about 5 feet away.  
 They advertised a big party on the roof one of the nights we were staying, but they clearly hadn't planned for the number of people that came.  They ended up closing down the pool entirely and were extremely unapologetic about it when we expressed that it was one of the primary reasons we'd booked the hotel.
@@ -974,6 +1574,65 @@
     <t>This Aloft preserved the external historic building but renovated the building to be reminiscent of many hotels I have stayed at in Holland in Scandanavia--lots of wood and chrome. Showers instead of baths, but a sleet modern look to the rooms. Service was great. Very interesting food selection that ranged from dramatic presentation of candy bars to chilled sushi and made-to-order eggs sandwiches for breakfast. Free coffee in the reception area and a pool table. The front desk staff were super helpful in getting shuttles, taxis, etc. They offered free ear plugs if noise is a problem and had a full range of toiletries available if you forgot something. Spg rewards you for refusing housekeeping, which I like. Elevators were quick even though the hotel was very busy.  Wifi free with room and very dependable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r488023302-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488023302</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Bad Management I Suppose..?</t>
+  </si>
+  <si>
+    <t>We did one of our staycations and this time we picked the new Aloft Hotel Downtown Houston. We had it narrowed down between a few different hotel that have opened up in the past few months since Super Bowl in downtown. This one was the best deal so we went with it.
+Now I am well aware that the Aloft brand isnt a 5 or ever a 4 star hotel we have stayed in the before. However this one was particularly disappointing.
+We were allowed a early check in at 1:00pm (very nice) and we really liked that this Aloft has ice machines on every floor, some Alofts do not and they will bring you up a baggy of wet ice upon request. The bad is the ice was covered in black slim! (See pic) 
+Also this Aloft didnt quite have the same "vibe" as the others we have stayed in that they truly captured the semi styling of The W sister hotels and this one was pretty dark as well. The room was a lil larger than other Alofts we have stayed but maybe that was just because it was a corner room. 
+The main issue that I have except for the slow service was the place is already falling apart and its only been open a few months, I would hate to see it in a couple of years. The toilet paper holder was broken, the toilet seat...We did one of our staycations and this time we picked the new Aloft Hotel Downtown Houston. We had it narrowed down between a few different hotel that have opened up in the past few months since Super Bowl in downtown. This one was the best deal so we went with it.Now I am well aware that the Aloft brand isnt a 5 or ever a 4 star hotel we have stayed in the before. However this one was particularly disappointing.We were allowed a early check in at 1:00pm (very nice) and we really liked that this Aloft has ice machines on every floor, some Alofts do not and they will bring you up a baggy of wet ice upon request. The bad is the ice was covered in black slim! (See pic) Also this Aloft didnt quite have the same "vibe" as the others we have stayed in that they truly captured the semi styling of The W sister hotels and this one was pretty dark as well. The room was a lil larger than other Alofts we have stayed but maybe that was just because it was a corner room. The main issue that I have except for the slow service was the place is already falling apart and its only been open a few months, I would hate to see it in a couple of years. The toilet paper holder was broken, the toilet seat was broken, there was already mold growing in the grout of the shower and the bathroom floor (see my pics with comments). We walked to get dinner and even half of the blue and red uplighting that adorns the building had burned out (see pic) The roof top pool was tiny, they could of made it much larger, they had plenty of room. There were people doing drugs right out in the open in the pool area! They didn't even care that there were the screaming children in the pool. The staff did nothing about it...yes they had to know because the entire area was filled with the pungent small that they were burning! Also I suppose the management will allow outside parties, when we were they someone was having a huge pool party that lasted into the night. Loud DJ playing rap and people walking all thru the hotel that were not guests...to me that is a huge safety issue.  Now this is ridicules...in our room along the baseboard there was about a 2" section that was never completed...in the middle of the wall! Did they build the hotel and run 2" short on base molding? ROTFLOL (See pic)We were very disappointed that the SPG Brand of hotels would let all this go on much less the poor maintenance. Maybe they will straightening out these issue...maybe not. We wont be back to find out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>We did one of our staycations and this time we picked the new Aloft Hotel Downtown Houston. We had it narrowed down between a few different hotel that have opened up in the past few months since Super Bowl in downtown. This one was the best deal so we went with it.
+Now I am well aware that the Aloft brand isnt a 5 or ever a 4 star hotel we have stayed in the before. However this one was particularly disappointing.
+We were allowed a early check in at 1:00pm (very nice) and we really liked that this Aloft has ice machines on every floor, some Alofts do not and they will bring you up a baggy of wet ice upon request. The bad is the ice was covered in black slim! (See pic) 
+Also this Aloft didnt quite have the same "vibe" as the others we have stayed in that they truly captured the semi styling of The W sister hotels and this one was pretty dark as well. The room was a lil larger than other Alofts we have stayed but maybe that was just because it was a corner room. 
+The main issue that I have except for the slow service was the place is already falling apart and its only been open a few months, I would hate to see it in a couple of years. The toilet paper holder was broken, the toilet seat...We did one of our staycations and this time we picked the new Aloft Hotel Downtown Houston. We had it narrowed down between a few different hotel that have opened up in the past few months since Super Bowl in downtown. This one was the best deal so we went with it.Now I am well aware that the Aloft brand isnt a 5 or ever a 4 star hotel we have stayed in the before. However this one was particularly disappointing.We were allowed a early check in at 1:00pm (very nice) and we really liked that this Aloft has ice machines on every floor, some Alofts do not and they will bring you up a baggy of wet ice upon request. The bad is the ice was covered in black slim! (See pic) Also this Aloft didnt quite have the same "vibe" as the others we have stayed in that they truly captured the semi styling of The W sister hotels and this one was pretty dark as well. The room was a lil larger than other Alofts we have stayed but maybe that was just because it was a corner room. The main issue that I have except for the slow service was the place is already falling apart and its only been open a few months, I would hate to see it in a couple of years. The toilet paper holder was broken, the toilet seat was broken, there was already mold growing in the grout of the shower and the bathroom floor (see my pics with comments). We walked to get dinner and even half of the blue and red uplighting that adorns the building had burned out (see pic) The roof top pool was tiny, they could of made it much larger, they had plenty of room. There were people doing drugs right out in the open in the pool area! They didn't even care that there were the screaming children in the pool. The staff did nothing about it...yes they had to know because the entire area was filled with the pungent small that they were burning! Also I suppose the management will allow outside parties, when we were they someone was having a huge pool party that lasted into the night. Loud DJ playing rap and people walking all thru the hotel that were not guests...to me that is a huge safety issue.  Now this is ridicules...in our room along the baseboard there was about a 2" section that was never completed...in the middle of the wall! Did they build the hotel and run 2" short on base molding? ROTFLOL (See pic)We were very disappointed that the SPG Brand of hotels would let all this go on much less the poor maintenance. Maybe they will straightening out these issue...maybe not. We wont be back to find out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r485134888-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485134888</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Happy Memories in Historic Building</t>
+  </si>
+  <si>
+    <t>I could not have been more pleased with my stay at this beautifully re-purposed building from a large furniture store from the 1890's (designated 'Historic Property') in downtown Houston.  Having had family in management of Stowers Furniture in the 1940-1950's, I had high hopes for my visit.  Every aspect from the welcome at registration, the comfortable room and the totally personable service from everyone in this hotel, made for a visit that will be repeated in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>I could not have been more pleased with my stay at this beautifully re-purposed building from a large furniture store from the 1890's (designated 'Historic Property') in downtown Houston.  Having had family in management of Stowers Furniture in the 1940-1950's, I had high hopes for my visit.  Every aspect from the welcome at registration, the comfortable room and the totally personable service from everyone in this hotel, made for a visit that will be repeated in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r484742001-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -992,12 +1651,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded May 23, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 23, 2017</t>
-  </si>
-  <si>
     <t>The hotel and rooms are very modern, beds comfortable, I would recommend you stay on the highest floors to escape the street noises because it is, in fact, downtown Houston.  I did not use valet parking I parked across the street it was easier and flat rate $15 no tipping neededMore</t>
   </si>
   <si>
@@ -1040,9 +1693,6 @@
     <t>So my best friend and I decided to take our weekend to Houston. This hotel was modern, clean and so convenient. Taylor at the front desk was friendly. The room was spacious, a good view and very clean ! Everything worked, even the body wash/ shampoo was pleasant ! Big Ups to the Valet guys who are out there each time opening doors and fast/safe with your car. Thank you Staff. I think the only bad side was the $4 bottle of cranberry juice. I'm staying here again ! MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded April 25, 2017</t>
   </si>
   <si>
@@ -1052,6 +1702,57 @@
     <t>So my best friend and I decided to take our weekend to Houston. This hotel was modern, clean and so convenient. Taylor at the front desk was friendly. The room was spacious, a good view and very clean ! Everything worked, even the body wash/ shampoo was pleasant ! Big Ups to the Valet guys who are out there each time opening doors and fast/safe with your car. Thank you Staff. I think the only bad side was the $4 bottle of cranberry juice. I'm staying here again ! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r475109979-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475109979</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Nice place, centrally located and nice people!</t>
+  </si>
+  <si>
+    <t>I am behind in posting this, but I stayed at this property for the Super Bowl in February. It was a great spot that was safely within walking distance of all of the downtown activities and the people were great. My room was nice and the hotel has a cool, aloft-y vibe. The front desk staff went above and beyond while I was there -- which was for a week -- especially Travis -- he was terrific. The bar and food options in the lobby are nice too. Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I am behind in posting this, but I stayed at this property for the Super Bowl in February. It was a great spot that was safely within walking distance of all of the downtown activities and the people were great. My room was nice and the hotel has a cool, aloft-y vibe. The front desk staff went above and beyond while I was there -- which was for a week -- especially Travis -- he was terrific. The bar and food options in the lobby are nice too. Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r473644196-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473644196</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Cost effective and clean</t>
+  </si>
+  <si>
+    <t>Quick trip to Houston.  I spent one night.  Historical building.  Rooms are very spacious.  They allow dogs too for no cost (I didn't have one but found this a great feature).  They have a little spot for breakfast or corner cafe is just down the street.  Convenient to downtown business.  I walked to my meeting.  Only thing I'd change is offering separate shampoo and conditioner.  Not the single combo product.  Learned last time I stayed at an aloft and brought my own. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Quick trip to Houston.  I spent one night.  Historical building.  Rooms are very spacious.  They allow dogs too for no cost (I didn't have one but found this a great feature).  They have a little spot for breakfast or corner cafe is just down the street.  Convenient to downtown business.  I walked to my meeting.  Only thing I'd change is offering separate shampoo and conditioner.  Not the single combo product.  Learned last time I stayed at an aloft and brought my own. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r472208697-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1823,58 @@
   </si>
   <si>
     <t>A very unique and modern Hotel.  Staff from front desk to the Valet Parking super friendly. Rooms are very clean with modern decor with great views of the City.  Restaurants within walking distance.  Close to transit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r469458658-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469458658</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Nickled and Dimed</t>
+  </si>
+  <si>
+    <t>The good: location, funky decor, friendly staff, fun rooftop bar, pretty good breakfast service/food, easy parking experience, did a nice job with accommodating our kids, nice rooms, bath products, towels, decent shower.
+The bad: room with no view, very dark hallways, extremely odd breakfast set-up designed to rip you off.
+We pre-paid for a room with breakfast. Instead of a ticket that allows you to have "breakfast" at a cafe or a buffet, the Aloft gives each person a $10 voucher for food at their oddly set-up cafe. When we checked in these vouchers were not given to us. So we went up to the cafe window at breakfast and ordered food, but the chef (who was very nice btw) told us that we needed to pay at the front desk (very odd) for food. I can understand this set-up for a drink, or chips, or candy, but to expect customers to repeat their orders to a very busy front-desk person while trying to eat breakfast in a cafe (with 2 young children) is bananapants. You are putting the customer in a terrible, awkward and frankly disrespected position. I try to roll with it, and ask the front-desk person how we receive free breakfast, they hand me the four $10 vouchers. I go back to the cafe person put in my order and then am told I have to get the voucher punched by the front-desk (which I did). No...The good: location, funky decor, friendly staff, fun rooftop bar, pretty good breakfast service/food, easy parking experience, did a nice job with accommodating our kids, nice rooms, bath products, towels, decent shower.The bad: room with no view, very dark hallways, extremely odd breakfast set-up designed to rip you off.We pre-paid for a room with breakfast. Instead of a ticket that allows you to have "breakfast" at a cafe or a buffet, the Aloft gives each person a $10 voucher for food at their oddly set-up cafe. When we checked in these vouchers were not given to us. So we went up to the cafe window at breakfast and ordered food, but the chef (who was very nice btw) told us that we needed to pay at the front desk (very odd) for food. I can understand this set-up for a drink, or chips, or candy, but to expect customers to repeat their orders to a very busy front-desk person while trying to eat breakfast in a cafe (with 2 young children) is bananapants. You are putting the customer in a terrible, awkward and frankly disrespected position. I try to roll with it, and ask the front-desk person how we receive free breakfast, they hand me the four $10 vouchers. I go back to the cafe person put in my order and then am told I have to get the voucher punched by the front-desk (which I did). No one ever tallied up our order or gave us a receipt or asked for anything else, they just punched our 4 vouchers and we ate what was admittedly a good but awkward breakfast. There was no way we exceeded the $40, but that shouldn't matter, breakfast is breakfast. Either you paid for a room with breakfast or not. That $40 business is asinine, fix it.I get back home after our trip and find that the hotel charged us extra for food (I'm assuming for this breakfast). I called (no one ever in the history of travel wants to call a hotel to quibble about $12 of incidental food charges when it was supposed to be part of a pre-paid breakfast) and the person who helped me wanted to call me back after "checking on my ticket." Sorry, no. You nickle and dime me and waste my time, bad. You make me wait for a callback to figure out your terrible accounting procedures, double bad. I'll eat the charge, hotel manager, get it figured out because based on the reviews I'm seeing here you have some work to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>The good: location, funky decor, friendly staff, fun rooftop bar, pretty good breakfast service/food, easy parking experience, did a nice job with accommodating our kids, nice rooms, bath products, towels, decent shower.
+The bad: room with no view, very dark hallways, extremely odd breakfast set-up designed to rip you off.
+We pre-paid for a room with breakfast. Instead of a ticket that allows you to have "breakfast" at a cafe or a buffet, the Aloft gives each person a $10 voucher for food at their oddly set-up cafe. When we checked in these vouchers were not given to us. So we went up to the cafe window at breakfast and ordered food, but the chef (who was very nice btw) told us that we needed to pay at the front desk (very odd) for food. I can understand this set-up for a drink, or chips, or candy, but to expect customers to repeat their orders to a very busy front-desk person while trying to eat breakfast in a cafe (with 2 young children) is bananapants. You are putting the customer in a terrible, awkward and frankly disrespected position. I try to roll with it, and ask the front-desk person how we receive free breakfast, they hand me the four $10 vouchers. I go back to the cafe person put in my order and then am told I have to get the voucher punched by the front-desk (which I did). No...The good: location, funky decor, friendly staff, fun rooftop bar, pretty good breakfast service/food, easy parking experience, did a nice job with accommodating our kids, nice rooms, bath products, towels, decent shower.The bad: room with no view, very dark hallways, extremely odd breakfast set-up designed to rip you off.We pre-paid for a room with breakfast. Instead of a ticket that allows you to have "breakfast" at a cafe or a buffet, the Aloft gives each person a $10 voucher for food at their oddly set-up cafe. When we checked in these vouchers were not given to us. So we went up to the cafe window at breakfast and ordered food, but the chef (who was very nice btw) told us that we needed to pay at the front desk (very odd) for food. I can understand this set-up for a drink, or chips, or candy, but to expect customers to repeat their orders to a very busy front-desk person while trying to eat breakfast in a cafe (with 2 young children) is bananapants. You are putting the customer in a terrible, awkward and frankly disrespected position. I try to roll with it, and ask the front-desk person how we receive free breakfast, they hand me the four $10 vouchers. I go back to the cafe person put in my order and then am told I have to get the voucher punched by the front-desk (which I did). No one ever tallied up our order or gave us a receipt or asked for anything else, they just punched our 4 vouchers and we ate what was admittedly a good but awkward breakfast. There was no way we exceeded the $40, but that shouldn't matter, breakfast is breakfast. Either you paid for a room with breakfast or not. That $40 business is asinine, fix it.I get back home after our trip and find that the hotel charged us extra for food (I'm assuming for this breakfast). I called (no one ever in the history of travel wants to call a hotel to quibble about $12 of incidental food charges when it was supposed to be part of a pre-paid breakfast) and the person who helped me wanted to call me back after "checking on my ticket." Sorry, no. You nickle and dime me and waste my time, bad. You make me wait for a callback to figure out your terrible accounting procedures, double bad. I'll eat the charge, hotel manager, get it figured out because based on the reviews I'm seeing here you have some work to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r468182659-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468182659</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Don't judge a book by its cover!  Not always as nice as it appears!</t>
+  </si>
+  <si>
+    <t>Room is VERY small.  My husband, 14 yr old son and I were very uncomfortable in this room!  The shower leaked from the glass into the entrance.  Beds were most uncomfortable I have slept on in any hotel. No microwave in room.  Can not turn on the light for the bathroom without it shining in everyone's eyes that are still trying to sleep!  I felt like I was in downtown New York with the constant sirens, car alarms and construction vehicles.  "Pet friendly" hotel with NO WHERE for your pet to use the bathroom at! When asked where to take them was told, "I don't know, I have never been asked that question.  I think there is a park about 4 blocks away."  WOW- really!?!  Who wants to walk their dog in downtown Houston 4 blocks away at 2am!?!  I realized bringing my pet was bad idea on day one so I boarded him at a nice place about 5 miles away.  I was charged a $125 pet fee out check out stating that my pet urinated in the room!  Completely not true!  I waived room service on day one and took him to the boarding facility that day!  So how in the hell did he pee in the room!?  The insane valet cost is ridiculous when there is no where to park!  Then the valet driver ran into something scrapping my husbands front bumper.  We realized it when we...Room is VERY small.  My husband, 14 yr old son and I were very uncomfortable in this room!  The shower leaked from the glass into the entrance.  Beds were most uncomfortable I have slept on in any hotel. No microwave in room.  Can not turn on the light for the bathroom without it shining in everyone's eyes that are still trying to sleep!  I felt like I was in downtown New York with the constant sirens, car alarms and construction vehicles.  "Pet friendly" hotel with NO WHERE for your pet to use the bathroom at! When asked where to take them was told, "I don't know, I have never been asked that question.  I think there is a park about 4 blocks away."  WOW- really!?!  Who wants to walk their dog in downtown Houston 4 blocks away at 2am!?!  I realized bringing my pet was bad idea on day one so I boarded him at a nice place about 5 miles away.  I was charged a $125 pet fee out check out stating that my pet urinated in the room!  Completely not true!  I waived room service on day one and took him to the boarding facility that day!  So how in the hell did he pee in the room!?  The insane valet cost is ridiculous when there is no where to park!  Then the valet driver ran into something scrapping my husbands front bumper.  We realized it when we stopped for gas on our way back home on the last night.  The rooftop pool is nice- to look at.  It is not even heated which was a big let down for my son as that is one of the reasons we stayed there.  I assumed at $190 a night, the 4 ft deep pool would be heated, considering there was not even a hot tub.  No free coffee at a "luxury hotel"..??  Who would have thought!?  I so much wish I would have stayed somewhere else and I would not be so mad at myself for booking here and paying $975 for 3  nights, valet, food and a pet fee that I should have never been charged!  To top it all off, my husband called Terrance the manager yesterday morning and still have not heard back from him as of 9pm tonight!  Save your money- stay somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Room is VERY small.  My husband, 14 yr old son and I were very uncomfortable in this room!  The shower leaked from the glass into the entrance.  Beds were most uncomfortable I have slept on in any hotel. No microwave in room.  Can not turn on the light for the bathroom without it shining in everyone's eyes that are still trying to sleep!  I felt like I was in downtown New York with the constant sirens, car alarms and construction vehicles.  "Pet friendly" hotel with NO WHERE for your pet to use the bathroom at! When asked where to take them was told, "I don't know, I have never been asked that question.  I think there is a park about 4 blocks away."  WOW- really!?!  Who wants to walk their dog in downtown Houston 4 blocks away at 2am!?!  I realized bringing my pet was bad idea on day one so I boarded him at a nice place about 5 miles away.  I was charged a $125 pet fee out check out stating that my pet urinated in the room!  Completely not true!  I waived room service on day one and took him to the boarding facility that day!  So how in the hell did he pee in the room!?  The insane valet cost is ridiculous when there is no where to park!  Then the valet driver ran into something scrapping my husbands front bumper.  We realized it when we...Room is VERY small.  My husband, 14 yr old son and I were very uncomfortable in this room!  The shower leaked from the glass into the entrance.  Beds were most uncomfortable I have slept on in any hotel. No microwave in room.  Can not turn on the light for the bathroom without it shining in everyone's eyes that are still trying to sleep!  I felt like I was in downtown New York with the constant sirens, car alarms and construction vehicles.  "Pet friendly" hotel with NO WHERE for your pet to use the bathroom at! When asked where to take them was told, "I don't know, I have never been asked that question.  I think there is a park about 4 blocks away."  WOW- really!?!  Who wants to walk their dog in downtown Houston 4 blocks away at 2am!?!  I realized bringing my pet was bad idea on day one so I boarded him at a nice place about 5 miles away.  I was charged a $125 pet fee out check out stating that my pet urinated in the room!  Completely not true!  I waived room service on day one and took him to the boarding facility that day!  So how in the hell did he pee in the room!?  The insane valet cost is ridiculous when there is no where to park!  Then the valet driver ran into something scrapping my husbands front bumper.  We realized it when we stopped for gas on our way back home on the last night.  The rooftop pool is nice- to look at.  It is not even heated which was a big let down for my son as that is one of the reasons we stayed there.  I assumed at $190 a night, the 4 ft deep pool would be heated, considering there was not even a hot tub.  No free coffee at a "luxury hotel"..??  Who would have thought!?  I so much wish I would have stayed somewhere else and I would not be so mad at myself for booking here and paying $975 for 3  nights, valet, food and a pet fee that I should have never been charged!  To top it all off, my husband called Terrance the manager yesterday morning and still have not heard back from him as of 9pm tonight!  Save your money- stay somewhere else!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r464884966-Aloft_Houston_Downtown-Houston_Texas.html</t>
@@ -1142,9 +1895,6 @@
 The ugly: I work for a very large organization that uses a well-known travel service. Despite this, the hotel could not accommodate the web payment that is generally used. It was a big kerfuffle, and it included them charging my card for the full room cost plus an additional 40% for incidentals. It took almost 3 days to work it out and several phone calls. I expressed my concerns about it at check in, but all I got was shoulder shrugs and a number to call so I had to deal with it myself. Not very impressed with that level of...Not overly impressed. Three night stay here in February 2017.The good: towels are soft, in room safe, the soap. If I'm listing the soap that should tell you something. The room was clean to my satisfaction, and the housekeepers did a good job replenishing things for the most part.The bad: very dark rooms and hallways. The decor isn't to my taste which is no big deal. But I prefer to have things a little better lit. The hallways are so dark that it's hard to even find your room number. Everything is dark blue and black and there is not enough lighting. The rooms are also very dark, I had to ask to have another lamp brought up and that didn't help much either. The bathroom is well lit, but the rest of the room is not.The ugly: I work for a very large organization that uses a well-known travel service. Despite this, the hotel could not accommodate the web payment that is generally used. It was a big kerfuffle, and it included them charging my card for the full room cost plus an additional 40% for incidentals. It took almost 3 days to work it out and several phone calls. I expressed my concerns about it at check in, but all I got was shoulder shrugs and a number to call so I had to deal with it myself. Not very impressed with that level of service.If you don't mind staying in a trendy looking cave the location is good and the rooms are clean. It's a 15 minute easy walk to the convention center. But as for me, the Aloft is coming off of my A-list for sure. The payment hassles and lack of support from registration staff sealed the deal for me. If this chain wants to be a player in business travel, they need to take very seriously these kinds of concerns. Checking into a hotel should be the most seamless thing I do on a business trip. It should not require half an hour of my time spent on phone calls to resolve a payment issue that should never have occurred in the first place.3/5/17 - updated to add that I got another surprise from this stay. When I was balancing my checking account I discovered they had charged my debit card $96 for three nights of parking. Charging for parking is expected, but not including it with the corporate payment for the hotel room was not. Nor was them charging it to my debit card without giving me a receipt or telling me they were doing it. It is not on receipt I received at check out. My expense report has already been turned in, so now I need to obtain a copy of the charges for parking, do another expense report with all the associated approvals, and get reimbursed. This place is like a gift that just keeps giving, sort of like herpes. I would seriously just avoid this place and all the associated hassles. MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded March 6, 2017</t>
   </si>
   <si>
@@ -1205,6 +1955,57 @@
     <t>Stayed here on an extended weekend trip. Discovered majority of the small shops and breakfast places close down for the weekend leaving dining options prior to dinner limited additionally the front desk had little knowledge of the area to provide recommendations. The hotel itself looks sharp from the street and a very modern design throughout. From here many kinks were discovered with the property. Sadly the "cool modern" escalators were out of order the entire trip. There is no hot water in the showers. After allowing the water to warm up for 8-10 minutes it will get warm but never actually hot. We experienced 2 false fire alarms within a 24-hour period causing us to evacuate the hotel. Our room was street facing which audibly sounded as if we were sleeping on the street itself. The valet was very slow in using the texting application to request your car. Majority of the time after texting we would have to again request the car in person for it to be pulled around. The largest concern was safety. On entering our room for the first time I was able to just push it open from the locked position. I called the front desk with this concern requesting a new room with a better door and they immediately sent a repair man. He arrived and worked on a solution within 15 minutes and fixed it so I at least couldn't push my way...Stayed here on an extended weekend trip. Discovered majority of the small shops and breakfast places close down for the weekend leaving dining options prior to dinner limited additionally the front desk had little knowledge of the area to provide recommendations. The hotel itself looks sharp from the street and a very modern design throughout. From here many kinks were discovered with the property. Sadly the "cool modern" escalators were out of order the entire trip. There is no hot water in the showers. After allowing the water to warm up for 8-10 minutes it will get warm but never actually hot. We experienced 2 false fire alarms within a 24-hour period causing us to evacuate the hotel. Our room was street facing which audibly sounded as if we were sleeping on the street itself. The valet was very slow in using the texting application to request your car. Majority of the time after texting we would have to again request the car in person for it to be pulled around. The largest concern was safety. On entering our room for the first time I was able to just push it open from the locked position. I called the front desk with this concern requesting a new room with a better door and they immediately sent a repair man. He arrived and worked on a solution within 15 minutes and fixed it so I at least couldn't push my way into the room. In conclusion, location was not bad as it was easy to get anywhere in the city. The rest of the hotel was all aesthetic and no substance. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r458812619-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458812619</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Disco Prison</t>
+  </si>
+  <si>
+    <t>hip new hotel trying to find it's groove.has a lot of rooms the face a brick wall, those are super quiet though.lots of homeless in the area.have a shop in the lobby for snacks and breakfast, was often out of items like milk for cereal.last week had only one elevator working.had to stop staying there, the showers were dirty and gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>hip new hotel trying to find it's groove.has a lot of rooms the face a brick wall, those are super quiet though.lots of homeless in the area.have a shop in the lobby for snacks and breakfast, was often out of items like milk for cereal.last week had only one elevator working.had to stop staying there, the showers were dirty and gross.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r458269499-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458269499</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Very Expensive for Small Room with Terrible View</t>
+  </si>
+  <si>
+    <t>Despite this hotel being new, there is nothing special about it. My room was rather small but extremely expensive. The view outside my window was a parking garage. The front desk staff was fine and friendly. It took awhile to get the water to become warm.  The outside noise was quite noticeable.  That may be expected in a downtown hotel but I was also awaken each morning by the phone ringing in a neighboring room.  There is no soundproofing whatsoever.  Paying an exorbitant amount for this room was robbery.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Despite this hotel being new, there is nothing special about it. My room was rather small but extremely expensive. The view outside my window was a parking garage. The front desk staff was fine and friendly. It took awhile to get the water to become warm.  The outside noise was quite noticeable.  That may be expected in a downtown hotel but I was also awaken each morning by the phone ringing in a neighboring room.  There is no soundproofing whatsoever.  Paying an exorbitant amount for this room was robbery.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r457918084-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1220,12 +2021,6 @@
     <t>I would NOT choose this hotel! There are far better choices in the downtown area. We stayed here for Super Bowl and were not impressed at all.Our room wasn't ready for check in. Then when we finally were able to get to our room, we had a shortage of coat hangers so I called and requested more. They never came. We had no hot water, just luke warm. When house keeping came, she did not replace washcloths or coffee creamer. I called and requested wash cloths and they brought me towels. I had to go downstairs to get my creamer. When I had tried to call again about the washcloths, our phone wouldn't work. Also, the bar is so tiny! Not much happening here! I would choose the Hilton Americas or Marriott Marquis over this hotel for sure!! MoreShow less</t>
   </si>
   <si>
-    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded February 10, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 10, 2017</t>
-  </si>
-  <si>
     <t>I would NOT choose this hotel! There are far better choices in the downtown area. We stayed here for Super Bowl and were not impressed at all.Our room wasn't ready for check in. Then when we finally were able to get to our room, we had a shortage of coat hangers so I called and requested more. They never came. We had no hot water, just luke warm. When house keeping came, she did not replace washcloths or coffee creamer. I called and requested wash cloths and they brought me towels. I had to go downstairs to get my creamer. When I had tried to call again about the washcloths, our phone wouldn't work. Also, the bar is so tiny! Not much happening here! I would choose the Hilton Americas or Marriott Marquis over this hotel for sure!! More</t>
   </si>
   <si>
@@ -1244,9 +2039,6 @@
     <t>We live in Houston and recently enjoyed a staycation at the Aloft Downtown Houston. The hotel is located a block from the metro rail which allowed us easy access to venues like Whit Oak Music Hall. Some of Houstons best restaurants are walking distance or short Uber ride away from the hotel.The location of this hotel is obviously excellent for business or pleasure but the true crowing jewel for me was the roof top pool area. Absolutely gorgeous! a small dipping pool, accented with bright, comfortable, abundant seating options are surrounded by the beautiful buildings of downtown Houston. Historic &amp; modern high rises soar above the pool deck on all sides. We plan to stay here again soon. Travel safely.MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded January 18, 2017</t>
   </si>
   <si>
@@ -1274,24 +2066,57 @@
     <t>My husband and I both enjoy running. So, when we decided to do the Houston Marathon for the 4th year we automatically decided to stay downtown Houston. When we found out the ALOFT was coming to downtown we were excited. We have stay at other sites. My husband booked it right away. Your customer service was so accommodating. Since we found out that you were a PET Friendly Hotel we decided to take our Chihuahua Zumma. You offered us a bed and pet bowls right away, she also got a treat bag with the essentials. The Hotel is modern and beautiful, super close to all of Houston's downtown attractions. It made it super easy for us, since we only had to walk 6 blocks (if that to the start line of the Marathon). Staff was so nice and super friendly. This hotel will be booked soon for our Marathon again next year. Thank you for being so helpful and attentive to our needs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r449195461-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449195461</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>NYE in HTX</t>
+  </si>
+  <si>
+    <t>My first stay at Aloft Downtown Houston for NYE was amazing. Gina at the Aloha Desk was friendly, knew all the local spots, and was a great help during my stay. Downtown Houston is very sleepy but this hotel is very close to all the happening Midtown bars/clubs. Also, this hotel is in walking distance of a CVS and Dominos. The lobby is very chic and great for entertaining your guests. The entire staff was a joy during my stay and even remembered my name. I will certainly return to this location next time I visit Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>My first stay at Aloft Downtown Houston for NYE was amazing. Gina at the Aloha Desk was friendly, knew all the local spots, and was a great help during my stay. Downtown Houston is very sleepy but this hotel is very close to all the happening Midtown bars/clubs. Also, this hotel is in walking distance of a CVS and Dominos. The lobby is very chic and great for entertaining your guests. The entire staff was a joy during my stay and even remembered my name. I will certainly return to this location next time I visit Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r448125560-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448125560</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Awesome bar!</t>
+  </si>
+  <si>
+    <t>The bar was very chill and had wasabi nuts! They were delicious! The food came out relatively quickly, and the bartender was very personable. Everyone that stays in the area should definitely check out the bar as a place to start the evening festivities.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The bar was very chill and had wasabi nuts! They were delicious! The food came out relatively quickly, and the bartender was very personable. Everyone that stays in the area should definitely check out the bar as a place to start the evening festivities.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r448114546-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
     <t>448114546</t>
   </si>
   <si>
-    <t>12/31/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kyla </t>
   </si>
   <si>
     <t>Probably the coolest and most down to earth bartender I've meet. Conversation is never boring and she makes you feel at home. Funny and witty. Honest and willing to meet any needs for her customers. 5/5!!!!MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Probably the coolest and most down to earth bartender I've meet. Conversation is never boring and she makes you feel at home. Funny and witty. Honest and willing to meet any needs for her customers. 5/5!!!!More</t>
   </si>
   <si>
@@ -1337,6 +2162,45 @@
     <t>My room was nice. Clean with a horrible view of the parking lot. I had no clue there was a bar inside of the hotel until my last night there. (I wish someone told me as I checked in) The bar tender Candice was very friendly and welcoming. I felt like we were old friends catching up. She made my boyfriend and I some of the best cocktails i've had in a while.... and I'm a bartender lol. What I didn't like was the fact that the cleaning staff will take all of the towels and wash cloths out of the room and only replenish the towels. I had to wait 45 min to receive clean wash cloths after I called front desk numerous times. also they come into the room at 8:30 am to clean it. They don't knock or use caution. I woke up twice to someone in my room. I wasn't bothered but it was creepy lol.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r445985517-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445985517</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Let me start by staying that Candice Walker is wonderful and exhibits role-model behaviors for the organization. She works at the WXYZ bar and makes a long day at work easier to deal with. There is not room services here and the rooms have a lot to be desired but they are working on it as they get more mature in the area. Regardless, Candice will greet you with a smile and do everything she can to make your stay better. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Let me start by staying that Candice Walker is wonderful and exhibits role-model behaviors for the organization. She works at the WXYZ bar and makes a long day at work easier to deal with. There is not room services here and the rooms have a lot to be desired but they are working on it as they get more mature in the area. Regardless, Candice will greet you with a smile and do everything she can to make your stay better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r445125481-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445125481</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>great hotel, awesome staff</t>
+  </si>
+  <si>
+    <t>I was having a pretty rough day, spent most of the day at Houston airport dealing with multiple flight delays and cancellations. I opted for the Aloft hotel for my overnight stay - I saw it opened about 6 monthes ago. I was greeted at the front desk by a young gentlemen with a warm smile, he got me through the check in process smoothly and quickly. it was late in the day (9.30pm) so I asked if room service was available, he advised they don't have room service but mentioned the bar had hot snacks/food and also he also gave other alternative which was helpful.This hotel stay was made worthwhile due to the lovely bar (Aloft WXYZ) staff Candice Walker, she was so attentive, friendly and helpful, she totally changed my day. She was able to tell me about the local area and she helped with my travel plans back to the airport. she's an asset to the hotel and although this hotel is further from the airport than others, I will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was having a pretty rough day, spent most of the day at Houston airport dealing with multiple flight delays and cancellations. I opted for the Aloft hotel for my overnight stay - I saw it opened about 6 monthes ago. I was greeted at the front desk by a young gentlemen with a warm smile, he got me through the check in process smoothly and quickly. it was late in the day (9.30pm) so I asked if room service was available, he advised they don't have room service but mentioned the bar had hot snacks/food and also he also gave other alternative which was helpful.This hotel stay was made worthwhile due to the lovely bar (Aloft WXYZ) staff Candice Walker, she was so attentive, friendly and helpful, she totally changed my day. She was able to tell me about the local area and she helped with my travel plans back to the airport. she's an asset to the hotel and although this hotel is further from the airport than others, I will definitely be staying here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r442645552-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1388,6 +2252,51 @@
     <t>I stayed here December 1st and found this new property to be fantastic.  Starting off with the valet, I loved the eTicket texted to you.  I could use my phone the next morning to request my car to be brought up.  The check in was easy.  The room had a great tall ceiling and a nice layout.  As a new hotel I noticed that the room was setup with amenities that mattered, but none that didn't (i.e., no in-room coffee machine, free coffee downstairs).  Nice DirecTV service and easy outlets near the bed.  Overall I just liked that it did look, feel and smell brand new.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r440764963-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440764963</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>This place is not good</t>
+  </si>
+  <si>
+    <t>I really hate to give an SPG property a bad review but this place deserves it.  One, there was no soap in the room.  There were the gas-station-esque dispensers in the shower but that was it.  Two, the free and clear water in my room had been opened and re-filled.  Three, they cancelled my room reservation before I got there because I had to take a late flight.  Four, the sink was plugged, which is normal--maids always leave plugs in which is another expected irritant--except in this case it was stuck closed.  Five, place is totally noisy with industrial and trash trucks rolling through all night.  And finally, the valet is a nazi.  When my uber guy picked me up he got harassed by the valet.  The problem?  There is a bus lane in front of the hotel.  The only place to stop is around the corner at the valet stand.  So as my uber is waiting, the valet is yelling at him--seriously yelling at him.  Am I the customer?  I roll over in my suit on the way to federal court and tell the valet to lay off my driver.  He doesn't.  He just keeps yelling at him for several minutes.  Finally, I yell at the valet and say hey pal, I am late for a meeting I will deal with you later leave my driver alone.  When I come back he says nothing.  The side door is locked...I really hate to give an SPG property a bad review but this place deserves it.  One, there was no soap in the room.  There were the gas-station-esque dispensers in the shower but that was it.  Two, the free and clear water in my room had been opened and re-filled.  Three, they cancelled my room reservation before I got there because I had to take a late flight.  Four, the sink was plugged, which is normal--maids always leave plugs in which is another expected irritant--except in this case it was stuck closed.  Five, place is totally noisy with industrial and trash trucks rolling through all night.  And finally, the valet is a nazi.  When my uber guy picked me up he got harassed by the valet.  The problem?  There is a bus lane in front of the hotel.  The only place to stop is around the corner at the valet stand.  So as my uber is waiting, the valet is yelling at him--seriously yelling at him.  Am I the customer?  I roll over in my suit on the way to federal court and tell the valet to lay off my driver.  He doesn't.  He just keeps yelling at him for several minutes.  Finally, I yell at the valet and say hey pal, I am late for a meeting I will deal with you later leave my driver alone.  When I come back he says nothing.  The side door is locked at 1:00 pm in the afternoon.  After I check out and have my uber waiting, which the same valet is already harassing, he then tries to make good by loading my bags thinking maybe he can get a tip.  I told him to buzz off.  I will never stay here again, and if you do, you are simply asking for it.  If all of this can happen, something is fundamentally wrong.  Go to the Westin, you will be happy.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Aloft Houston Downtown, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>I really hate to give an SPG property a bad review but this place deserves it.  One, there was no soap in the room.  There were the gas-station-esque dispensers in the shower but that was it.  Two, the free and clear water in my room had been opened and re-filled.  Three, they cancelled my room reservation before I got there because I had to take a late flight.  Four, the sink was plugged, which is normal--maids always leave plugs in which is another expected irritant--except in this case it was stuck closed.  Five, place is totally noisy with industrial and trash trucks rolling through all night.  And finally, the valet is a nazi.  When my uber guy picked me up he got harassed by the valet.  The problem?  There is a bus lane in front of the hotel.  The only place to stop is around the corner at the valet stand.  So as my uber is waiting, the valet is yelling at him--seriously yelling at him.  Am I the customer?  I roll over in my suit on the way to federal court and tell the valet to lay off my driver.  He doesn't.  He just keeps yelling at him for several minutes.  Finally, I yell at the valet and say hey pal, I am late for a meeting I will deal with you later leave my driver alone.  When I come back he says nothing.  The side door is locked...I really hate to give an SPG property a bad review but this place deserves it.  One, there was no soap in the room.  There were the gas-station-esque dispensers in the shower but that was it.  Two, the free and clear water in my room had been opened and re-filled.  Three, they cancelled my room reservation before I got there because I had to take a late flight.  Four, the sink was plugged, which is normal--maids always leave plugs in which is another expected irritant--except in this case it was stuck closed.  Five, place is totally noisy with industrial and trash trucks rolling through all night.  And finally, the valet is a nazi.  When my uber guy picked me up he got harassed by the valet.  The problem?  There is a bus lane in front of the hotel.  The only place to stop is around the corner at the valet stand.  So as my uber is waiting, the valet is yelling at him--seriously yelling at him.  Am I the customer?  I roll over in my suit on the way to federal court and tell the valet to lay off my driver.  He doesn't.  He just keeps yelling at him for several minutes.  Finally, I yell at the valet and say hey pal, I am late for a meeting I will deal with you later leave my driver alone.  When I come back he says nothing.  The side door is locked at 1:00 pm in the afternoon.  After I check out and have my uber waiting, which the same valet is already harassing, he then tries to make good by loading my bags thinking maybe he can get a tip.  I told him to buzz off.  I will never stay here again, and if you do, you are simply asking for it.  If all of this can happen, something is fundamentally wrong.  Go to the Westin, you will be happy.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r440428000-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440428000</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylish modern .... w/ few kinks </t>
+  </si>
+  <si>
+    <t>My husband me and our girls decided to check the hotel since was newly in Houston and we are Houstonians . Book for a great weekend rate just to take a break from the galleria hustle and bustle. Checked in life SPG members and upon check in the guy gives us third floor ... we requested higher and granted. First room had particles left from the renovation and dirty blue gloves maybe from housekeeping left in the trash bin. Notified them immediately they switched our rooms. Bar doesn't open until evening unless they have changed the hours now. Place is very colorful just as I would imagine. The noise from downtown and peering in through the rooms doesn't bother us at all as we would expect any downtown area to be loud and noisy although was not bad at all. Housekeeping didn't clean our room all day Saturday I had to call them well after 4pm that our room hadn't been cleaned. They came to clean right after the call. I think for me the biggest problem I had was that the valet service parks your paid cars blocks away from the hotel. I'm totally not a fan of that. I'm not sure where or when it happen but when we checked out Sunday I was missing two pairs of my designer glasses which I keep in my driver side door at all times. I can't say for sure who...My husband me and our girls decided to check the hotel since was newly in Houston and we are Houstonians . Book for a great weekend rate just to take a break from the galleria hustle and bustle. Checked in life SPG members and upon check in the guy gives us third floor ... we requested higher and granted. First room had particles left from the renovation and dirty blue gloves maybe from housekeeping left in the trash bin. Notified them immediately they switched our rooms. Bar doesn't open until evening unless they have changed the hours now. Place is very colorful just as I would imagine. The noise from downtown and peering in through the rooms doesn't bother us at all as we would expect any downtown area to be loud and noisy although was not bad at all. Housekeeping didn't clean our room all day Saturday I had to call them well after 4pm that our room hadn't been cleaned. They came to clean right after the call. I think for me the biggest problem I had was that the valet service parks your paid cars blocks away from the hotel. I'm totally not a fan of that. I'm not sure where or when it happen but when we checked out Sunday I was missing two pairs of my designer glasses which I keep in my driver side door at all times. I can't say for sure who done it or if valet may have left the doors open and someone help themselves but either way I still don't like the fact the cars are a ways a way from the actual property. They said they would look into it but I'm not going to be hopeful about that. At any rate hotel to me is the typical aloft flavor we love, actually didn't feel like houston and we are Houstonians. Maybe will return once kinks worked out. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>My husband me and our girls decided to check the hotel since was newly in Houston and we are Houstonians . Book for a great weekend rate just to take a break from the galleria hustle and bustle. Checked in life SPG members and upon check in the guy gives us third floor ... we requested higher and granted. First room had particles left from the renovation and dirty blue gloves maybe from housekeeping left in the trash bin. Notified them immediately they switched our rooms. Bar doesn't open until evening unless they have changed the hours now. Place is very colorful just as I would imagine. The noise from downtown and peering in through the rooms doesn't bother us at all as we would expect any downtown area to be loud and noisy although was not bad at all. Housekeeping didn't clean our room all day Saturday I had to call them well after 4pm that our room hadn't been cleaned. They came to clean right after the call. I think for me the biggest problem I had was that the valet service parks your paid cars blocks away from the hotel. I'm totally not a fan of that. I'm not sure where or when it happen but when we checked out Sunday I was missing two pairs of my designer glasses which I keep in my driver side door at all times. I can't say for sure who...My husband me and our girls decided to check the hotel since was newly in Houston and we are Houstonians . Book for a great weekend rate just to take a break from the galleria hustle and bustle. Checked in life SPG members and upon check in the guy gives us third floor ... we requested higher and granted. First room had particles left from the renovation and dirty blue gloves maybe from housekeeping left in the trash bin. Notified them immediately they switched our rooms. Bar doesn't open until evening unless they have changed the hours now. Place is very colorful just as I would imagine. The noise from downtown and peering in through the rooms doesn't bother us at all as we would expect any downtown area to be loud and noisy although was not bad at all. Housekeeping didn't clean our room all day Saturday I had to call them well after 4pm that our room hadn't been cleaned. They came to clean right after the call. I think for me the biggest problem I had was that the valet service parks your paid cars blocks away from the hotel. I'm totally not a fan of that. I'm not sure where or when it happen but when we checked out Sunday I was missing two pairs of my designer glasses which I keep in my driver side door at all times. I can't say for sure who done it or if valet may have left the doors open and someone help themselves but either way I still don't like the fact the cars are a ways a way from the actual property. They said they would look into it but I'm not going to be hopeful about that. At any rate hotel to me is the typical aloft flavor we love, actually didn't feel like houston and we are Houstonians. Maybe will return once kinks worked out. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r436499173-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1403,9 +2312,6 @@
     <t>I've traveled all over, but this is hotel far and away has the best service.  The front desk staff as well as the General Manager (Tamara) have all gone well beyond to make my experience the best it possibly could.  When I was looking for something to do on a Friday night, and never having been to Houston, she recommended a FABULOUS show then helped arrange transportation for me.  The hotel was quite modern, came with a mini fridge, blow dryer and some great soap and lotion.  This is a real treasure here in this lovingly restored historic building in the center of downtown.  Kudos to all!!MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded November 18, 2016</t>
   </si>
   <si>
@@ -1460,6 +2366,36 @@
     <t>The rooms are very modern, came with mini fridge and blow dryer, (believe it or not some places do not!!!) My big concern when it comes to staying in hotels is the water temp and pressure, and I was pleasantly surprised!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r435418502-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435418502</t>
+  </si>
+  <si>
+    <t>Great Service Experience</t>
+  </si>
+  <si>
+    <t>My husband and I stayed this past Friday night for a show that was near the hotel. We asked about any kind of room upgrades for SPG members and were given a corner room that was an interesting combination of the brand's modern updated design and the high ceilings and large windows from the original building. We did not notice any issue with sound from the streets, as some other reviewers have mentioned. Around midnight I realized I'd forgotten contact solution and case. I asked at the front desk and Haas (I think the security guard on duty) personally walked me down the block to the local convenience store and back. I would have felt totally comfortable going on my own, but I really appreciated the extra effort. He even helped me find what I was looking for in the store.Overall, the staff seemed pleased to be there and the room was spotless. We also appreciated having an empty fridge in the room for leftovers.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed this past Friday night for a show that was near the hotel. We asked about any kind of room upgrades for SPG members and were given a corner room that was an interesting combination of the brand's modern updated design and the high ceilings and large windows from the original building. We did not notice any issue with sound from the streets, as some other reviewers have mentioned. Around midnight I realized I'd forgotten contact solution and case. I asked at the front desk and Haas (I think the security guard on duty) personally walked me down the block to the local convenience store and back. I would have felt totally comfortable going on my own, but I really appreciated the extra effort. He even helped me find what I was looking for in the store.Overall, the staff seemed pleased to be there and the room was spotless. We also appreciated having an empty fridge in the room for leftovers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r435330791-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435330791</t>
+  </si>
+  <si>
+    <t>Employees and General Manager</t>
+  </si>
+  <si>
+    <t>Since i stayed there last night the staff were great and i love the hotel top to button including the view.room was very clean and Housekeepers did a great job, perfect attention I'm just waiting for the pool to open to come back. DcMoreShow less</t>
+  </si>
+  <si>
+    <t>Since i stayed there last night the staff were great and i love the hotel top to button including the view.room was very clean and Housekeepers did a great job, perfect attention I'm just waiting for the pool to open to come back. DcMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r434952083-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +2453,55 @@
     <t>I stayed here for a conference in October. It was just about the worst hotel experience I've ever had. I could hear every noise on the streets below as if they windows were open because the windows don't fit properly, I had holes in the wall in my bathroom, the elevators were broken one night and I had to climb 8 floors - twice, the lamp in my room didn't work, the fire alarm randomly went one night on floors 2-5 but not the rest of the hotel, the roof deck and pool were closed and so was the exercise room (under construction). The rooms are ridiculously designed so that you would have to walk past an entire wall of windows that face a parking garage to get from the closet area to the bathroom (better grab those clothes BEFORE you shower or always keep all blinds down) and the light fixture in the bathroom wasn't even centered over the sink (shoved all the way to the right side). Another person I traveled with had no shower wall and the bathroom flooded every time they showered. It took TWO DAYS to get the staff to bring shampoo to the room. I was given a dirty towel one day as a replacement and I'm reasonably sure they still haven't fixed the lamp in that room. I took the lamp down myself to the desk on the first day. I asked about...I stayed here for a conference in October. It was just about the worst hotel experience I've ever had. I could hear every noise on the streets below as if they windows were open because the windows don't fit properly, I had holes in the wall in my bathroom, the elevators were broken one night and I had to climb 8 floors - twice, the lamp in my room didn't work, the fire alarm randomly went one night on floors 2-5 but not the rest of the hotel, the roof deck and pool were closed and so was the exercise room (under construction). The rooms are ridiculously designed so that you would have to walk past an entire wall of windows that face a parking garage to get from the closet area to the bathroom (better grab those clothes BEFORE you shower or always keep all blinds down) and the light fixture in the bathroom wasn't even centered over the sink (shoved all the way to the right side). Another person I traveled with had no shower wall and the bathroom flooded every time they showered. It took TWO DAYS to get the staff to bring shampoo to the room. I was given a dirty towel one day as a replacement and I'm reasonably sure they still haven't fixed the lamp in that room. I took the lamp down myself to the desk on the first day. I asked about it three more times and they never even made a note of it, let alone replaced the lamp. Finally on checkout I said "would you please just write it down so the next person has a working lamp?"Basic horror show.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r433768431-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433768431</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Convenient location and modern hotel.</t>
+  </si>
+  <si>
+    <t>This hotel recently opened and you can tell.  The hotel is in immaculate condition.  They do need to workout some service issues as my colleagues had to wait 30 minutes for their breakfast.  Location is very central to some good bars and restaurants in downtown.  Rooms can be noisy with the sounds from the street.  I would recommend staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Aloft Houston Downtown, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel recently opened and you can tell.  The hotel is in immaculate condition.  They do need to workout some service issues as my colleagues had to wait 30 minutes for their breakfast.  Location is very central to some good bars and restaurants in downtown.  Rooms can be noisy with the sounds from the street.  I would recommend staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r433755861-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433755861</t>
+  </si>
+  <si>
+    <t>Perfect Spot for an After Work Getaway and Reasonable Downtown Stay!</t>
+  </si>
+  <si>
+    <t>Located just off of Main Street, with easy access to and off the Metro Rail this is a perfect spot for co-workers to gather without being drowned out by TV's and other bar patrons. in fact its still the best kept secret in downtown (barely a month or so old). I remember when they hung the official signage up just recently.
+However, a part of me is beating myself for telling you about it when I could simply keep it enjoying it without sharing something so good to others.
+With at least five or six huddle areas, your and your colleagues can meet for an after work debrief or a hard day or work. For those staying in the hotel you can lounge in peace and reflect quietly before or after you hit the streets.
+I loved the spaciousness in the lobby and the bar. The fire place I loved best of all along with the pool table. Where else in the heart of downtown can I find a pool table and fireplace in the same spot. You tell me. 
+Plus the personalized service by Candice, the bar's resident Queen of Customer Service sealed the deal for me. Her hiighly customer focused personality along with the good and fair priced drinks made this my place for me to escape to when in the area. 
+And Tamara's (the Operations Manager) overview of the whole deal can not go unnoticed. The place...Located just off of Main Street, with easy access to and off the Metro Rail this is a perfect spot for co-workers to gather without being drowned out by TV's and other bar patrons. in fact its still the best kept secret in downtown (barely a month or so old). I remember when they hung the official signage up just recently.However, a part of me is beating myself for telling you about it when I could simply keep it enjoying it without sharing something so good to others.With at least five or six huddle areas, your and your colleagues can meet for an after work debrief or a hard day or work. For those staying in the hotel you can lounge in peace and reflect quietly before or after you hit the streets.I loved the spaciousness in the lobby and the bar. The fire place I loved best of all along with the pool table. Where else in the heart of downtown can I find a pool table and fireplace in the same spot. You tell me. Plus the personalized service by Candice, the bar's resident Queen of Customer Service sealed the deal for me. Her hiighly customer focused personality along with the good and fair priced drinks made this my place for me to escape to when in the area. And Tamara's (the Operations Manager) overview of the whole deal can not go unnoticed. The place was impeccable. From the lobby to the restrooms. Even though I was only a bar client, I knew immediately what my stay would be like. Its the old airline principle in reverse. if the tray tables are broken you can bet there are engine issues as well. However, if the lobby and the restrooms are impeccable, you can bet like at Disney, the rest of it will fulfill your expectations. If it were not for the easy to overlook side street it is alongside (Walker leading to Travis I believe) I would have sworn i was in the heart of the Galleria. However, the Johnny On the Spot valets out front remind you that "you are not in Kansas anymore Toto". Pull in here is what your gut will tell you. Go look and the price and compare them to Marriott and Club Quarters a block away and your wallet will say the same. I guarantee it.P.S. Look for the upcoming pool opening and the bar specials as they work out their upcoming menu. I encourage you to come check it out for them. For me personally, i will continue to have a great spot for me and my people to go to whether you go or not. With the Superbowl coming I am contacting all of my folk to book now and at Aloft Houston Downtown before Thanksgiving.They call me . . . .Mr. True Review, Your Personal Scout."I look out for you because I want you to look out for me"MoreShow less</t>
+  </si>
+  <si>
+    <t>Located just off of Main Street, with easy access to and off the Metro Rail this is a perfect spot for co-workers to gather without being drowned out by TV's and other bar patrons. in fact its still the best kept secret in downtown (barely a month or so old). I remember when they hung the official signage up just recently.
+However, a part of me is beating myself for telling you about it when I could simply keep it enjoying it without sharing something so good to others.
+With at least five or six huddle areas, your and your colleagues can meet for an after work debrief or a hard day or work. For those staying in the hotel you can lounge in peace and reflect quietly before or after you hit the streets.
+I loved the spaciousness in the lobby and the bar. The fire place I loved best of all along with the pool table. Where else in the heart of downtown can I find a pool table and fireplace in the same spot. You tell me. 
+Plus the personalized service by Candice, the bar's resident Queen of Customer Service sealed the deal for me. Her hiighly customer focused personality along with the good and fair priced drinks made this my place for me to escape to when in the area. 
+And Tamara's (the Operations Manager) overview of the whole deal can not go unnoticed. The place...Located just off of Main Street, with easy access to and off the Metro Rail this is a perfect spot for co-workers to gather without being drowned out by TV's and other bar patrons. in fact its still the best kept secret in downtown (barely a month or so old). I remember when they hung the official signage up just recently.However, a part of me is beating myself for telling you about it when I could simply keep it enjoying it without sharing something so good to others.With at least five or six huddle areas, your and your colleagues can meet for an after work debrief or a hard day or work. For those staying in the hotel you can lounge in peace and reflect quietly before or after you hit the streets.I loved the spaciousness in the lobby and the bar. The fire place I loved best of all along with the pool table. Where else in the heart of downtown can I find a pool table and fireplace in the same spot. You tell me. Plus the personalized service by Candice, the bar's resident Queen of Customer Service sealed the deal for me. Her hiighly customer focused personality along with the good and fair priced drinks made this my place for me to escape to when in the area. And Tamara's (the Operations Manager) overview of the whole deal can not go unnoticed. The place was impeccable. From the lobby to the restrooms. Even though I was only a bar client, I knew immediately what my stay would be like. Its the old airline principle in reverse. if the tray tables are broken you can bet there are engine issues as well. However, if the lobby and the restrooms are impeccable, you can bet like at Disney, the rest of it will fulfill your expectations. If it were not for the easy to overlook side street it is alongside (Walker leading to Travis I believe) I would have sworn i was in the heart of the Galleria. However, the Johnny On the Spot valets out front remind you that "you are not in Kansas anymore Toto". Pull in here is what your gut will tell you. Go look and the price and compare them to Marriott and Club Quarters a block away and your wallet will say the same. I guarantee it.P.S. Look for the upcoming pool opening and the bar specials as they work out their upcoming menu. I encourage you to come check it out for them. For me personally, i will continue to have a great spot for me and my people to go to whether you go or not. With the Superbowl coming I am contacting all of my folk to book now and at Aloft Houston Downtown before Thanksgiving.They call me . . . .Mr. True Review, Your Personal Scout."I look out for you because I want you to look out for me"More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r432390748-Aloft_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +2572,42 @@
   </si>
   <si>
     <t>Couldn't sleep all night at this hotel. Construction outside and no soundproofing. Won't be staying again.  Wish I would have read other reviews before I booked a night here.  Constant beeping all night. Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r430636422-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430636422</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Adequate stay, nothing to write home about</t>
+  </si>
+  <si>
+    <t>Stayed here a few days after the hotel opened, and they were still going through some growing pains as the gym and pool were not yet open.  Had breakfast as SPG Plat, was pleasantly surprised with the breakfast sandwich.  Construction/decor seems to have been done with some lower-end materials, one window was not adequately soundproofed and heard cars driving by as we slept.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here a few days after the hotel opened, and they were still going through some growing pains as the gym and pool were not yet open.  Had breakfast as SPG Plat, was pleasantly surprised with the breakfast sandwich.  Construction/decor seems to have been done with some lower-end materials, one window was not adequately soundproofed and heard cars driving by as we slept.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r429895642-Aloft_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429895642</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Let's commiserate in the stairwell when the elevator is broken!</t>
+  </si>
+  <si>
+    <t>Where to start? When I booked this hotel three months ago, I had no idea the property didn't exist at the time. Upon arrival I learned the hotel only opened one week ago. SPG messed up on this opening in a major way. I'm not quite sure where to start.First, let me say that the staff is very kind and trying to accommodate, but the facility is a mess and there's nothing they can do to rectify that. The first room I had looked out onto a cinderblock wall, the second room had a non-functioning safe, the third room looks out onto a parking garage where everyone can see straight through to the toilet unless i have the blackout blinds closed. No overhead lights in the room. Phone didn't work. After leaving a $5 housekeeping tip, I didn't get fresh plastic cups. When the elevator was out, I climbed 7 flights to get to my room. On the way I encountered a guest going the other way carrying a lamp that didn't work.This whole experience has been a disaster. SPG should be embarrassed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to start? When I booked this hotel three months ago, I had no idea the property didn't exist at the time. Upon arrival I learned the hotel only opened one week ago. SPG messed up on this opening in a major way. I'm not quite sure where to start.First, let me say that the staff is very kind and trying to accommodate, but the facility is a mess and there's nothing they can do to rectify that. The first room I had looked out onto a cinderblock wall, the second room had a non-functioning safe, the third room looks out onto a parking garage where everyone can see straight through to the toilet unless i have the blackout blinds closed. No overhead lights in the room. Phone didn't work. After leaving a $5 housekeeping tip, I didn't get fresh plastic cups. When the elevator was out, I climbed 7 flights to get to my room. On the way I encountered a guest going the other way carrying a lamp that didn't work.This whole experience has been a disaster. SPG should be embarrassed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10259175-r429545332-Aloft_Houston_Downtown-Houston_Texas.html</t>
@@ -2157,7 +3178,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2165,29 +3186,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2203,58 +3214,52 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2270,58 +3275,58 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2337,58 +3342,58 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2404,34 +3409,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2441,19 +3446,19 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2469,52 +3474,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2530,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2539,49 +3550,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2597,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2606,43 +3611,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2658,7 +3669,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2667,49 +3678,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2725,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2734,25 +3745,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2770,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2792,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2801,25 +3812,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2831,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2853,7 +3864,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2862,49 +3873,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
-        <v>148</v>
-      </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2920,7 +3921,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2929,49 +3930,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2987,7 +3988,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2996,47 +3997,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -3052,7 +4055,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3061,43 +4064,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -3113,7 +4120,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3122,47 +4129,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -3178,7 +4181,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3187,49 +4190,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -3245,7 +4242,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3254,31 +4251,33 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3288,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
@@ -3310,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3319,43 +4318,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
         <v>132</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -3371,7 +4376,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3380,25 +4385,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3410,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -3432,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3441,29 +4446,29 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>4</v>
@@ -3471,19 +4476,19 @@
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
@@ -3499,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3508,39 +4513,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3556,7 +4569,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3565,22 +4578,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
@@ -3595,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
@@ -3617,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3626,43 +4639,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -3678,7 +4697,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3687,25 +4706,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3717,13 +4736,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -3739,7 +4758,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3748,43 +4767,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
@@ -3800,7 +4825,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3809,49 +4834,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
@@ -3867,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3876,43 +4895,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>267</v>
-      </c>
-      <c r="O29" t="s">
-        <v>217</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="X29" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
@@ -3928,7 +4953,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3937,49 +4962,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>132</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
@@ -3995,7 +5020,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4004,47 +5029,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
@@ -4060,7 +5085,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4069,47 +5094,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
@@ -4125,7 +5146,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4134,43 +5155,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -4186,7 +5213,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4195,25 +5222,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4225,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
@@ -4247,7 +5274,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4256,43 +5283,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
@@ -4308,7 +5339,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4317,47 +5348,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="X36" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
@@ -4373,7 +5406,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4382,43 +5415,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>106</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
@@ -4434,7 +5471,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4443,22 +5480,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
@@ -4473,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="X38" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="Y38" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
@@ -4495,7 +5532,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4504,29 +5541,29 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
@@ -4534,19 +5571,19 @@
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="X39" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
@@ -4562,7 +5599,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4571,25 +5608,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4601,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="X40" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
@@ -4623,7 +5660,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4632,25 +5669,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4662,13 +5699,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
@@ -4684,7 +5721,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4693,43 +5730,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="X42" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Y42" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43">
@@ -4745,7 +5788,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4754,49 +5797,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="O43" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="X43" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Y43" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
@@ -4812,7 +5853,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4821,43 +5862,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K44" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="O44" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Y44" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
@@ -4873,7 +5918,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4882,26 +5927,22 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>407</v>
-      </c>
-      <c r="O45" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
@@ -4912,13 +5953,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="X45" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Y45" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
@@ -4934,7 +5975,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4943,47 +5984,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
+        <v>409</v>
+      </c>
+      <c r="K46" t="s">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s">
         <v>411</v>
       </c>
-      <c r="K46" t="s">
-        <v>419</v>
-      </c>
-      <c r="L46" t="s">
-        <v>420</v>
-      </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="X46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Y46" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
@@ -4999,7 +6036,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5008,49 +6045,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="J47" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s">
         <v>53</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="X47" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Y47" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48">
@@ -5066,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5075,43 +6106,47 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="X48" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Y48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49">
@@ -5127,42 +6162,40 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>433</v>
+      </c>
+      <c r="J49" t="s">
+        <v>434</v>
+      </c>
+      <c r="K49" t="s">
         <v>435</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>436</v>
       </c>
-      <c r="J49" t="s">
-        <v>431</v>
-      </c>
-      <c r="K49" t="s">
-        <v>437</v>
-      </c>
-      <c r="L49" t="s">
-        <v>438</v>
-      </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5172,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="X49" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="Y49" t="s">
         <v>439</v>
@@ -5224,17 +6257,11 @@
         <v>53</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
@@ -5282,13 +6309,13 @@
         <v>453</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O51" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5300,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="X51" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y51" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52">
@@ -5322,7 +6349,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5331,22 +6358,22 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="O52" t="s">
         <v>53</v>
@@ -5356,22 +6383,24 @@
         <v>4</v>
       </c>
       <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="X52" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="Y52" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
@@ -5387,7 +6416,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5396,25 +6425,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J53" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K53" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5426,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="X53" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54">
@@ -5448,7 +6477,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5457,43 +6486,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K54" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="X54" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Y54" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
@@ -5509,7 +6542,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5518,43 +6551,43 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="J55" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K55" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>487</v>
+      </c>
+      <c r="X55" t="s">
+        <v>488</v>
+      </c>
       <c r="Y55" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56">
@@ -5570,7 +6603,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5579,43 +6612,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="J56" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K56" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L56" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="X56" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Y56" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57">
@@ -5631,7 +6670,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5640,22 +6679,22 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="J57" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K57" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L57" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s">
         <v>53</v>
@@ -5663,20 +6702,24 @@
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="X57" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="Y57" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58">
@@ -5692,7 +6735,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5701,25 +6744,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="J58" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K58" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5731,13 +6774,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="X58" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59">
@@ -5753,7 +6796,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5762,43 +6805,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="J59" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K59" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
       <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="X59" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="Y59" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60">
@@ -5814,7 +6863,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5823,43 +6872,2953 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="J60" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K60" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L60" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
       <c r="R60" t="s"/>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="X60" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="Y60" t="s">
-        <v>518</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>529</v>
+      </c>
+      <c r="J61" t="s">
+        <v>530</v>
+      </c>
+      <c r="K61" t="s">
+        <v>531</v>
+      </c>
+      <c r="L61" t="s">
+        <v>532</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>428</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>533</v>
+      </c>
+      <c r="X61" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>536</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>537</v>
+      </c>
+      <c r="J62" t="s">
+        <v>538</v>
+      </c>
+      <c r="K62" t="s">
+        <v>539</v>
+      </c>
+      <c r="L62" t="s">
+        <v>540</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>517</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>541</v>
+      </c>
+      <c r="X62" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>544</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>545</v>
+      </c>
+      <c r="J63" t="s">
+        <v>546</v>
+      </c>
+      <c r="K63" t="s">
+        <v>547</v>
+      </c>
+      <c r="L63" t="s">
+        <v>548</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>549</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>550</v>
+      </c>
+      <c r="X63" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>553</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>554</v>
+      </c>
+      <c r="J64" t="s">
+        <v>555</v>
+      </c>
+      <c r="K64" t="s">
+        <v>556</v>
+      </c>
+      <c r="L64" t="s">
+        <v>557</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>517</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>558</v>
+      </c>
+      <c r="X64" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>561</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>562</v>
+      </c>
+      <c r="J65" t="s">
+        <v>563</v>
+      </c>
+      <c r="K65" t="s">
+        <v>564</v>
+      </c>
+      <c r="L65" t="s">
+        <v>565</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>517</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>566</v>
+      </c>
+      <c r="X65" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>569</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>570</v>
+      </c>
+      <c r="J66" t="s">
+        <v>571</v>
+      </c>
+      <c r="K66" t="s">
+        <v>572</v>
+      </c>
+      <c r="L66" t="s">
+        <v>573</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>526</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>574</v>
+      </c>
+      <c r="X66" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>577</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>578</v>
+      </c>
+      <c r="J67" t="s">
+        <v>579</v>
+      </c>
+      <c r="K67" t="s">
+        <v>580</v>
+      </c>
+      <c r="L67" t="s">
+        <v>581</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>526</v>
+      </c>
+      <c r="O67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>582</v>
+      </c>
+      <c r="X67" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>585</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>586</v>
+      </c>
+      <c r="J68" t="s">
+        <v>587</v>
+      </c>
+      <c r="K68" t="s">
+        <v>588</v>
+      </c>
+      <c r="L68" t="s">
+        <v>589</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>526</v>
+      </c>
+      <c r="O68" t="s">
+        <v>132</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>590</v>
+      </c>
+      <c r="X68" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>593</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>594</v>
+      </c>
+      <c r="J69" t="s">
+        <v>595</v>
+      </c>
+      <c r="K69" t="s">
+        <v>596</v>
+      </c>
+      <c r="L69" t="s">
+        <v>597</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>526</v>
+      </c>
+      <c r="O69" t="s">
+        <v>132</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>598</v>
+      </c>
+      <c r="X69" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>601</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>602</v>
+      </c>
+      <c r="J70" t="s">
+        <v>603</v>
+      </c>
+      <c r="K70" t="s">
+        <v>604</v>
+      </c>
+      <c r="L70" t="s">
+        <v>605</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>549</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>606</v>
+      </c>
+      <c r="X70" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>609</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>610</v>
+      </c>
+      <c r="J71" t="s">
+        <v>611</v>
+      </c>
+      <c r="K71" t="s">
+        <v>612</v>
+      </c>
+      <c r="L71" t="s">
+        <v>613</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>549</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>614</v>
+      </c>
+      <c r="X71" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>617</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>618</v>
+      </c>
+      <c r="J72" t="s">
+        <v>619</v>
+      </c>
+      <c r="K72" t="s">
+        <v>620</v>
+      </c>
+      <c r="L72" t="s">
+        <v>621</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>549</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>622</v>
+      </c>
+      <c r="X72" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>625</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>626</v>
+      </c>
+      <c r="J73" t="s">
+        <v>627</v>
+      </c>
+      <c r="K73" t="s">
+        <v>628</v>
+      </c>
+      <c r="L73" t="s">
+        <v>629</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>630</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>631</v>
+      </c>
+      <c r="X73" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>634</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>635</v>
+      </c>
+      <c r="J74" t="s">
+        <v>636</v>
+      </c>
+      <c r="K74" t="s">
+        <v>637</v>
+      </c>
+      <c r="L74" t="s">
+        <v>638</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>549</v>
+      </c>
+      <c r="O74" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>639</v>
+      </c>
+      <c r="X74" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>642</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>643</v>
+      </c>
+      <c r="J75" t="s">
+        <v>644</v>
+      </c>
+      <c r="K75" t="s">
+        <v>645</v>
+      </c>
+      <c r="L75" t="s">
+        <v>646</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>549</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>639</v>
+      </c>
+      <c r="X75" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>648</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>649</v>
+      </c>
+      <c r="J76" t="s">
+        <v>650</v>
+      </c>
+      <c r="K76" t="s">
+        <v>651</v>
+      </c>
+      <c r="L76" t="s">
+        <v>652</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>630</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>653</v>
+      </c>
+      <c r="X76" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>656</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>657</v>
+      </c>
+      <c r="J77" t="s">
+        <v>658</v>
+      </c>
+      <c r="K77" t="s">
+        <v>659</v>
+      </c>
+      <c r="L77" t="s">
+        <v>660</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>630</v>
+      </c>
+      <c r="O77" t="s">
+        <v>132</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>653</v>
+      </c>
+      <c r="X77" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>662</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>663</v>
+      </c>
+      <c r="J78" t="s">
+        <v>664</v>
+      </c>
+      <c r="K78" t="s">
+        <v>665</v>
+      </c>
+      <c r="L78" t="s">
+        <v>666</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>630</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>653</v>
+      </c>
+      <c r="X78" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>668</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>669</v>
+      </c>
+      <c r="J79" t="s">
+        <v>670</v>
+      </c>
+      <c r="K79" t="s">
+        <v>671</v>
+      </c>
+      <c r="L79" t="s">
+        <v>672</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>673</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>653</v>
+      </c>
+      <c r="X79" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>675</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>676</v>
+      </c>
+      <c r="J80" t="s">
+        <v>670</v>
+      </c>
+      <c r="K80" t="s">
+        <v>677</v>
+      </c>
+      <c r="L80" t="s">
+        <v>678</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>673</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>653</v>
+      </c>
+      <c r="X80" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>680</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>681</v>
+      </c>
+      <c r="J81" t="s">
+        <v>682</v>
+      </c>
+      <c r="K81" t="s">
+        <v>683</v>
+      </c>
+      <c r="L81" t="s">
+        <v>684</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>673</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>685</v>
+      </c>
+      <c r="X81" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>688</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>689</v>
+      </c>
+      <c r="J82" t="s">
+        <v>682</v>
+      </c>
+      <c r="K82" t="s">
+        <v>690</v>
+      </c>
+      <c r="L82" t="s">
+        <v>691</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>673</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>692</v>
+      </c>
+      <c r="X82" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>694</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>695</v>
+      </c>
+      <c r="J83" t="s">
+        <v>696</v>
+      </c>
+      <c r="K83" t="s">
+        <v>697</v>
+      </c>
+      <c r="L83" t="s">
+        <v>698</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>673</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>699</v>
+      </c>
+      <c r="X83" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>701</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>702</v>
+      </c>
+      <c r="J84" t="s">
+        <v>703</v>
+      </c>
+      <c r="K84" t="s">
+        <v>704</v>
+      </c>
+      <c r="L84" t="s">
+        <v>705</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>673</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>685</v>
+      </c>
+      <c r="X84" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>707</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>708</v>
+      </c>
+      <c r="J85" t="s">
+        <v>709</v>
+      </c>
+      <c r="K85" t="s">
+        <v>710</v>
+      </c>
+      <c r="L85" t="s">
+        <v>711</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>673</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>685</v>
+      </c>
+      <c r="X85" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>713</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>714</v>
+      </c>
+      <c r="J86" t="s">
+        <v>715</v>
+      </c>
+      <c r="K86" t="s">
+        <v>716</v>
+      </c>
+      <c r="L86" t="s">
+        <v>717</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>673</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>685</v>
+      </c>
+      <c r="X86" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>719</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>720</v>
+      </c>
+      <c r="J87" t="s">
+        <v>715</v>
+      </c>
+      <c r="K87" t="s">
+        <v>721</v>
+      </c>
+      <c r="L87" t="s">
+        <v>722</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>673</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>685</v>
+      </c>
+      <c r="X87" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>724</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>725</v>
+      </c>
+      <c r="J88" t="s">
+        <v>726</v>
+      </c>
+      <c r="K88" t="s">
+        <v>727</v>
+      </c>
+      <c r="L88" t="s">
+        <v>728</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>729</v>
+      </c>
+      <c r="X88" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>732</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>733</v>
+      </c>
+      <c r="J89" t="s">
+        <v>734</v>
+      </c>
+      <c r="K89" t="s">
+        <v>735</v>
+      </c>
+      <c r="L89" t="s">
+        <v>736</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>737</v>
+      </c>
+      <c r="O89" t="s">
+        <v>132</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>729</v>
+      </c>
+      <c r="X89" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>739</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>740</v>
+      </c>
+      <c r="J90" t="s">
+        <v>741</v>
+      </c>
+      <c r="K90" t="s">
+        <v>742</v>
+      </c>
+      <c r="L90" t="s">
+        <v>743</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>737</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>744</v>
+      </c>
+      <c r="X90" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>747</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>748</v>
+      </c>
+      <c r="J91" t="s">
+        <v>749</v>
+      </c>
+      <c r="K91" t="s">
+        <v>750</v>
+      </c>
+      <c r="L91" t="s">
+        <v>751</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>737</v>
+      </c>
+      <c r="O91" t="s">
+        <v>132</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>752</v>
+      </c>
+      <c r="X91" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>755</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>756</v>
+      </c>
+      <c r="J92" t="s">
+        <v>757</v>
+      </c>
+      <c r="K92" t="s">
+        <v>758</v>
+      </c>
+      <c r="L92" t="s">
+        <v>759</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>760</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>752</v>
+      </c>
+      <c r="X92" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>762</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>763</v>
+      </c>
+      <c r="J93" t="s">
+        <v>757</v>
+      </c>
+      <c r="K93" t="s">
+        <v>764</v>
+      </c>
+      <c r="L93" t="s">
+        <v>765</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>737</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>752</v>
+      </c>
+      <c r="X93" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>767</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>768</v>
+      </c>
+      <c r="J94" t="s">
+        <v>757</v>
+      </c>
+      <c r="K94" t="s">
+        <v>769</v>
+      </c>
+      <c r="L94" t="s">
+        <v>770</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>737</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>752</v>
+      </c>
+      <c r="X94" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>772</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>773</v>
+      </c>
+      <c r="J95" t="s">
+        <v>774</v>
+      </c>
+      <c r="K95" t="s">
+        <v>775</v>
+      </c>
+      <c r="L95" t="s">
+        <v>776</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>737</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>777</v>
+      </c>
+      <c r="X95" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>780</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>781</v>
+      </c>
+      <c r="J96" t="s">
+        <v>774</v>
+      </c>
+      <c r="K96" t="s">
+        <v>782</v>
+      </c>
+      <c r="L96" t="s">
+        <v>783</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>737</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>777</v>
+      </c>
+      <c r="X96" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>785</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>786</v>
+      </c>
+      <c r="J97" t="s">
+        <v>787</v>
+      </c>
+      <c r="K97" t="s">
+        <v>788</v>
+      </c>
+      <c r="L97" t="s">
+        <v>789</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>760</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>791</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>792</v>
+      </c>
+      <c r="J98" t="s">
+        <v>793</v>
+      </c>
+      <c r="K98" t="s">
+        <v>794</v>
+      </c>
+      <c r="L98" t="s">
+        <v>795</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>760</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>796</v>
+      </c>
+      <c r="X98" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>799</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>800</v>
+      </c>
+      <c r="J99" t="s">
+        <v>793</v>
+      </c>
+      <c r="K99" t="s">
+        <v>801</v>
+      </c>
+      <c r="L99" t="s">
+        <v>802</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>760</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>796</v>
+      </c>
+      <c r="X99" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>804</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>805</v>
+      </c>
+      <c r="J100" t="s">
+        <v>806</v>
+      </c>
+      <c r="K100" t="s">
+        <v>807</v>
+      </c>
+      <c r="L100" t="s">
+        <v>808</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>760</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>809</v>
+      </c>
+      <c r="X100" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>812</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>813</v>
+      </c>
+      <c r="J101" t="s">
+        <v>814</v>
+      </c>
+      <c r="K101" t="s">
+        <v>815</v>
+      </c>
+      <c r="L101" t="s">
+        <v>816</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>760</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>817</v>
+      </c>
+      <c r="X101" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>820</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>821</v>
+      </c>
+      <c r="J102" t="s">
+        <v>822</v>
+      </c>
+      <c r="K102" t="s">
+        <v>823</v>
+      </c>
+      <c r="L102" t="s">
+        <v>824</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>760</v>
+      </c>
+      <c r="O102" t="s">
+        <v>59</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>825</v>
+      </c>
+      <c r="X102" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>828</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>829</v>
+      </c>
+      <c r="J103" t="s">
+        <v>830</v>
+      </c>
+      <c r="K103" t="s">
+        <v>831</v>
+      </c>
+      <c r="L103" t="s">
+        <v>832</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>760</v>
+      </c>
+      <c r="O103" t="s">
+        <v>68</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>825</v>
+      </c>
+      <c r="X103" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>834</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>835</v>
+      </c>
+      <c r="J104" t="s">
+        <v>836</v>
+      </c>
+      <c r="K104" t="s">
+        <v>837</v>
+      </c>
+      <c r="L104" t="s">
+        <v>838</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>760</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>825</v>
+      </c>
+      <c r="X104" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>840</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>841</v>
+      </c>
+      <c r="J105" t="s">
+        <v>842</v>
+      </c>
+      <c r="K105" t="s">
+        <v>843</v>
+      </c>
+      <c r="L105" t="s">
+        <v>844</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>760</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>825</v>
+      </c>
+      <c r="X105" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>65031</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>846</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>847</v>
+      </c>
+      <c r="J106" t="s">
+        <v>848</v>
+      </c>
+      <c r="K106" t="s">
+        <v>849</v>
+      </c>
+      <c r="L106" t="s">
+        <v>850</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>760</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>825</v>
+      </c>
+      <c r="X106" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
